--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -855,14 +855,18 @@
         <v>7761.0</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="n">
+        <v>23701.0</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="n">
+        <v>15981.0</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -871,7 +875,9 @@
       <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="n">
+        <v>6244.0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -880,7 +886,9 @@
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="n">
+        <v>15957.0</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,15 +1266,21 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="n">
+        <v>402079.0</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="n">
+        <v>179162.0</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="n">
+        <v>49165.0</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1281,7 +1295,9 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="n">
+        <v>45737.0</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1299,7 +1315,9 @@
       <c r="H41" s="1">
         <v>3</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="n">
+        <v>59989.0</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B7BD72E5-7F77-4DE4-B5B8-57C9921A8C5E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D0D48D36-C009-4D18-B032-2163B25868D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="11295" windowWidth="21600" xWindow="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1470"/>
   </bookViews>
@@ -158,6 +158,9 @@
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -165,9 +168,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,22 +469,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -701,22 +701,22 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -756,41 +756,25 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>15912.0</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>30556.0</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="n">
-        <v>16569.0</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>5203.0</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>15939.0</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>17025.0</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>7348.0</v>
-      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>15974.0</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -799,24 +783,16 @@
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>8987.0</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="n">
-        <v>29790.0</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>7379.0</v>
-      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>15968.0</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -825,24 +801,16 @@
       <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1918.0</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="n">
-        <v>30125.0</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>7403.0</v>
-      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>15991.0</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -851,22 +819,16 @@
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>7761.0</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="n">
-        <v>23701.0</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>15981.0</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -875,9 +837,7 @@
       <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>6244.0</v>
-      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -886,9 +846,7 @@
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>15957.0</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -975,22 +933,22 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1207,22 +1165,22 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1262,25 +1220,21 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="n">
+        <v>3996.0</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="n">
-        <v>402079.0</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>179162.0</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1" t="n">
-        <v>49165.0</v>
-      </c>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1295,9 +1249,7 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <v>45737.0</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1315,9 +1267,7 @@
       <c r="H41" s="1">
         <v>3</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <v>59989.0</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D0D48D36-C009-4D18-B032-2163B25868D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D0C54E4D-B857-4BB4-99ED-AB38C0239D1B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView windowHeight="11295" windowWidth="21600" xWindow="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1470"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,8 +524,12 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="n">
+        <v>3986.0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7940.0</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -533,8 +537,12 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1874.0</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -542,8 +550,12 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="n">
+        <v>4009.0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7248.0</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -551,8 +563,12 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1586.0</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
@@ -560,8 +576,12 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="n">
+        <v>4001.0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7828.0</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -569,8 +589,12 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="n">
+        <v>2742.0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>4012.0</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
@@ -578,8 +602,12 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="n">
+        <v>4010.0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>6911.0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -587,8 +615,12 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="n">
+        <v>1488.0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2063.0</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
@@ -596,8 +628,12 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="n">
+        <v>4024.0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>7344.0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -605,8 +641,12 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1353.0</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
@@ -614,8 +654,12 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="n">
+        <v>4018.0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7634.0</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -623,8 +667,12 @@
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>3994.0</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -632,8 +680,12 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="n">
+        <v>4009.0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6915.0</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -641,8 +693,12 @@
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1" t="n">
+        <v>1399.0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>2493.0</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -650,8 +706,12 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>4019.0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>7672.0</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -659,8 +719,12 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1" t="n">
+        <v>867.0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>3756.0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -668,8 +732,12 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="n">
+        <v>4029.0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>7784.0</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -677,8 +745,12 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1" t="n">
+        <v>3554.0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>3053.0</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -686,8 +758,12 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="n">
+        <v>3983.0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>7368.0</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -695,8 +771,12 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>2735.0</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -1220,9 +1300,7 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>3996.0</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D0C54E4D-B857-4BB4-99ED-AB38C0239D1B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD62407-829D-4AA5-A8D1-DE199D8C8C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11295" windowWidth="21600" xWindow="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1470"/>
+    <workbookView xWindow="4740" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>BinaryTreeGen</t>
   </si>
@@ -57,9 +57,6 @@
     <t>128x128</t>
   </si>
   <si>
-    <t>BiDFSSolve</t>
-  </si>
-  <si>
     <t>BFSSolve</t>
   </si>
   <si>
@@ -73,7 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,29 +149,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -192,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -230,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -265,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,21 +356,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -442,30 +439,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -478,12 +477,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -516,98 +515,90 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>3986.0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>7940.0</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>3883</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7312</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8627</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>4196</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4002</v>
+      </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>1351.0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1874.0</v>
-      </c>
+      <c r="I3" s="1">
+        <v>3835</v>
+      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>4009.0</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>7248.0</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>3957</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>12512</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>935.0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>1586.0</v>
-      </c>
+      <c r="I4" s="1">
+        <v>3585</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>4001.0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>7828.0</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>3966</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>12549</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>2742.0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>4012.0</v>
-      </c>
+      <c r="I5" s="1">
+        <v>3962</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>4010.0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>6911.0</v>
-      </c>
+      <c r="B6" s="1">
+        <v>3925</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -615,25 +606,20 @@
       <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>1488.0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>2063.0</v>
-      </c>
+      <c r="I6" s="1">
+        <v>3940</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>4024.0</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>7344.0</v>
-      </c>
+      <c r="B7" s="1">
+        <v>3933</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -641,25 +627,20 @@
       <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>417.0</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1353.0</v>
-      </c>
+      <c r="I7" s="1">
+        <v>3956</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>4018.0</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>7634.0</v>
-      </c>
+      <c r="B8" s="1">
+        <v>3942</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -667,25 +648,20 @@
       <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1155.0</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>3994.0</v>
-      </c>
+      <c r="I8" s="1">
+        <v>3986</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>4009.0</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>6915.0</v>
-      </c>
+      <c r="B9" s="1">
+        <v>3938</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -693,25 +669,20 @@
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>1399.0</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>2493.0</v>
-      </c>
+      <c r="I9" s="1">
+        <v>3963</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>4019.0</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>7672.0</v>
-      </c>
+      <c r="B10" s="1">
+        <v>3965</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -719,25 +690,18 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>867.0</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>3756.0</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>4029.0</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>7784.0</v>
-      </c>
+      <c r="B11" s="1">
+        <v>3965</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -745,25 +709,18 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>3554.0</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>3053.0</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>3983.0</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>7368.0</v>
-      </c>
+      <c r="B12" s="1">
+        <v>4007</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -771,31 +728,26 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>725.0</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>2735.0</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,9 +779,6 @@
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -848,7 +797,6 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -866,7 +814,6 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -884,7 +831,6 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -902,7 +848,6 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -920,7 +865,6 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -938,7 +882,6 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -956,7 +899,6 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -974,7 +916,6 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -992,7 +933,6 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1010,7 +950,6 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1022,12 +961,12 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1059,9 +998,6 @@
       </c>
       <c r="K26" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,7 +1016,6 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1098,7 +1033,6 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1116,7 +1050,6 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1134,7 +1067,6 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1152,7 +1084,6 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1170,7 +1101,6 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1188,7 +1118,6 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1206,7 +1135,6 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1224,7 +1152,6 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1242,7 +1169,6 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -1254,12 +1180,12 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1291,9 +1217,6 @@
       </c>
       <c r="K38" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1312,7 +1235,6 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1330,7 +1252,6 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1348,7 +1269,6 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1366,7 +1286,6 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1384,7 +1303,6 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1402,7 +1320,6 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1420,7 +1337,6 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1438,7 +1354,6 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1456,7 +1371,6 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -1474,20 +1388,19 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H37:L37"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD62407-829D-4AA5-A8D1-DE199D8C8C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FCD62407-829D-4AA5-A8D1-DE199D8C8C7C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11295" windowWidth="21600" xWindow="4740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1605"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -70,6 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,30 +150,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -189,10 +190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -227,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -356,21 +357,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -439,32 +440,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -529,7 +530,9 @@
       <c r="D3" s="1">
         <v>8627</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>129875.0</v>
+      </c>
       <c r="F3" s="1">
         <v>4196</v>
       </c>
@@ -542,7 +545,9 @@
       <c r="I3" s="1">
         <v>3835</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="n">
+        <v>199081.0</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,7 +562,9 @@
         <v>12512</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="n">
+        <v>273346.0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>2</v>
@@ -565,7 +572,9 @@
       <c r="I4" s="1">
         <v>3585</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="n">
+        <v>67242.0</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -580,7 +589,9 @@
         <v>12549</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="n">
+        <v>144632.0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>3</v>
@@ -601,7 +612,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="n">
+        <v>17560.0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>4</v>
@@ -690,7 +703,9 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="n">
+        <v>85127.0</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
@@ -709,7 +724,9 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="n">
+        <v>16104.0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -728,7 +745,9 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="n">
+        <v>15895.0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -1400,7 +1419,7 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H13:K13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FCD62407-829D-4AA5-A8D1-DE199D8C8C7C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C274FC3-CED7-4C1C-A237-67C8CB302E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11295" windowWidth="21600" xWindow="4740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1605"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="13">
   <si>
     <t>BinaryTreeGen</t>
   </si>
@@ -57,20 +57,19 @@
     <t>128x128</t>
   </si>
   <si>
-    <t>BFSSolve</t>
+    <t>BFS</t>
   </si>
   <si>
-    <t>DFSSolve</t>
+    <t>DFS</t>
   </si>
   <si>
-    <t>DijkstraSolve</t>
+    <t>Dijstra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -148,32 +147,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,10 +207,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -228,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,21 +374,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -440,53 +457,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="26" width="9.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -506,270 +533,425 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>3883</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7312</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8627</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>129875.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4196</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4002</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3835</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>199081.0</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>3957</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>12512</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="n">
-        <v>273346.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3585</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>67242.0</v>
-      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>3914</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>3966</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>12549</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="n">
-        <v>144632.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3962</v>
-      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>3925</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="n">
-        <v>17560.0</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3940</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>3933</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3956</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>3942</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3986</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3938</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3963</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>3965</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>85127.0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>3965</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>16104.0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>4007</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>15895.0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -789,18 +971,28 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -810,14 +1002,38 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -827,14 +1043,62 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -844,14 +1108,29 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>1</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -861,14 +1140,29 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>2</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -879,13 +1173,28 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -896,13 +1205,28 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -913,13 +1237,28 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -930,13 +1269,28 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -947,13 +1301,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -964,31 +1333,60 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1008,18 +1406,29 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1029,14 +1438,28 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1046,14 +1469,38 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="I28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1063,14 +1510,62 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1080,14 +1575,29 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>4</v>
+      <c r="H30" s="3">
+        <v>1</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1097,14 +1607,29 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
-        <v>5</v>
+      <c r="H31" s="3">
+        <v>2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1115,13 +1640,28 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1132,13 +1672,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1149,13 +1704,28 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1166,13 +1736,28 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1183,31 +1768,60 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1">
+        <v>8</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -1227,18 +1841,29 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1249,13 +1874,28 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="4"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1265,14 +1905,28 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1">
-        <v>2</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1282,14 +1936,38 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1">
+      <c r="I41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -1299,14 +1977,62 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1">
-        <v>4</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1316,14 +2042,29 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>1</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -1333,14 +2074,29 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>6</v>
+      <c r="H44" s="3">
+        <v>2</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -1351,13 +2107,28 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -1368,13 +2139,28 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -1385,13 +2171,28 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -1402,24 +2203,155 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>9</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="32">
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="I14:Z14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C274FC3-CED7-4C1C-A237-67C8CB302E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{90E102AC-73E7-457E-856A-A2934B190446}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -70,6 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,35 +163,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -207,10 +208,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -245,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -280,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,21 +375,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -405,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -457,61 +458,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="26" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="9" max="26" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -533,42 +534,44 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>3939</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -633,7 +636,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="n">
+        <v>3913.0</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -642,9 +647,15 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1" t="n">
+        <v>3939.0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>694.0</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -667,7 +678,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="n">
+        <v>3929.0</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -676,9 +689,15 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1" t="n">
+        <v>3939.0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>807.0</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -920,15 +939,15 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
@@ -971,26 +990,26 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1002,36 +1021,36 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="s">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8" t="s">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1355,15 +1374,15 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1">
         <v>9</v>
       </c>
@@ -1438,26 +1457,26 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1469,36 +1488,36 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8" t="s">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8" t="s">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1790,15 +1809,15 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="1">
         <v>8</v>
       </c>
@@ -1905,26 +1924,26 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1936,36 +1955,36 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8" t="s">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8" t="s">
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2318,22 +2337,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I40:Z40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="I27:Z27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A25:G25"/>
@@ -2350,8 +2353,24 @@
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -718,7 +718,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="n">
+        <v>3803.0</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -727,9 +729,15 @@
       <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1" t="n">
+        <v>3839.0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2288.0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1405.0</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent>
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{90E102AC-73E7-457E-856A-A2934B190446}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50380353-34EC-4B5D-9B67-DD68E7905C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
   <si>
     <t>BinaryTreeGen</t>
   </si>
@@ -88,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -161,37 +170,286 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,10 +466,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -246,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,21 +633,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -406,7 +664,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -458,18 +716,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,38 +741,38 @@
     <col min="9" max="26" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -534,451 +792,1190 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="s">
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="22"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3939</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>7459</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9715</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3934</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4218</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3963</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>3913.0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3">
+      <c r="B4" s="1">
+        <v>3913</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7188</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9368</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4009</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4326</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3973</v>
+      </c>
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>3939.0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>940.0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>694.0</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1">
-        <v>3914</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I4" s="14">
+        <v>3939</v>
+      </c>
+      <c r="J4" s="15">
+        <v>940</v>
+      </c>
+      <c r="K4" s="16">
+        <v>694</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1105</v>
+      </c>
+      <c r="M4" s="15">
+        <v>881</v>
+      </c>
+      <c r="N4" s="17">
+        <v>776</v>
+      </c>
+      <c r="O4" s="14">
+        <v>3955</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2692</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>3154</v>
+      </c>
+      <c r="R4" s="14">
+        <v>2412</v>
+      </c>
+      <c r="S4" s="15">
+        <v>2688</v>
+      </c>
+      <c r="T4" s="17">
+        <v>618</v>
+      </c>
+      <c r="U4" s="14">
+        <v>3824</v>
+      </c>
+      <c r="V4" s="15">
+        <v>2670</v>
+      </c>
+      <c r="W4" s="17">
+        <v>597</v>
+      </c>
+      <c r="X4" s="14">
+        <v>3613</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>5239</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>3742</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" ref="AC4:AE4" si="0">AVERAGE(I4:I13)</f>
+        <v>4001.1</v>
+      </c>
+      <c r="AD4" s="15">
+        <f t="shared" si="0"/>
+        <v>4093.7</v>
+      </c>
+      <c r="AE4" s="17">
+        <f t="shared" si="0"/>
+        <v>1694.9</v>
+      </c>
+      <c r="AF4" s="14">
+        <f t="shared" ref="AF4:AT4" si="1">AVERAGE(L4:L13)</f>
+        <v>1597.9</v>
+      </c>
+      <c r="AG4" s="15">
+        <f t="shared" si="1"/>
+        <v>2660.2</v>
+      </c>
+      <c r="AH4" s="17">
+        <f t="shared" si="1"/>
+        <v>1311.9</v>
+      </c>
+      <c r="AI4" s="14">
+        <f t="shared" si="1"/>
+        <v>3722.2</v>
+      </c>
+      <c r="AJ4" s="15">
+        <f t="shared" si="1"/>
+        <v>4292</v>
+      </c>
+      <c r="AK4" s="17">
+        <f t="shared" si="1"/>
+        <v>2138.4</v>
+      </c>
+      <c r="AL4" s="14">
+        <f t="shared" si="1"/>
+        <v>3509.8</v>
+      </c>
+      <c r="AM4" s="15">
+        <f t="shared" si="1"/>
+        <v>3286.7</v>
+      </c>
+      <c r="AN4" s="17">
+        <f t="shared" si="1"/>
+        <v>1348.2</v>
+      </c>
+      <c r="AO4" s="14">
+        <f t="shared" si="1"/>
+        <v>3986.4</v>
+      </c>
+      <c r="AP4" s="15">
+        <f t="shared" si="1"/>
+        <v>3846.7</v>
+      </c>
+      <c r="AQ4" s="17">
+        <f t="shared" si="1"/>
+        <v>1831.3</v>
+      </c>
+      <c r="AR4" s="14">
+        <f t="shared" si="1"/>
+        <v>3724</v>
+      </c>
+      <c r="AS4" s="15">
+        <f t="shared" si="1"/>
+        <v>3405</v>
+      </c>
+      <c r="AT4" s="17">
+        <f t="shared" si="1"/>
+        <v>2591.1999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>3929.0</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3">
+      <c r="B5" s="1">
+        <v>3929</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7696</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8669</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4024</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4147</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3989</v>
+      </c>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>3939.0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>1975.0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>807.0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>3939</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1975</v>
+      </c>
+      <c r="K5" s="6">
+        <v>807</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3069</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1725</v>
+      </c>
+      <c r="O5" s="7">
+        <v>3853</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3193</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2214</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3617</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1989</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1244</v>
+      </c>
+      <c r="U5" s="7">
+        <v>3834</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3902</v>
+      </c>
+      <c r="W5" s="8">
+        <v>741</v>
+      </c>
+      <c r="X5" s="7">
+        <v>3865</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4606</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1766</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="7">
+        <f>AVERAGE(I17:I26)</f>
+        <v>15805.3</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>AVERAGE(J17:J26)</f>
+        <v>14491.5</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>AVERAGE(K17:K26)</f>
+        <v>5092.3</v>
+      </c>
+      <c r="AF5" s="7">
+        <f>AVERAGE(L17:L26)</f>
+        <v>8103.4</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>AVERAGE(M17:M26)</f>
+        <v>9190.6</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AVERAGE(N17:N26)</f>
+        <v>5998.9</v>
+      </c>
+      <c r="AI5" s="7">
+        <f>AVERAGE(O17:O26)</f>
+        <v>14723</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>AVERAGE(P17:P26)</f>
+        <v>19040.599999999999</v>
+      </c>
+      <c r="AK5" s="8">
+        <f>AVERAGE(Q17:Q26)</f>
+        <v>10341.4</v>
+      </c>
+      <c r="AL5" s="7">
+        <f>AVERAGE(R17:R26)</f>
+        <v>13542.9</v>
+      </c>
+      <c r="AM5" s="1">
+        <f>AVERAGE(S17:S26)</f>
+        <v>17337.8</v>
+      </c>
+      <c r="AN5" s="8">
+        <f>AVERAGE(T17:T26)</f>
+        <v>5919.3</v>
+      </c>
+      <c r="AO5" s="7">
+        <f>AVERAGE(U17:U26)</f>
+        <v>15882.7</v>
+      </c>
+      <c r="AP5" s="1">
+        <f>AVERAGE(V17:V26)</f>
+        <v>14131.4</v>
+      </c>
+      <c r="AQ5" s="8">
+        <f>AVERAGE(W17:W26)</f>
+        <v>5147.7</v>
+      </c>
+      <c r="AR5" s="7">
+        <f>AVERAGE(X17:X26)</f>
+        <v>14918.1</v>
+      </c>
+      <c r="AS5" s="1">
+        <f>AVERAGE(Y17:Y26)</f>
+        <v>17284.400000000001</v>
+      </c>
+      <c r="AT5" s="8">
+        <f>AVERAGE(Z17:Z26)</f>
+        <v>9322.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>3803.0</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="B6" s="1">
+        <v>3803</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7855</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9314</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4207</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4275</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3951</v>
+      </c>
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>3839.0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>2288.0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1405.0</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>3839</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2288</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1405</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1625</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1523</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1343</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2669</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6539</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>726</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3655</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2787</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1048</v>
+      </c>
+      <c r="U6" s="7">
+        <v>4048</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1438</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1756</v>
+      </c>
+      <c r="X6" s="7">
+        <v>3683</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>6073</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>2811</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="7">
+        <f>AVERAGE(I30:I39)</f>
+        <v>67871.199999999997</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>AVERAGE(J30:J39)</f>
+        <v>64128</v>
+      </c>
+      <c r="AE6" s="8">
+        <f>AVERAGE(K30:K39)</f>
+        <v>25667</v>
+      </c>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="8"/>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="B7" s="1">
+        <v>3941</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6990</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8904</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3976</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4410</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3996</v>
+      </c>
+      <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>3994</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6337</v>
+      </c>
+      <c r="K7" s="6">
+        <v>781</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2269</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2341</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2025</v>
+      </c>
+      <c r="O7" s="7">
+        <v>3856</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5023</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1375</v>
+      </c>
+      <c r="R7" s="7">
+        <v>4006</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1490</v>
+      </c>
+      <c r="T7" s="8">
+        <v>2093</v>
+      </c>
+      <c r="U7" s="7">
+        <v>4047</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5099</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2043</v>
+      </c>
+      <c r="X7" s="7">
+        <v>3716</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6422</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3272</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="11"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="B8" s="1">
+        <v>3972</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7304</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9570</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3979</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4488</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3997</v>
+      </c>
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>3994</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3712</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2627</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1277</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6887</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1013</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3849</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5400</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2431</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3181</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2517</v>
+      </c>
+      <c r="T8" s="8">
+        <v>963</v>
+      </c>
+      <c r="U8" s="7">
+        <v>4091</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3767</v>
+      </c>
+      <c r="W8" s="8">
+        <v>2526</v>
+      </c>
+      <c r="X8" s="7">
+        <v>3008</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2501</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="B9" s="1">
+        <v>3980</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7577</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9565</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3964</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4316</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3971</v>
+      </c>
+      <c r="H9" s="6">
         <v>6</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>4077</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1082</v>
+      </c>
+      <c r="K9" s="6">
+        <v>666</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1173</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1136</v>
+      </c>
+      <c r="N9" s="8">
+        <v>917</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3530</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1578</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2853</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3591</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2472</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1174</v>
+      </c>
+      <c r="U9" s="7">
+        <v>4035</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3955</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1538</v>
+      </c>
+      <c r="X9" s="7">
+        <v>3766</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2212</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="B10" s="1">
+        <v>3985</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7771</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8801</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4282</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3981</v>
+      </c>
+      <c r="H10" s="6">
         <v>7</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>4118</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6681</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3204</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2089</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2943</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1636</v>
+      </c>
+      <c r="O10" s="7">
+        <v>3998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6756</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2216</v>
+      </c>
+      <c r="R10" s="7">
+        <v>3648</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6634</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1001</v>
+      </c>
+      <c r="U10" s="7">
+        <v>4021</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5048</v>
+      </c>
+      <c r="W10" s="8">
+        <v>3588</v>
+      </c>
+      <c r="X10" s="7">
+        <v>3932</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1264</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="B11" s="1">
+        <v>3987</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7275</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9531</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3967</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4309</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3932</v>
+      </c>
+      <c r="H11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="7">
+        <v>4062</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5989</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3115</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1766</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1169</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1196</v>
+      </c>
+      <c r="O11" s="7">
+        <v>3964</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4429</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1951</v>
+      </c>
+      <c r="R11" s="7">
+        <v>3666</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5511</v>
+      </c>
+      <c r="T11" s="8">
+        <v>600</v>
+      </c>
+      <c r="U11" s="7">
+        <v>4012</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3801</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1147</v>
+      </c>
+      <c r="X11" s="7">
+        <v>4098</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1441</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="B12" s="1">
+        <v>4021</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7383</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9592</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3955</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4413</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3981</v>
+      </c>
+      <c r="H12" s="6">
         <v>9</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="I12" s="7">
+        <v>4038</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4543</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2901</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1324</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5447</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1275</v>
+      </c>
+      <c r="O12" s="7">
+        <v>4057</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3029</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1875</v>
+      </c>
+      <c r="R12" s="7">
+        <v>3575</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4671</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2681</v>
+      </c>
+      <c r="U12" s="7">
+        <v>4016</v>
+      </c>
+      <c r="V12" s="1">
+        <v>5087</v>
+      </c>
+      <c r="W12" s="8">
+        <v>3108</v>
+      </c>
+      <c r="X12" s="7">
+        <v>3600</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2629</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="6">
         <v>10</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I13" s="9">
+        <v>4011</v>
+      </c>
+      <c r="J13" s="10">
+        <v>7390</v>
+      </c>
+      <c r="K13" s="12">
+        <v>749</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1329</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1206</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1213</v>
+      </c>
+      <c r="O13" s="9">
+        <v>3491</v>
+      </c>
+      <c r="P13" s="10">
+        <v>4281</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>2589</v>
+      </c>
+      <c r="R13" s="9">
+        <v>3747</v>
+      </c>
+      <c r="S13" s="10">
+        <v>2108</v>
+      </c>
+      <c r="T13" s="11">
+        <v>2060</v>
+      </c>
+      <c r="U13" s="9">
+        <v>3936</v>
+      </c>
+      <c r="V13" s="10">
+        <v>3700</v>
+      </c>
+      <c r="W13" s="11">
+        <v>1269</v>
+      </c>
+      <c r="X13" s="9">
+        <v>3959</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>1663</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -998,130 +1995,154 @@
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="6" t="s">
+      <c r="B15" s="1">
+        <v>15853</v>
+      </c>
+      <c r="C15" s="1">
+        <v>31298</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36768</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15738</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16485</v>
+      </c>
+      <c r="G15" s="1">
+        <v>15709</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6" t="s">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6" t="s">
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6" t="s">
+      <c r="V15" s="21"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="22"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="2" t="s">
+      <c r="B16" s="1">
+        <v>15895</v>
+      </c>
+      <c r="C16" s="1">
+        <v>31130</v>
+      </c>
+      <c r="D16" s="1">
+        <v>51147</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15649</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16553</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15732</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="W16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1129,291 +2150,711 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3">
+      <c r="B17" s="1">
+        <v>16044</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30332</v>
+      </c>
+      <c r="D17" s="1">
+        <v>48662</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15885</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15803</v>
+      </c>
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="I17" s="7">
+        <v>15818</v>
+      </c>
+      <c r="J17" s="1">
+        <v>21265</v>
+      </c>
+      <c r="K17" s="8">
+        <v>6543</v>
+      </c>
+      <c r="L17" s="7">
+        <v>8181</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6959</v>
+      </c>
+      <c r="N17" s="8">
+        <v>6410</v>
+      </c>
+      <c r="O17" s="7">
+        <v>16018</v>
+      </c>
+      <c r="P17" s="1">
+        <v>22666</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>14162</v>
+      </c>
+      <c r="R17" s="7">
+        <v>13051</v>
+      </c>
+      <c r="S17" s="1">
+        <v>24628</v>
+      </c>
+      <c r="T17" s="8">
+        <v>2981</v>
+      </c>
+      <c r="U17" s="7">
+        <v>15791</v>
+      </c>
+      <c r="V17" s="1">
+        <v>14221</v>
+      </c>
+      <c r="W17" s="8">
+        <v>2554</v>
+      </c>
+      <c r="X17" s="7">
+        <v>13985</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>11779</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>5255</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3">
+      <c r="B18" s="1">
+        <v>15860</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30660</v>
+      </c>
+      <c r="D18" s="1">
+        <v>49766</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16123</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16641</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15800</v>
+      </c>
+      <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="I18" s="7">
+        <v>15907</v>
+      </c>
+      <c r="J18" s="1">
+        <v>27784</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7290</v>
+      </c>
+      <c r="L18" s="7">
+        <v>15909</v>
+      </c>
+      <c r="M18" s="1">
+        <v>15954</v>
+      </c>
+      <c r="N18" s="8">
+        <v>13158</v>
+      </c>
+      <c r="O18" s="7">
+        <v>14401</v>
+      </c>
+      <c r="P18" s="1">
+        <v>16216</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>6454</v>
+      </c>
+      <c r="R18" s="7">
+        <v>13957</v>
+      </c>
+      <c r="S18" s="1">
+        <v>18134</v>
+      </c>
+      <c r="T18" s="8">
+        <v>8659</v>
+      </c>
+      <c r="U18" s="7">
+        <v>15904</v>
+      </c>
+      <c r="V18" s="1">
+        <v>19354</v>
+      </c>
+      <c r="W18" s="8">
+        <v>3506</v>
+      </c>
+      <c r="X18" s="7">
+        <v>15803</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>20310</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>6321</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
+      <c r="B19" s="1">
+        <v>15888</v>
+      </c>
+      <c r="C19" s="1">
+        <v>31464</v>
+      </c>
+      <c r="D19" s="1">
+        <v>49898</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15915</v>
+      </c>
+      <c r="F19" s="1">
+        <v>16463</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15737</v>
+      </c>
+      <c r="H19" s="6">
         <v>3</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="I19" s="7">
+        <v>15747</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9980</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2915</v>
+      </c>
+      <c r="L19" s="7">
+        <v>3874</v>
+      </c>
+      <c r="M19" s="1">
+        <v>16793</v>
+      </c>
+      <c r="N19" s="8">
+        <v>3029</v>
+      </c>
+      <c r="O19" s="7">
+        <v>15585</v>
+      </c>
+      <c r="P19" s="1">
+        <v>17468</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>12624</v>
+      </c>
+      <c r="R19" s="7">
+        <v>10119</v>
+      </c>
+      <c r="S19" s="1">
+        <v>23492</v>
+      </c>
+      <c r="T19" s="8">
+        <v>3282</v>
+      </c>
+      <c r="U19" s="7">
+        <v>15647</v>
+      </c>
+      <c r="V19" s="1">
+        <v>19349</v>
+      </c>
+      <c r="W19" s="8">
+        <v>1605</v>
+      </c>
+      <c r="X19" s="7">
+        <v>15906</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>15671</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>8373</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
+      <c r="B20" s="1">
+        <v>15753</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29325</v>
+      </c>
+      <c r="D20" s="1">
+        <v>50355</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16139</v>
+      </c>
+      <c r="F20" s="1">
+        <v>16471</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15912</v>
+      </c>
+      <c r="H20" s="6">
         <v>4</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="I20" s="7">
+        <v>15968</v>
+      </c>
+      <c r="J20" s="1">
+        <v>13708</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1419</v>
+      </c>
+      <c r="L20" s="7">
+        <v>13338</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9484</v>
+      </c>
+      <c r="N20" s="8">
+        <v>11801</v>
+      </c>
+      <c r="O20" s="7">
+        <v>15949</v>
+      </c>
+      <c r="P20" s="1">
+        <v>21867</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>12942</v>
+      </c>
+      <c r="R20" s="7">
+        <v>14549</v>
+      </c>
+      <c r="S20" s="1">
+        <v>7302</v>
+      </c>
+      <c r="T20" s="8">
+        <v>10282</v>
+      </c>
+      <c r="U20" s="7">
+        <v>15958</v>
+      </c>
+      <c r="V20" s="1">
+        <v>4606</v>
+      </c>
+      <c r="W20" s="8">
+        <v>2231</v>
+      </c>
+      <c r="X20" s="7">
+        <v>15225</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>20238</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>9642</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
+      <c r="B21" s="1">
+        <v>15730</v>
+      </c>
+      <c r="C21" s="1">
+        <v>31608</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38047</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15790</v>
+      </c>
+      <c r="F21" s="1">
+        <v>16836</v>
+      </c>
+      <c r="G21" s="1">
+        <v>15815</v>
+      </c>
+      <c r="H21" s="6">
         <v>5</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="I21" s="7">
+        <v>15931</v>
+      </c>
+      <c r="J21" s="1">
+        <v>23893</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2205</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5208</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3580</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3261</v>
+      </c>
+      <c r="O21" s="7">
+        <v>12177</v>
+      </c>
+      <c r="P21" s="1">
+        <v>23020</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>7927</v>
+      </c>
+      <c r="R21" s="7">
+        <v>13037</v>
+      </c>
+      <c r="S21" s="1">
+        <v>23461</v>
+      </c>
+      <c r="T21" s="8">
+        <v>4256</v>
+      </c>
+      <c r="U21" s="7">
+        <v>15878</v>
+      </c>
+      <c r="V21" s="1">
+        <v>12065</v>
+      </c>
+      <c r="W21" s="8">
+        <v>4923</v>
+      </c>
+      <c r="X21" s="7">
+        <v>13283</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>25742</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>9582</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
+      <c r="B22" s="1">
+        <v>15654</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30478</v>
+      </c>
+      <c r="D22" s="1">
+        <v>49265</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>16446</v>
+      </c>
+      <c r="G22" s="1">
+        <v>15977</v>
+      </c>
+      <c r="H22" s="6">
         <v>6</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="I22" s="7">
+        <v>15726</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7951</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4874</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4690</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2964</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2950</v>
+      </c>
+      <c r="O22" s="7">
+        <v>13173</v>
+      </c>
+      <c r="P22" s="1">
+        <v>8165</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>5819</v>
+      </c>
+      <c r="R22" s="7">
+        <v>12064</v>
+      </c>
+      <c r="S22" s="1">
+        <v>25073</v>
+      </c>
+      <c r="T22" s="8">
+        <v>3234</v>
+      </c>
+      <c r="U22" s="7">
+        <v>15689</v>
+      </c>
+      <c r="V22" s="1">
+        <v>18627</v>
+      </c>
+      <c r="W22" s="8">
+        <v>4436</v>
+      </c>
+      <c r="X22" s="7">
+        <v>14390</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>7662</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>13918</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
+      <c r="B23" s="1">
+        <v>16137</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30356</v>
+      </c>
+      <c r="D23" s="1">
+        <v>47673</v>
+      </c>
+      <c r="E23" s="1">
+        <v>15989</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16474</v>
+      </c>
+      <c r="G23" s="1">
+        <v>15896</v>
+      </c>
+      <c r="H23" s="6">
         <v>7</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="I23" s="7">
+        <v>15688</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4004</v>
+      </c>
+      <c r="K23" s="8">
+        <v>10344</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3542</v>
+      </c>
+      <c r="M23" s="1">
+        <v>10969</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2881</v>
+      </c>
+      <c r="O23" s="7">
+        <v>15259</v>
+      </c>
+      <c r="P23" s="1">
+        <v>27796</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>10382</v>
+      </c>
+      <c r="R23" s="7">
+        <v>12667</v>
+      </c>
+      <c r="S23" s="1">
+        <v>12602</v>
+      </c>
+      <c r="T23" s="8">
+        <v>3486</v>
+      </c>
+      <c r="U23" s="7">
+        <v>16144</v>
+      </c>
+      <c r="V23" s="1">
+        <v>13349</v>
+      </c>
+      <c r="W23" s="8">
+        <v>10500</v>
+      </c>
+      <c r="X23" s="7">
+        <v>15755</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>4330</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>9814</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
+      <c r="B24" s="1">
+        <v>15809</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30738</v>
+      </c>
+      <c r="D24" s="1">
+        <v>47477</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15968</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16684</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15887</v>
+      </c>
+      <c r="H24" s="6">
         <v>8</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="I24" s="7">
+        <v>15644</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21995</v>
+      </c>
+      <c r="K24" s="8">
+        <v>6068</v>
+      </c>
+      <c r="L24" s="7">
+        <v>12777</v>
+      </c>
+      <c r="M24" s="1">
+        <v>9895</v>
+      </c>
+      <c r="N24" s="8">
+        <v>6919</v>
+      </c>
+      <c r="O24" s="7">
+        <v>15648</v>
+      </c>
+      <c r="P24" s="1">
+        <v>14234</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>10812</v>
+      </c>
+      <c r="R24" s="7">
+        <v>14434</v>
+      </c>
+      <c r="S24" s="1">
+        <v>7287</v>
+      </c>
+      <c r="T24" s="8">
+        <v>11999</v>
+      </c>
+      <c r="U24" s="7">
+        <v>15837</v>
+      </c>
+      <c r="V24" s="1">
+        <v>16594</v>
+      </c>
+      <c r="W24" s="8">
+        <v>8572</v>
+      </c>
+      <c r="X24" s="7">
+        <v>12928</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>22323</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>11597</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="1">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="6">
         <v>9</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I25" s="7">
+        <v>15802</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5256</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1755</v>
+      </c>
+      <c r="L25" s="7">
+        <v>8825</v>
+      </c>
+      <c r="M25" s="1">
+        <v>11516</v>
+      </c>
+      <c r="N25" s="8">
+        <v>5753</v>
+      </c>
+      <c r="O25" s="7">
+        <v>15573</v>
+      </c>
+      <c r="P25" s="1">
+        <v>12070</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>8914</v>
+      </c>
+      <c r="R25" s="7">
+        <v>16074</v>
+      </c>
+      <c r="S25" s="1">
+        <v>17990</v>
+      </c>
+      <c r="T25" s="8">
+        <v>4817</v>
+      </c>
+      <c r="U25" s="7">
+        <v>15800</v>
+      </c>
+      <c r="V25" s="1">
+        <v>6004</v>
+      </c>
+      <c r="W25" s="8">
+        <v>8980</v>
+      </c>
+      <c r="X25" s="7">
+        <v>15938</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>17378</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1433,106 +2874,154 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="6">
         <v>10</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="I26" s="9">
+        <v>15822</v>
+      </c>
+      <c r="J26" s="10">
+        <v>9079</v>
+      </c>
+      <c r="K26" s="11">
+        <v>7510</v>
+      </c>
+      <c r="L26" s="13">
+        <v>4690</v>
+      </c>
+      <c r="M26" s="10">
+        <v>3792</v>
+      </c>
+      <c r="N26" s="11">
+        <v>3827</v>
+      </c>
+      <c r="O26" s="9">
+        <v>13447</v>
+      </c>
+      <c r="P26" s="10">
+        <v>26904</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>13378</v>
+      </c>
+      <c r="R26" s="9">
+        <v>15477</v>
+      </c>
+      <c r="S26" s="10">
+        <v>13409</v>
+      </c>
+      <c r="T26" s="11">
+        <v>6197</v>
+      </c>
+      <c r="U26" s="9">
+        <v>16179</v>
+      </c>
+      <c r="V26" s="10">
+        <v>17145</v>
+      </c>
+      <c r="W26" s="11">
+        <v>4170</v>
+      </c>
+      <c r="X26" s="9">
+        <v>15968</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>27411</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>13873</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1">
+        <v>67931</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>136355.0</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1">
+        <v>67327</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>135669.0</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6" t="s">
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6" t="s">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6" t="s">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6" t="s">
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1">
+        <v>67135</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>137078.0</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1596,8 +3085,12 @@
       <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1">
+        <v>67735</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>138011.0</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1605,12 +3098,24 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="I30" s="1">
+        <v>67628</v>
+      </c>
+      <c r="J30" s="1">
+        <v>67846</v>
+      </c>
+      <c r="K30" s="1">
+        <v>32988</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>33847.0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>38545.0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>17754.0</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1628,7 +3133,9 @@
       <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>67743</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1637,12 +3144,24 @@
       <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="I31" s="1">
+        <v>67635</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8137</v>
+      </c>
+      <c r="K31" s="1">
+        <v>35045</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>40817.0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>112364.0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>19042.0</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1660,7 +3179,9 @@
       <c r="A32" s="1">
         <v>6</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>67065</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1669,12 +3190,24 @@
       <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="I32" s="1">
+        <v>67047</v>
+      </c>
+      <c r="J32" s="1">
+        <v>56737</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5180</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>44107.0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>55366.0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>31104.0</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1692,7 +3225,9 @@
       <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>67538</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1701,12 +3236,24 @@
       <c r="H33" s="1">
         <v>4</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="I33" s="1">
+        <v>70807</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44509</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45833</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>62278.0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>112978.0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>43946.0</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -1724,7 +3271,9 @@
       <c r="A34" s="1">
         <v>8</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>67568</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1733,9 +3282,15 @@
       <c r="H34" s="1">
         <v>5</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="1">
+        <v>67488</v>
+      </c>
+      <c r="J34" s="1">
+        <v>113039</v>
+      </c>
+      <c r="K34" s="1">
+        <v>41922</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1756,7 +3311,9 @@
       <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>67639</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1765,9 +3322,15 @@
       <c r="H35" s="1">
         <v>6</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="1">
+        <v>67243</v>
+      </c>
+      <c r="J35" s="1">
+        <v>68901</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3682</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1788,7 +3351,9 @@
       <c r="A36" s="1">
         <v>10</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>67815</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1797,9 +3362,15 @@
       <c r="H36" s="1">
         <v>7</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="1">
+        <v>67416</v>
+      </c>
+      <c r="J36" s="1">
+        <v>106184</v>
+      </c>
+      <c r="K36" s="1">
+        <v>7056</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1817,21 +3388,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="1">
         <v>8</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="1">
+        <v>67843</v>
+      </c>
+      <c r="J37" s="1">
+        <v>47084</v>
+      </c>
+      <c r="K37" s="1">
+        <v>11540</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1871,9 +3448,15 @@
       <c r="H38" s="1">
         <v>9</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="1">
+        <v>67824</v>
+      </c>
+      <c r="J38" s="1">
+        <v>62757</v>
+      </c>
+      <c r="K38" s="1">
+        <v>38858</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1897,15 +3480,23 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>420417</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
         <v>10</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="I39" s="1">
+        <v>67781</v>
+      </c>
+      <c r="J39" s="1">
+        <v>66086</v>
+      </c>
+      <c r="K39" s="1">
+        <v>34566</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1932,26 +3523,26 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1963,36 +3554,36 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6" t="s">
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6" t="s">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6" t="s">
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6" t="s">
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6" t="s">
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2081,7 +3672,9 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="R43" s="1">
+        <v>205360</v>
+      </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -2344,9 +3937,7 @@
       <c r="Z52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A13:G13"/>
+  <mergeCells count="38">
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="I1:Z1"/>
@@ -2361,6 +3952,17 @@
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R15:T15"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="X15:Z15"/>
     <mergeCell ref="I27:Z27"/>
@@ -2368,17 +3970,14 @@
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="R28:T28"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="I40:Z40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50380353-34EC-4B5D-9B67-DD68E7905C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0AE8E-2807-4B64-8831-09CC32A466FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="20">
   <si>
     <t>BinaryTreeGen</t>
   </si>
@@ -72,16 +72,44 @@
     <t>DFS</t>
   </si>
   <si>
-    <t>Dijstra</t>
+    <t>Average time solve</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>Max time solve</t>
+  </si>
+  <si>
+    <t>Min time solve</t>
+  </si>
+  <si>
+    <t>Average time gen</t>
+  </si>
+  <si>
+    <t>Max time gen</t>
+  </si>
+  <si>
+    <t>Min time gen</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -392,17 +420,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -417,33 +707,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,136 +1108,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL53" sqref="AL53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="9" max="26" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.140625" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27"/>
+      <c r="AB1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="20"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="20" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="20" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="20" t="s">
+      <c r="V2" s="23"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="20" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
+      <c r="AB2" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="20" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AF2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="20" t="s">
+      <c r="AG2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="20" t="s">
+      <c r="AH2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="20" t="s">
+      <c r="AI2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="22"/>
+      <c r="AJ2" s="40"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -873,121 +1296,95 @@
       <c r="F3" s="1">
         <v>4218</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>3963</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="9" t="s">
+      <c r="W3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT3" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="Z3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="61">
+        <f>AVERAGE(B3:B12)/1000</f>
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="63">
+        <f>AVERAGE(C3:C12)/1000</f>
+        <v>7.4497999999999998</v>
+      </c>
+      <c r="AF3" s="63">
+        <f>AVERAGE(D3:D12)/1000</f>
+        <v>9.3028999999999993</v>
+      </c>
+      <c r="AG3" s="63">
+        <f>AVERAGE(E3:E12)/1000</f>
+        <v>4.0015000000000001</v>
+      </c>
+      <c r="AH3" s="63">
+        <f>AVERAGE(F3:F12)/1000</f>
+        <v>4.3183999999999996</v>
+      </c>
+      <c r="AI3" s="61">
+        <f>AVERAGE(G3:G12)/1000</f>
+        <v>3.9734000000000003</v>
+      </c>
+      <c r="AJ3" s="64"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1005,144 +1402,98 @@
       <c r="F4" s="1">
         <v>4326</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>3973</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="44">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>3939</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="12">
         <v>940</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>694</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <v>1105</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="12">
         <v>881</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <v>776</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="11">
         <v>3955</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="12">
         <v>2692</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="14">
         <v>3154</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="11">
         <v>2412</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="12">
         <v>2688</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="14">
         <v>618</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="11">
         <v>3824</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="12">
         <v>2670</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="14">
         <v>597</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="11">
         <v>3613</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="12">
         <v>5239</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="14">
         <v>3742</v>
       </c>
-      <c r="AB4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="14">
-        <f t="shared" ref="AC4:AE4" si="0">AVERAGE(I4:I13)</f>
-        <v>4001.1</v>
-      </c>
-      <c r="AD4" s="15">
-        <f t="shared" si="0"/>
-        <v>4093.7</v>
-      </c>
-      <c r="AE4" s="17">
-        <f t="shared" si="0"/>
-        <v>1694.9</v>
-      </c>
-      <c r="AF4" s="14">
-        <f t="shared" ref="AF4:AT4" si="1">AVERAGE(L4:L13)</f>
-        <v>1597.9</v>
-      </c>
-      <c r="AG4" s="15">
-        <f t="shared" si="1"/>
-        <v>2660.2</v>
-      </c>
-      <c r="AH4" s="17">
-        <f t="shared" si="1"/>
-        <v>1311.9</v>
-      </c>
-      <c r="AI4" s="14">
-        <f t="shared" si="1"/>
-        <v>3722.2</v>
-      </c>
-      <c r="AJ4" s="15">
-        <f t="shared" si="1"/>
-        <v>4292</v>
-      </c>
-      <c r="AK4" s="17">
-        <f t="shared" si="1"/>
-        <v>2138.4</v>
-      </c>
-      <c r="AL4" s="14">
-        <f t="shared" si="1"/>
-        <v>3509.8</v>
-      </c>
-      <c r="AM4" s="15">
-        <f t="shared" si="1"/>
-        <v>3286.7</v>
-      </c>
-      <c r="AN4" s="17">
-        <f t="shared" si="1"/>
-        <v>1348.2</v>
-      </c>
-      <c r="AO4" s="14">
-        <f t="shared" si="1"/>
-        <v>3986.4</v>
-      </c>
-      <c r="AP4" s="15">
-        <f t="shared" si="1"/>
-        <v>3846.7</v>
-      </c>
-      <c r="AQ4" s="17">
-        <f t="shared" si="1"/>
-        <v>1831.3</v>
-      </c>
-      <c r="AR4" s="14">
-        <f t="shared" si="1"/>
-        <v>3724</v>
-      </c>
-      <c r="AS4" s="15">
-        <f t="shared" si="1"/>
-        <v>3405</v>
-      </c>
-      <c r="AT4" s="17">
-        <f t="shared" si="1"/>
-        <v>2591.1999999999998</v>
-      </c>
+      <c r="AB4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="61">
+        <f>AVERAGE(B15:B24)/1000</f>
+        <v>15.862299999999999</v>
+      </c>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="63">
+        <f>AVERAGE(C15:C24)/1000</f>
+        <v>30.738900000000001</v>
+      </c>
+      <c r="AF4" s="63">
+        <f>AVERAGE(D15:D24)/1000</f>
+        <v>46.905800000000006</v>
+      </c>
+      <c r="AG4" s="63">
+        <f>AVERAGE(E15:E24)/1000</f>
+        <v>15.919600000000001</v>
+      </c>
+      <c r="AH4" s="63">
+        <f>AVERAGE(F15:F24)/1000</f>
+        <v>16.555299999999999</v>
+      </c>
+      <c r="AI4" s="61">
+        <f>AVERAGE(G15:G24)/1000</f>
+        <v>15.826799999999999</v>
+      </c>
+      <c r="AJ4" s="64"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1160,144 +1511,98 @@
       <c r="F5" s="1">
         <v>4147</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>3989</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="44">
         <v>2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>3939</v>
       </c>
       <c r="J5" s="1">
         <v>1975</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>807</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>2022</v>
       </c>
       <c r="M5" s="1">
         <v>3069</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <v>1725</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>3853</v>
       </c>
       <c r="P5" s="1">
         <v>3193</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <v>2214</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="4">
         <v>3617</v>
       </c>
       <c r="S5" s="1">
         <v>1989</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="5">
         <v>1244</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="4">
         <v>3834</v>
       </c>
       <c r="V5" s="1">
         <v>3902</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="5">
         <v>741</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="4">
         <v>3865</v>
       </c>
       <c r="Y5" s="1">
         <v>4606</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="5">
         <v>1766</v>
       </c>
-      <c r="AB5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="7">
-        <f>AVERAGE(I17:I26)</f>
-        <v>15805.3</v>
-      </c>
-      <c r="AD5" s="1">
-        <f>AVERAGE(J17:J26)</f>
-        <v>14491.5</v>
-      </c>
-      <c r="AE5" s="8">
-        <f>AVERAGE(K17:K26)</f>
-        <v>5092.3</v>
-      </c>
-      <c r="AF5" s="7">
-        <f>AVERAGE(L17:L26)</f>
-        <v>8103.4</v>
-      </c>
-      <c r="AG5" s="1">
-        <f>AVERAGE(M17:M26)</f>
-        <v>9190.6</v>
-      </c>
-      <c r="AH5" s="8">
-        <f>AVERAGE(N17:N26)</f>
-        <v>5998.9</v>
-      </c>
-      <c r="AI5" s="7">
-        <f>AVERAGE(O17:O26)</f>
-        <v>14723</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f>AVERAGE(P17:P26)</f>
-        <v>19040.599999999999</v>
-      </c>
-      <c r="AK5" s="8">
-        <f>AVERAGE(Q17:Q26)</f>
-        <v>10341.4</v>
-      </c>
-      <c r="AL5" s="7">
-        <f>AVERAGE(R17:R26)</f>
-        <v>13542.9</v>
-      </c>
-      <c r="AM5" s="1">
-        <f>AVERAGE(S17:S26)</f>
-        <v>17337.8</v>
-      </c>
-      <c r="AN5" s="8">
-        <f>AVERAGE(T17:T26)</f>
-        <v>5919.3</v>
-      </c>
-      <c r="AO5" s="7">
-        <f>AVERAGE(U17:U26)</f>
-        <v>15882.7</v>
-      </c>
-      <c r="AP5" s="1">
-        <f>AVERAGE(V17:V26)</f>
-        <v>14131.4</v>
-      </c>
-      <c r="AQ5" s="8">
-        <f>AVERAGE(W17:W26)</f>
-        <v>5147.7</v>
-      </c>
-      <c r="AR5" s="7">
-        <f>AVERAGE(X17:X26)</f>
-        <v>14918.1</v>
-      </c>
-      <c r="AS5" s="1">
-        <f>AVERAGE(Y17:Y26)</f>
-        <v>17284.400000000001</v>
-      </c>
-      <c r="AT5" s="8">
-        <f>AVERAGE(Z17:Z26)</f>
-        <v>9322.4</v>
-      </c>
+      <c r="AB5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="61">
+        <f>AVERAGE(B27:B36)/1000</f>
+        <v>67.549600000000012</v>
+      </c>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="63">
+        <f>AVERAGE(C27:C36)/1000</f>
+        <v>136.70320000000001</v>
+      </c>
+      <c r="AF5" s="63">
+        <f>AVERAGE(D27:D36)/1000</f>
+        <v>206.7079</v>
+      </c>
+      <c r="AG5" s="63">
+        <f>AVERAGE(E27:E36)/1000</f>
+        <v>67.81</v>
+      </c>
+      <c r="AH5" s="63">
+        <f>AVERAGE(F27:F36)/1000</f>
+        <v>67.813399999999987</v>
+      </c>
+      <c r="AI5" s="61">
+        <f>AVERAGE(G27:G36)/1000</f>
+        <v>67.846100000000007</v>
+      </c>
+      <c r="AJ5" s="64"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1315,99 +1620,98 @@
       <c r="F6" s="1">
         <v>4275</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>3951</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="45">
         <v>3</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>3839</v>
       </c>
       <c r="J6" s="1">
         <v>2288</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>1405</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>1625</v>
       </c>
       <c r="M6" s="1">
         <v>1523</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="5">
         <v>1343</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>2669</v>
       </c>
       <c r="P6" s="1">
         <v>6539</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <v>726</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>3655</v>
       </c>
       <c r="S6" s="1">
         <v>2787</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="5">
         <v>1048</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="4">
         <v>4048</v>
       </c>
       <c r="V6" s="1">
         <v>1438</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="5">
         <v>1756</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="4">
         <v>3683</v>
       </c>
       <c r="Y6" s="1">
         <v>6073</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="5">
         <v>2811</v>
       </c>
-      <c r="AB6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="7">
-        <f>AVERAGE(I30:I39)</f>
-        <v>67871.199999999997</v>
-      </c>
-      <c r="AD6" s="1">
-        <f>AVERAGE(J30:J39)</f>
-        <v>64128</v>
-      </c>
-      <c r="AE6" s="8">
-        <f>AVERAGE(K30:K39)</f>
-        <v>25667</v>
-      </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="8"/>
+      <c r="AB6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="70">
+        <f>AVERAGE(B39:B48)/1000</f>
+        <v>511.39370000000002</v>
+      </c>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="72">
+        <f>AVERAGE(C39:C48)/1000</f>
+        <v>955.63630000000001</v>
+      </c>
+      <c r="AF6" s="72">
+        <f>AVERAGE(D39:D48)/1000</f>
+        <v>1078.1624999999999</v>
+      </c>
+      <c r="AG6" s="72">
+        <f>AVERAGE(E39:E48)/1000</f>
+        <v>463.99099999999999</v>
+      </c>
+      <c r="AH6" s="72">
+        <f>AVERAGE(F39:F48)/1000</f>
+        <v>349.73669999999998</v>
+      </c>
+      <c r="AI6" s="70">
+        <f>AVERAGE(G39:G48)/1000</f>
+        <v>331.49599999999998</v>
+      </c>
+      <c r="AJ6" s="73"/>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1425,90 +1729,69 @@
       <c r="F7" s="1">
         <v>4410</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>3996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="45">
         <v>4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>3994</v>
       </c>
       <c r="J7" s="1">
         <v>6337</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>781</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>2269</v>
       </c>
       <c r="M7" s="1">
         <v>2341</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="5">
         <v>2025</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>3856</v>
       </c>
       <c r="P7" s="1">
         <v>5023</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <v>1375</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <v>4006</v>
       </c>
       <c r="S7" s="1">
         <v>1490</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="5">
         <v>2093</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="4">
         <v>4047</v>
       </c>
       <c r="V7" s="1">
         <v>5099</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="5">
         <v>2043</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="4">
         <v>3716</v>
       </c>
       <c r="Y7" s="1">
         <v>6422</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="5">
         <v>3272</v>
       </c>
-      <c r="AB7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="11"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -1526,69 +1809,80 @@
       <c r="F8" s="1">
         <v>4488</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>3997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="45">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>3994</v>
       </c>
       <c r="J8" s="1">
         <v>3712</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>2627</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>1277</v>
       </c>
       <c r="M8" s="1">
         <v>6887</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="5">
         <v>1013</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>3849</v>
       </c>
       <c r="P8" s="1">
         <v>5400</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="5">
         <v>2431</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="4">
         <v>3181</v>
       </c>
       <c r="S8" s="1">
         <v>2517</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="5">
         <v>963</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="4">
         <v>4091</v>
       </c>
       <c r="V8" s="1">
         <v>3767</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="5">
         <v>2526</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="4">
         <v>3008</v>
       </c>
       <c r="Y8" s="1">
         <v>2501</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="5">
         <v>1561</v>
       </c>
+      <c r="AB8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -1606,69 +1900,92 @@
       <c r="F9" s="1">
         <v>4316</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>3971</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="45">
         <v>6</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>4077</v>
       </c>
       <c r="J9" s="1">
         <v>1082</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>666</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>1173</v>
       </c>
       <c r="M9" s="1">
         <v>1136</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="5">
         <v>917</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>3530</v>
       </c>
       <c r="P9" s="1">
         <v>1578</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="5">
         <v>2853</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <v>3591</v>
       </c>
       <c r="S9" s="1">
         <v>2472</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="5">
         <v>1174</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>4035</v>
       </c>
       <c r="V9" s="1">
         <v>3955</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="5">
         <v>1538</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="4">
         <v>3766</v>
       </c>
       <c r="Y9" s="1">
         <v>2212</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="5">
         <v>2717</v>
       </c>
+      <c r="AB9" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="40"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -1686,69 +2003,98 @@
       <c r="F10" s="1">
         <v>4282</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>3981</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="45">
         <v>7</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>4118</v>
       </c>
       <c r="J10" s="1">
         <v>6681</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>3204</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <v>2089</v>
       </c>
       <c r="M10" s="1">
         <v>2943</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="5">
         <v>1636</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="4">
         <v>3998</v>
       </c>
       <c r="P10" s="1">
         <v>6756</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="5">
         <v>2216</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="4">
         <v>3648</v>
       </c>
       <c r="S10" s="1">
         <v>6634</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="5">
         <v>1001</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="4">
         <v>4021</v>
       </c>
       <c r="V10" s="1">
         <v>5048</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="5">
         <v>3588</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="4">
         <v>3932</v>
       </c>
       <c r="Y10" s="1">
         <v>1264</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="5">
         <v>3488</v>
       </c>
+      <c r="AB10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="61">
+        <f>MAX(B3:B12)/1000</f>
+        <v>4.0209999999999999</v>
+      </c>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="63">
+        <f>MAX(C3:C12)/1000</f>
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="AF10" s="63">
+        <f>MAX(D3:D12)/1000</f>
+        <v>9.7149999999999999</v>
+      </c>
+      <c r="AG10" s="63">
+        <f>MAX(E3:E12)/1000</f>
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="AH10" s="63">
+        <f>MAX(F3:F12)/1000</f>
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="AI10" s="61">
+        <f>MAX(G3:G12)/1000</f>
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="AJ10" s="64"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -1766,149 +2112,207 @@
       <c r="F11" s="1">
         <v>4309</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>3932</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="45">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>4062</v>
       </c>
       <c r="J11" s="1">
         <v>5989</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>3115</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>1766</v>
       </c>
       <c r="M11" s="1">
         <v>1169</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="5">
         <v>1196</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="4">
         <v>3964</v>
       </c>
       <c r="P11" s="1">
         <v>4429</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="5">
         <v>1951</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="4">
         <v>3666</v>
       </c>
       <c r="S11" s="1">
         <v>5511</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="5">
         <v>600</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="4">
         <v>4012</v>
       </c>
       <c r="V11" s="1">
         <v>3801</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="5">
         <v>1147</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="4">
         <v>4098</v>
       </c>
       <c r="Y11" s="1">
         <v>1441</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="5">
         <v>1464</v>
       </c>
+      <c r="AB11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="61">
+        <f>MAX(B15:B24)/1000</f>
+        <v>16.137</v>
+      </c>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="63">
+        <f>MAX(C15:C24)/1000</f>
+        <v>31.608000000000001</v>
+      </c>
+      <c r="AF11" s="63">
+        <f>MAX(D15:D24)/1000</f>
+        <v>51.146999999999998</v>
+      </c>
+      <c r="AG11" s="63">
+        <f>MAX(E15:E24)/1000</f>
+        <v>16.138999999999999</v>
+      </c>
+      <c r="AH11" s="63">
+        <f>MAX(F15:F24)/1000</f>
+        <v>16.835999999999999</v>
+      </c>
+      <c r="AI11" s="61">
+        <f>MAX(G15:G24)/1000</f>
+        <v>15.977</v>
+      </c>
+      <c r="AJ11" s="64"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>4021</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>7383</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>9592</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>3955</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>4413</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <v>3981</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="45">
         <v>9</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>4038</v>
       </c>
       <c r="J12" s="1">
         <v>4543</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>2901</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>1324</v>
       </c>
       <c r="M12" s="1">
         <v>5447</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="5">
         <v>1275</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="4">
         <v>4057</v>
       </c>
       <c r="P12" s="1">
         <v>3029</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="5">
         <v>1875</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="4">
         <v>3575</v>
       </c>
       <c r="S12" s="1">
         <v>4671</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="5">
         <v>2681</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="4">
         <v>4016</v>
       </c>
       <c r="V12" s="1">
         <v>5087</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="5">
         <v>3108</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="4">
         <v>3600</v>
       </c>
       <c r="Y12" s="1">
         <v>2629</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="5">
         <v>1797</v>
       </c>
+      <c r="AB12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="61">
+        <f>MAX(B27:B36)/1000</f>
+        <v>67.930999999999997</v>
+      </c>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="63">
+        <f>MAX(C27:C36)/1000</f>
+        <v>138.80099999999999</v>
+      </c>
+      <c r="AF12" s="63">
+        <f>MAX(D27:D36)/1000</f>
+        <v>214.881</v>
+      </c>
+      <c r="AG12" s="63">
+        <f>MAX(E27:E36)/1000</f>
+        <v>68.295000000000002</v>
+      </c>
+      <c r="AH12" s="63">
+        <f>MAX(F27:F36)/1000</f>
+        <v>68.593000000000004</v>
+      </c>
+      <c r="AI12" s="61">
+        <f>MAX(G27:G36)/1000</f>
+        <v>68.691999999999993</v>
+      </c>
+      <c r="AJ12" s="64"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="23"/>
@@ -1916,108 +2320,137 @@
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="6">
+      <c r="G13" s="24"/>
+      <c r="H13" s="45">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>4011</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <v>7390</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <v>749</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>1329</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="7">
         <v>1206</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="8">
         <v>1213</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="6">
         <v>3491</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="7">
         <v>4281</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="8">
         <v>2589</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="6">
         <v>3747</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="7">
         <v>2108</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <v>2060</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="6">
         <v>3936</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="7">
         <v>3700</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="8">
         <v>1269</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="6">
         <v>3959</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="7">
         <v>1663</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="8">
         <v>3294</v>
       </c>
+      <c r="AB13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="70">
+        <f>MAX(B39:B48)/1000</f>
+        <v>558.12900000000002</v>
+      </c>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="72">
+        <f>MAX(C39:C48)/1000</f>
+        <v>1048.039</v>
+      </c>
+      <c r="AF13" s="72">
+        <f>MAX(D39:D48)/1000</f>
+        <v>1165.692</v>
+      </c>
+      <c r="AG13" s="72">
+        <f>MAX(E39:E48)/1000</f>
+        <v>637.81200000000001</v>
+      </c>
+      <c r="AH13" s="72">
+        <f>MAX(F39:F48)/1000</f>
+        <v>484.60399999999998</v>
+      </c>
+      <c r="AI13" s="70">
+        <f>MAX(G39:G48)/1000</f>
+        <v>363.35300000000001</v>
+      </c>
+      <c r="AJ13" s="73"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="1">
@@ -2035,42 +2468,53 @@
       <c r="F15" s="1">
         <v>16485</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>15709</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="20" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="20" t="s">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="20" t="s">
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="20" t="s">
+      <c r="V15" s="23"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="22"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
+      <c r="AB15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="1">
@@ -2088,66 +2532,89 @@
       <c r="F16" s="1">
         <v>16553</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
         <v>15732</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="18" t="s">
+      <c r="Q16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="18" t="s">
+      <c r="T16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="18" t="s">
+      <c r="W16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="Z16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="38"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="1">
@@ -2165,69 +2632,98 @@
       <c r="F17" s="1">
         <v>16500</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>15803</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="44">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="11">
         <v>15818</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="12">
         <v>21265</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="14">
         <v>6543</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="11">
         <v>8181</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="12">
         <v>6959</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="14">
         <v>6410</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="11">
         <v>16018</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="12">
         <v>22666</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="14">
         <v>14162</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="11">
         <v>13051</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="12">
         <v>24628</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="14">
         <v>2981</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="11">
         <v>15791</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="12">
         <v>14221</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="14">
         <v>2554</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="11">
         <v>13985</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="12">
         <v>11779</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="14">
         <v>5255</v>
       </c>
+      <c r="AB17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="61">
+        <f>MIN(B10:B19)/1000</f>
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="63">
+        <f>MIN(C10:C19)/1000</f>
+        <v>7.2750000000000004</v>
+      </c>
+      <c r="AF17" s="63">
+        <f>MIN(D10:D19)/1000</f>
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="AG17" s="63">
+        <f>MIN(E10:E19)/1000</f>
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="AH17" s="63">
+        <f>MIN(F10:F19)/1000</f>
+        <v>4.282</v>
+      </c>
+      <c r="AI17" s="61">
+        <f>MIN(G10:G19)/1000</f>
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="AJ17" s="64"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
       <c r="B18" s="1">
@@ -2245,69 +2741,98 @@
       <c r="F18" s="1">
         <v>16641</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>15800</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="44">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>15907</v>
       </c>
       <c r="J18" s="1">
         <v>27784</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="5">
         <v>7290</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <v>15909</v>
       </c>
       <c r="M18" s="1">
         <v>15954</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <v>13158</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <v>14401</v>
       </c>
       <c r="P18" s="1">
         <v>16216</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="5">
         <v>6454</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="4">
         <v>13957</v>
       </c>
       <c r="S18" s="1">
         <v>18134</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="5">
         <v>8659</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="4">
         <v>15904</v>
       </c>
       <c r="V18" s="1">
         <v>19354</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="5">
         <v>3506</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="4">
         <v>15803</v>
       </c>
       <c r="Y18" s="1">
         <v>20310</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="5">
         <v>6321</v>
       </c>
+      <c r="AB18" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="61">
+        <f>MIN(B22:B31)/1000</f>
+        <v>15.654</v>
+      </c>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="63">
+        <f>MIN(C22:C31)/1000</f>
+        <v>30.356000000000002</v>
+      </c>
+      <c r="AF18" s="63">
+        <f>MIN(D22:D31)/1000</f>
+        <v>47.476999999999997</v>
+      </c>
+      <c r="AG18" s="63">
+        <f>MIN(E22:E31)/1000</f>
+        <v>15.968</v>
+      </c>
+      <c r="AH18" s="63">
+        <f>MIN(F22:F31)/1000</f>
+        <v>16.446000000000002</v>
+      </c>
+      <c r="AI18" s="61">
+        <f>MIN(G22:G31)/1000</f>
+        <v>15.887</v>
+      </c>
+      <c r="AJ18" s="64"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -2325,69 +2850,98 @@
       <c r="F19" s="1">
         <v>16463</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>15737</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="45">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>15747</v>
       </c>
       <c r="J19" s="1">
         <v>9980</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <v>2915</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>3874</v>
       </c>
       <c r="M19" s="1">
         <v>16793</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="5">
         <v>3029</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <v>15585</v>
       </c>
       <c r="P19" s="1">
         <v>17468</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="5">
         <v>12624</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="4">
         <v>10119</v>
       </c>
       <c r="S19" s="1">
         <v>23492</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="5">
         <v>3282</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="4">
         <v>15647</v>
       </c>
       <c r="V19" s="1">
         <v>19349</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="5">
         <v>1605</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="4">
         <v>15906</v>
       </c>
       <c r="Y19" s="1">
         <v>15671</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="5">
         <v>8373</v>
       </c>
+      <c r="AB19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="61">
+        <f>MIN(B34:B43)/1000</f>
+        <v>67.567999999999998</v>
+      </c>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63">
+        <f>MIN(C34:C43)/1000</f>
+        <v>135.81800000000001</v>
+      </c>
+      <c r="AF19" s="63">
+        <f>MIN(D34:D43)/1000</f>
+        <v>201.02600000000001</v>
+      </c>
+      <c r="AG19" s="63">
+        <f>MIN(E34:E43)/1000</f>
+        <v>67.716999999999999</v>
+      </c>
+      <c r="AH19" s="63">
+        <f>MIN(F34:F43)/1000</f>
+        <v>67.584000000000003</v>
+      </c>
+      <c r="AI19" s="61">
+        <f>MIN(G34:G43)/1000</f>
+        <v>67.576999999999998</v>
+      </c>
+      <c r="AJ19" s="64"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
       <c r="B20" s="1">
@@ -2405,69 +2959,98 @@
       <c r="F20" s="1">
         <v>16471</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
         <v>15912</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="45">
         <v>4</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>15968</v>
       </c>
       <c r="J20" s="1">
         <v>13708</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="5">
         <v>1419</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>13338</v>
       </c>
       <c r="M20" s="1">
         <v>9484</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <v>11801</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <v>15949</v>
       </c>
       <c r="P20" s="1">
         <v>21867</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="5">
         <v>12942</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="4">
         <v>14549</v>
       </c>
       <c r="S20" s="1">
         <v>7302</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="5">
         <v>10282</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="4">
         <v>15958</v>
       </c>
       <c r="V20" s="1">
         <v>4606</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="5">
         <v>2231</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="4">
         <v>15225</v>
       </c>
       <c r="Y20" s="1">
         <v>20238</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="5">
         <v>9642</v>
       </c>
+      <c r="AB20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="70">
+        <f>MIN(B39:B48)/1000</f>
+        <v>493.44799999999998</v>
+      </c>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72">
+        <f>MIN(C39:C48)/1000</f>
+        <v>541.42999999999995</v>
+      </c>
+      <c r="AF20" s="72">
+        <f>MIN(D39:D48)/1000</f>
+        <v>986.76</v>
+      </c>
+      <c r="AG20" s="72">
+        <f>MIN(E39:E48)/1000</f>
+        <v>382.10700000000003</v>
+      </c>
+      <c r="AH20" s="72">
+        <f>MIN(F39:F48)/1000</f>
+        <v>321.98</v>
+      </c>
+      <c r="AI20" s="70">
+        <f>MIN(G39:G48)/1000</f>
+        <v>322.16500000000002</v>
+      </c>
+      <c r="AJ20" s="73"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
       <c r="B21" s="1">
@@ -2485,69 +3068,69 @@
       <c r="F21" s="1">
         <v>16836</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>15815</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="45">
         <v>5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>15931</v>
       </c>
       <c r="J21" s="1">
         <v>23893</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="5">
         <v>2205</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>5208</v>
       </c>
       <c r="M21" s="1">
         <v>3580</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="5">
         <v>3261</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>12177</v>
       </c>
       <c r="P21" s="1">
         <v>23020</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="5">
         <v>7927</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="4">
         <v>13037</v>
       </c>
       <c r="S21" s="1">
         <v>23461</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="5">
         <v>4256</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="4">
         <v>15878</v>
       </c>
       <c r="V21" s="1">
         <v>12065</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="5">
         <v>4923</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="4">
         <v>13283</v>
       </c>
       <c r="Y21" s="1">
         <v>25742</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="5">
         <v>9582</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
       <c r="B22" s="1">
@@ -2565,69 +3148,90 @@
       <c r="F22" s="1">
         <v>16446</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>15977</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="45">
         <v>6</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>15726</v>
       </c>
       <c r="J22" s="1">
         <v>7951</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <v>4874</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>4690</v>
       </c>
       <c r="M22" s="1">
         <v>2964</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="5">
         <v>2950</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="4">
         <v>13173</v>
       </c>
       <c r="P22" s="1">
         <v>8165</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="5">
         <v>5819</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="4">
         <v>12064</v>
       </c>
       <c r="S22" s="1">
         <v>25073</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="5">
         <v>3234</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="4">
         <v>15689</v>
       </c>
       <c r="V22" s="1">
         <v>18627</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="5">
         <v>4436</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="4">
         <v>14390</v>
       </c>
       <c r="Y22" s="1">
         <v>7662</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="5">
         <v>13918</v>
       </c>
+      <c r="AB22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="27"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>9</v>
       </c>
       <c r="B23" s="1">
@@ -2645,1299 +3249,3422 @@
       <c r="F23" s="1">
         <v>16474</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>15896</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="45">
         <v>7</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>15688</v>
       </c>
       <c r="J23" s="1">
         <v>4004</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <v>10344</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>3542</v>
       </c>
       <c r="M23" s="1">
         <v>10969</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="5">
         <v>2881</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="4">
         <v>15259</v>
       </c>
       <c r="P23" s="1">
         <v>27796</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="5">
         <v>10382</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="4">
         <v>12667</v>
       </c>
       <c r="S23" s="1">
         <v>12602</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="5">
         <v>3486</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="4">
         <v>16144</v>
       </c>
       <c r="V23" s="1">
         <v>13349</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="5">
         <v>10500</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="4">
         <v>15755</v>
       </c>
       <c r="Y23" s="1">
         <v>4330</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="5">
         <v>9814</v>
       </c>
+      <c r="AB23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="48"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>10</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>15809</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>30738</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>47477</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>15968</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>16684</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="8">
         <v>15887</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="45">
         <v>8</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>15644</v>
       </c>
       <c r="J24" s="1">
         <v>21995</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="5">
         <v>6068</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>12777</v>
       </c>
       <c r="M24" s="1">
         <v>9895</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="5">
         <v>6919</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <v>15648</v>
       </c>
       <c r="P24" s="1">
         <v>14234</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="5">
         <v>10812</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="4">
         <v>14434</v>
       </c>
       <c r="S24" s="1">
         <v>7287</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="5">
         <v>11999</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="4">
         <v>15837</v>
       </c>
       <c r="V24" s="1">
         <v>16594</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="5">
         <v>8572</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="4">
         <v>12928</v>
       </c>
       <c r="Y24" s="1">
         <v>22323</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="5">
         <v>11597</v>
       </c>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT24" s="35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="6">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="45">
         <v>9</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>15802</v>
       </c>
       <c r="J25" s="1">
         <v>5256</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="5">
         <v>1755</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>8825</v>
       </c>
       <c r="M25" s="1">
         <v>11516</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="5">
         <v>5753</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>15573</v>
       </c>
       <c r="P25" s="1">
         <v>12070</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="5">
         <v>8914</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <v>16074</v>
       </c>
       <c r="S25" s="1">
         <v>17990</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="5">
         <v>4817</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="4">
         <v>15800</v>
       </c>
       <c r="V25" s="1">
         <v>6004</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="5">
         <v>8980</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="4">
         <v>15938</v>
       </c>
       <c r="Y25" s="1">
         <v>17378</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z25" s="5">
         <v>4849</v>
       </c>
+      <c r="AB25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="65">
+        <f>AVERAGE(I4:I13)/1000</f>
+        <v>4.0011000000000001</v>
+      </c>
+      <c r="AD25" s="66">
+        <f>AVERAGE(J4:J13)/1000</f>
+        <v>4.0937000000000001</v>
+      </c>
+      <c r="AE25" s="67">
+        <f>AVERAGE(K4:K13)/1000</f>
+        <v>1.6949000000000001</v>
+      </c>
+      <c r="AF25" s="65">
+        <f>AVERAGE(L4:L13)/1000</f>
+        <v>1.5979000000000001</v>
+      </c>
+      <c r="AG25" s="66">
+        <f>AVERAGE(M4:M13)/1000</f>
+        <v>2.6601999999999997</v>
+      </c>
+      <c r="AH25" s="67">
+        <f>AVERAGE(N4:N13)/1000</f>
+        <v>1.3119000000000001</v>
+      </c>
+      <c r="AI25" s="65">
+        <f>AVERAGE(O4:O13)/1000</f>
+        <v>3.7222</v>
+      </c>
+      <c r="AJ25" s="66">
+        <f>AVERAGE(P4:P13)/1000</f>
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="AK25" s="67">
+        <f>AVERAGE(Q4:Q13)/1000</f>
+        <v>2.1384000000000003</v>
+      </c>
+      <c r="AL25" s="65">
+        <f>AVERAGE(R4:R13)/1000</f>
+        <v>3.5098000000000003</v>
+      </c>
+      <c r="AM25" s="66">
+        <f>AVERAGE(S4:S13)/1000</f>
+        <v>3.2866999999999997</v>
+      </c>
+      <c r="AN25" s="67">
+        <f>AVERAGE(T4:T13)/1000</f>
+        <v>1.3482000000000001</v>
+      </c>
+      <c r="AO25" s="65">
+        <f>AVERAGE(U4:U13)/1000</f>
+        <v>3.9864000000000002</v>
+      </c>
+      <c r="AP25" s="66">
+        <f>AVERAGE(V4:V13)/1000</f>
+        <v>3.8466999999999998</v>
+      </c>
+      <c r="AQ25" s="67">
+        <f>AVERAGE(W4:W13)/1000</f>
+        <v>1.8312999999999999</v>
+      </c>
+      <c r="AR25" s="65">
+        <f>AVERAGE(X4:X13)/1000</f>
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="AS25" s="66">
+        <f>AVERAGE(Y4:Y13)/1000</f>
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="AT25" s="67">
+        <f>AVERAGE(Z4:Z13)/1000</f>
+        <v>2.5911999999999997</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="45">
         <v>10</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>15822</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="7">
         <v>9079</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>7510</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="10">
         <v>4690</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="7">
         <v>3792</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="8">
         <v>3827</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="6">
         <v>13447</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="7">
         <v>26904</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="8">
         <v>13378</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="6">
         <v>15477</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="7">
         <v>13409</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <v>6197</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="6">
         <v>16179</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V26" s="7">
         <v>17145</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="8">
         <v>4170</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="6">
         <v>15968</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="7">
         <v>27411</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="8">
         <v>13873</v>
       </c>
+      <c r="AB26" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="68">
+        <f>AVERAGE(I17:I26)/1000</f>
+        <v>15.805299999999999</v>
+      </c>
+      <c r="AD26" s="63">
+        <f>AVERAGE(J17:J26)/1000</f>
+        <v>14.4915</v>
+      </c>
+      <c r="AE26" s="69">
+        <f>AVERAGE(K17:K26)/1000</f>
+        <v>5.0922999999999998</v>
+      </c>
+      <c r="AF26" s="68">
+        <f>AVERAGE(L17:L26)/1000</f>
+        <v>8.1033999999999988</v>
+      </c>
+      <c r="AG26" s="63">
+        <f>AVERAGE(M17:M26)/1000</f>
+        <v>9.1905999999999999</v>
+      </c>
+      <c r="AH26" s="69">
+        <f>AVERAGE(N17:N26)/1000</f>
+        <v>5.9988999999999999</v>
+      </c>
+      <c r="AI26" s="68">
+        <f>AVERAGE(O17:O26)/1000</f>
+        <v>14.723000000000001</v>
+      </c>
+      <c r="AJ26" s="63">
+        <f>AVERAGE(P17:P26)/1000</f>
+        <v>19.040599999999998</v>
+      </c>
+      <c r="AK26" s="69">
+        <f>AVERAGE(Q17:Q26)/1000</f>
+        <v>10.3414</v>
+      </c>
+      <c r="AL26" s="68">
+        <f>AVERAGE(R17:R26)/1000</f>
+        <v>13.542899999999999</v>
+      </c>
+      <c r="AM26" s="63">
+        <f>AVERAGE(S17:S26)/1000</f>
+        <v>17.337799999999998</v>
+      </c>
+      <c r="AN26" s="69">
+        <f>AVERAGE(T17:T26)/1000</f>
+        <v>5.9192999999999998</v>
+      </c>
+      <c r="AO26" s="68">
+        <f>AVERAGE(U17:U26)/1000</f>
+        <v>15.882700000000002</v>
+      </c>
+      <c r="AP26" s="63">
+        <f>AVERAGE(V17:V26)/1000</f>
+        <v>14.131399999999999</v>
+      </c>
+      <c r="AQ26" s="69">
+        <f>AVERAGE(W17:W26)/1000</f>
+        <v>5.1476999999999995</v>
+      </c>
+      <c r="AR26" s="68">
+        <f>AVERAGE(X17:X26)/1000</f>
+        <v>14.918100000000001</v>
+      </c>
+      <c r="AS26" s="63">
+        <f>AVERAGE(Y17:Y26)/1000</f>
+        <v>17.284400000000002</v>
+      </c>
+      <c r="AT26" s="69">
+        <f>AVERAGE(Z17:Z26)/1000</f>
+        <v>9.3224</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>67931</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>136355.0</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="I27" s="24" t="s">
+      <c r="C27" s="1">
+        <v>136355</v>
+      </c>
+      <c r="D27" s="1">
+        <v>214881</v>
+      </c>
+      <c r="E27" s="1">
+        <v>67758</v>
+      </c>
+      <c r="F27" s="1">
+        <v>68593</v>
+      </c>
+      <c r="G27" s="5">
+        <v>66625</v>
+      </c>
+      <c r="I27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="43"/>
+      <c r="AB27" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="68">
+        <f>AVERAGE(I30:I39)/1000</f>
+        <v>67.871200000000002</v>
+      </c>
+      <c r="AD27" s="63">
+        <f>AVERAGE(J30:J39)/1000</f>
+        <v>64.128</v>
+      </c>
+      <c r="AE27" s="69">
+        <f>AVERAGE(K30:K39)/1000</f>
+        <v>25.667000000000002</v>
+      </c>
+      <c r="AF27" s="68">
+        <f>AVERAGE(L30:L39)/1000</f>
+        <v>41.885100000000001</v>
+      </c>
+      <c r="AG27" s="63">
+        <f>AVERAGE(M30:M39)/1000</f>
+        <v>78.3125</v>
+      </c>
+      <c r="AH27" s="69">
+        <f>AVERAGE(N30:N39)/1000</f>
+        <v>28.2013</v>
+      </c>
+      <c r="AI27" s="68">
+        <f>AVERAGE(O30:O39)/1000</f>
+        <v>67.468399999999988</v>
+      </c>
+      <c r="AJ27" s="63">
+        <f>AVERAGE(P30:P39)/1000</f>
+        <v>71.296800000000005</v>
+      </c>
+      <c r="AK27" s="69">
+        <f>AVERAGE(Q30:Q39)/1000</f>
+        <v>50.866</v>
+      </c>
+      <c r="AL27" s="68">
+        <f>AVERAGE(R30:R39)/1000</f>
+        <v>58.244999999999997</v>
+      </c>
+      <c r="AM27" s="63">
+        <f>AVERAGE(S30:S39)/1000</f>
+        <v>65.817300000000003</v>
+      </c>
+      <c r="AN27" s="69">
+        <f>AVERAGE(T30:T39)/1000</f>
+        <v>29.448599999999999</v>
+      </c>
+      <c r="AO27" s="68">
+        <f>AVERAGE(U30:U39)/1000</f>
+        <v>68.327300000000008</v>
+      </c>
+      <c r="AP27" s="63">
+        <f>AVERAGE(V30:V39)/1000</f>
+        <v>46.220199999999998</v>
+      </c>
+      <c r="AQ27" s="69">
+        <f>AVERAGE(W30:W39)/1000</f>
+        <v>18.4193</v>
+      </c>
+      <c r="AR27" s="68">
+        <f>AVERAGE(X30:X39)/1000</f>
+        <v>70.106800000000007</v>
+      </c>
+      <c r="AS27" s="63">
+        <f>AVERAGE(Y30:Y39)/1000</f>
+        <v>72.821100000000001</v>
+      </c>
+      <c r="AT27" s="69">
+        <f>AVERAGE(Z30:Z39)/1000</f>
+        <v>53.351099999999995</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>67327</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>135669.0</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="23" t="s">
+      <c r="C28" s="1">
+        <v>135669</v>
+      </c>
+      <c r="D28" s="1">
+        <v>214353</v>
+      </c>
+      <c r="E28" s="1">
+        <v>67579</v>
+      </c>
+      <c r="F28" s="1">
+        <v>68058</v>
+      </c>
+      <c r="G28" s="5">
+        <v>68411</v>
+      </c>
+      <c r="I28" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23" t="s">
+      <c r="K28" s="24"/>
+      <c r="L28" s="22" t="s">
         <v>1</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23" t="s">
+      <c r="N28" s="24"/>
+      <c r="O28" s="22" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23" t="s">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="22" t="s">
         <v>3</v>
       </c>
       <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23" t="s">
+      <c r="T28" s="24"/>
+      <c r="U28" s="22" t="s">
         <v>4</v>
       </c>
       <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23" t="s">
+      <c r="W28" s="24"/>
+      <c r="X28" s="22" t="s">
         <v>5</v>
       </c>
       <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
+      <c r="Z28" s="24"/>
+      <c r="AB28" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="74">
+        <f>AVERAGE(I43:I52)/1000</f>
+        <v>511.05270000000002</v>
+      </c>
+      <c r="AD28" s="72">
+        <f>AVERAGE(J43:J52)/1000</f>
+        <v>372.98429999999996</v>
+      </c>
+      <c r="AE28" s="75">
+        <f>AVERAGE(K43:K52)/1000</f>
+        <v>101.1593</v>
+      </c>
+      <c r="AF28" s="74">
+        <f>AVERAGE(L43:L52)/1000</f>
+        <v>281.80470000000003</v>
+      </c>
+      <c r="AG28" s="72">
+        <f>AVERAGE(M43:M52)/1000</f>
+        <v>530.21400000000006</v>
+      </c>
+      <c r="AH28" s="75">
+        <f>AVERAGE(N43:N52)/1000</f>
+        <v>153.7749</v>
+      </c>
+      <c r="AI28" s="74">
+        <f>AVERAGE(O43:O52)/1000</f>
+        <v>454.7405</v>
+      </c>
+      <c r="AJ28" s="72">
+        <f>AVERAGE(P43:P52)/1000</f>
+        <v>471.46679999999998</v>
+      </c>
+      <c r="AK28" s="75">
+        <f>AVERAGE(Q43:Q52)/1000</f>
+        <v>323.86309999999997</v>
+      </c>
+      <c r="AL28" s="74">
+        <f>AVERAGE(R43:R52)/1000</f>
+        <v>333.04740000000004</v>
+      </c>
+      <c r="AM28" s="72">
+        <f>AVERAGE(S43:S52)/1000</f>
+        <v>324.94579999999996</v>
+      </c>
+      <c r="AN28" s="75">
+        <f>AVERAGE(T43:T52)/1000</f>
+        <v>65.254000000000005</v>
+      </c>
+      <c r="AO28" s="74">
+        <f>AVERAGE(U43:U52)/1000</f>
+        <v>358.57279999999997</v>
+      </c>
+      <c r="AP28" s="72">
+        <f>AVERAGE(V43:V52)/1000</f>
+        <v>352.35129999999998</v>
+      </c>
+      <c r="AQ28" s="75">
+        <f>AVERAGE(W43:W52)/1000</f>
+        <v>78.155799999999999</v>
+      </c>
+      <c r="AR28" s="74">
+        <f>AVERAGE(X43:X52)/1000</f>
+        <v>342.9083</v>
+      </c>
+      <c r="AS28" s="72">
+        <f>AVERAGE(Y43:Y52)/1000</f>
+        <v>345.92790000000002</v>
+      </c>
+      <c r="AT28" s="75">
+        <f>AVERAGE(Z43:Z52)/1000</f>
+        <v>237.7971</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>67135</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>137078.0</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="I29" s="2" t="s">
+      <c r="C29" s="1">
+        <v>137078</v>
+      </c>
+      <c r="D29" s="1">
+        <v>198464</v>
+      </c>
+      <c r="E29" s="1">
+        <v>67879</v>
+      </c>
+      <c r="F29" s="1">
+        <v>67624</v>
+      </c>
+      <c r="G29" s="5">
+        <v>68321</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="2" t="s">
+      <c r="K29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="2" t="s">
+      <c r="N29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="2" t="s">
+      <c r="Q29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="2" t="s">
+      <c r="T29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="V29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" s="2" t="s">
+      <c r="W29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z29" s="2" t="s">
-        <v>12</v>
+      <c r="Z29" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>4</v>
       </c>
       <c r="B30" s="1">
         <v>67735</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>138011.0</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3">
+      <c r="C30" s="1">
+        <v>138011</v>
+      </c>
+      <c r="D30" s="1">
+        <v>213511</v>
+      </c>
+      <c r="E30" s="1">
+        <v>68295</v>
+      </c>
+      <c r="F30" s="1">
+        <v>67649</v>
+      </c>
+      <c r="G30" s="5">
+        <v>68692</v>
+      </c>
+      <c r="H30" s="44">
         <v>1</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="11">
         <v>67628</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="12">
         <v>67846</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="14">
         <v>32988</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>33847.0</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>38545.0</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>17754.0</v>
-      </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="L30" s="11">
+        <v>33847</v>
+      </c>
+      <c r="M30" s="12">
+        <v>38545</v>
+      </c>
+      <c r="N30" s="14">
+        <v>17754</v>
+      </c>
+      <c r="O30" s="11">
+        <v>67738</v>
+      </c>
+      <c r="P30" s="12">
+        <v>55486</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>40398</v>
+      </c>
+      <c r="R30" s="11">
+        <v>60067</v>
+      </c>
+      <c r="S30" s="12">
+        <v>87033</v>
+      </c>
+      <c r="T30" s="14">
+        <v>36784</v>
+      </c>
+      <c r="U30" s="11">
+        <v>66486</v>
+      </c>
+      <c r="V30" s="12">
+        <v>29543</v>
+      </c>
+      <c r="W30" s="14">
+        <v>9229</v>
+      </c>
+      <c r="X30" s="11">
+        <v>66425</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>80237</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>67743</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3">
+      <c r="C31" s="1">
+        <v>137874</v>
+      </c>
+      <c r="D31" s="1">
+        <v>208947</v>
+      </c>
+      <c r="E31" s="1">
+        <v>67662</v>
+      </c>
+      <c r="F31" s="1">
+        <v>67460</v>
+      </c>
+      <c r="G31" s="5">
+        <v>67662</v>
+      </c>
+      <c r="H31" s="44">
         <v>2</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>67635</v>
       </c>
       <c r="J31" s="1">
         <v>8137</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <v>35045</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>40817.0</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>112364.0</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>19042.0</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="L31" s="4">
+        <v>40817</v>
+      </c>
+      <c r="M31" s="1">
+        <v>112364</v>
+      </c>
+      <c r="N31" s="5">
+        <v>19042</v>
+      </c>
+      <c r="O31" s="4">
+        <v>67089</v>
+      </c>
+      <c r="P31" s="1">
+        <v>74982</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>58901</v>
+      </c>
+      <c r="R31" s="4">
+        <v>34602</v>
+      </c>
+      <c r="S31" s="1">
+        <v>46981</v>
+      </c>
+      <c r="T31" s="5">
+        <v>7387</v>
+      </c>
+      <c r="U31" s="4">
+        <v>66324</v>
+      </c>
+      <c r="V31" s="1">
+        <v>101122</v>
+      </c>
+      <c r="W31" s="5">
+        <v>8876</v>
+      </c>
+      <c r="X31" s="4">
+        <v>66077</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>51745</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>60631</v>
+      </c>
+      <c r="AB31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="27"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>67065</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1">
+      <c r="C32" s="1">
+        <v>134986</v>
+      </c>
+      <c r="D32" s="1">
+        <v>198003</v>
+      </c>
+      <c r="E32" s="1">
+        <v>67728</v>
+      </c>
+      <c r="F32" s="1">
+        <v>67540</v>
+      </c>
+      <c r="G32" s="5">
+        <v>68082</v>
+      </c>
+      <c r="H32" s="45">
         <v>3</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>67047</v>
       </c>
       <c r="J32" s="1">
         <v>56737</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <v>5180</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>44107.0</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>55366.0</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>31104.0</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="L32" s="4">
+        <v>44107</v>
+      </c>
+      <c r="M32" s="1">
+        <v>55366</v>
+      </c>
+      <c r="N32" s="5">
+        <v>31104</v>
+      </c>
+      <c r="O32" s="4">
+        <v>67668</v>
+      </c>
+      <c r="P32" s="1">
+        <v>40320</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>51049</v>
+      </c>
+      <c r="R32" s="4">
+        <v>66353</v>
+      </c>
+      <c r="S32" s="1">
+        <v>87890</v>
+      </c>
+      <c r="T32" s="5">
+        <v>41150</v>
+      </c>
+      <c r="U32" s="4">
+        <v>76887</v>
+      </c>
+      <c r="V32" s="1">
+        <v>40493</v>
+      </c>
+      <c r="W32" s="5">
+        <v>29964</v>
+      </c>
+      <c r="X32" s="4">
+        <v>66204</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>77688</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>42126</v>
+      </c>
+      <c r="AB32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="48"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>67538</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1">
+      <c r="C33" s="1">
+        <v>136290</v>
+      </c>
+      <c r="D33" s="1">
+        <v>202025</v>
+      </c>
+      <c r="E33" s="1">
+        <v>67889</v>
+      </c>
+      <c r="F33" s="1">
+        <v>68028</v>
+      </c>
+      <c r="G33" s="5">
+        <v>66823</v>
+      </c>
+      <c r="H33" s="45">
         <v>4</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="4">
         <v>70807</v>
       </c>
       <c r="J33" s="1">
         <v>44509</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="5">
         <v>45833</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <v>62278.0</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>112978.0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>43946.0</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="L33" s="4">
+        <v>62278</v>
+      </c>
+      <c r="M33" s="1">
+        <v>112978</v>
+      </c>
+      <c r="N33" s="5">
+        <v>43946</v>
+      </c>
+      <c r="O33" s="4">
+        <v>67657</v>
+      </c>
+      <c r="P33" s="1">
+        <v>103685</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>59804</v>
+      </c>
+      <c r="R33" s="4">
+        <v>67706</v>
+      </c>
+      <c r="S33" s="1">
+        <v>65450</v>
+      </c>
+      <c r="T33" s="5">
+        <v>19988</v>
+      </c>
+      <c r="U33" s="4">
+        <v>66344</v>
+      </c>
+      <c r="V33" s="1">
+        <v>66313</v>
+      </c>
+      <c r="W33" s="5">
+        <v>4752</v>
+      </c>
+      <c r="X33" s="4">
+        <v>69066</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>81038</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>57126</v>
+      </c>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT33" s="35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>8</v>
       </c>
       <c r="B34" s="1">
         <v>67568</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1">
+      <c r="C34" s="1">
+        <v>135818</v>
+      </c>
+      <c r="D34" s="1">
+        <v>202569</v>
+      </c>
+      <c r="E34" s="1">
+        <v>67778</v>
+      </c>
+      <c r="F34" s="1">
+        <v>67584</v>
+      </c>
+      <c r="G34" s="5">
+        <v>67577</v>
+      </c>
+      <c r="H34" s="45">
         <v>5</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="4">
         <v>67488</v>
       </c>
       <c r="J34" s="1">
         <v>113039</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="5">
         <v>41922</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="L34" s="4">
+        <v>30725</v>
+      </c>
+      <c r="M34" s="1">
+        <v>99209</v>
+      </c>
+      <c r="N34" s="5">
+        <v>26388</v>
+      </c>
+      <c r="O34" s="4">
+        <v>72079</v>
+      </c>
+      <c r="P34" s="1">
+        <v>80411</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>30118</v>
+      </c>
+      <c r="R34" s="4">
+        <v>65370</v>
+      </c>
+      <c r="S34" s="1">
+        <v>53077</v>
+      </c>
+      <c r="T34" s="5">
+        <v>34393</v>
+      </c>
+      <c r="U34" s="4">
+        <v>66402</v>
+      </c>
+      <c r="V34" s="1">
+        <v>37612</v>
+      </c>
+      <c r="W34" s="5">
+        <v>20109</v>
+      </c>
+      <c r="X34" s="4">
+        <v>68028</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>38407</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>63671</v>
+      </c>
+      <c r="AB34" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="65">
+        <f>MAX(I4:I13)/1000</f>
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="AD34" s="66">
+        <f>MAX(J4:J13)/1000</f>
+        <v>7.39</v>
+      </c>
+      <c r="AE34" s="67">
+        <f>MAX(K4:K13)/1000</f>
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="AF34" s="65">
+        <f>MAX(L4:L13)/1000</f>
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="AG34" s="66">
+        <f>MAX(M4:M13)/1000</f>
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="AH34" s="67">
+        <f>MAX(N4:N13)/1000</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="AI34" s="65">
+        <f>MAX(O4:O13)/1000</f>
+        <v>4.0570000000000004</v>
+      </c>
+      <c r="AJ34" s="66">
+        <f>MAX(P4:P13)/1000</f>
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="AK34" s="67">
+        <f>MAX(Q4:Q13)/1000</f>
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="AL34" s="65">
+        <f>MAX(R4:R13)/1000</f>
+        <v>4.0060000000000002</v>
+      </c>
+      <c r="AM34" s="66">
+        <f>MAX(S4:S13)/1000</f>
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="AN34" s="67">
+        <f>MAX(T4:T13)/1000</f>
+        <v>2.681</v>
+      </c>
+      <c r="AO34" s="65">
+        <f>MAX(U4:U13)/1000</f>
+        <v>4.0910000000000002</v>
+      </c>
+      <c r="AP34" s="66">
+        <f>MAX(V4:V13)/1000</f>
+        <v>5.0990000000000002</v>
+      </c>
+      <c r="AQ34" s="67">
+        <f>MAX(W4:W13)/1000</f>
+        <v>3.5880000000000001</v>
+      </c>
+      <c r="AR34" s="65">
+        <f>MAX(X4:X13)/1000</f>
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="AS34" s="66">
+        <f>MAX(Y4:Y13)/1000</f>
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="AT34" s="67">
+        <f>MAX(Z4:Z13)/1000</f>
+        <v>3.742</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>67639</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1">
+      <c r="C35" s="1">
+        <v>138801</v>
+      </c>
+      <c r="D35" s="1">
+        <v>201026</v>
+      </c>
+      <c r="E35" s="1">
+        <v>67717</v>
+      </c>
+      <c r="F35" s="1">
+        <v>67902</v>
+      </c>
+      <c r="G35" s="5">
+        <v>67966</v>
+      </c>
+      <c r="H35" s="45">
         <v>6</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="4">
         <v>67243</v>
       </c>
       <c r="J35" s="1">
         <v>68901</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="5">
         <v>3682</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="L35" s="4">
+        <v>26942</v>
+      </c>
+      <c r="M35" s="1">
+        <v>75540</v>
+      </c>
+      <c r="N35" s="5">
+        <v>17785</v>
+      </c>
+      <c r="O35" s="4">
+        <v>66142</v>
+      </c>
+      <c r="P35" s="1">
+        <v>68844</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>48721</v>
+      </c>
+      <c r="R35" s="4">
+        <v>39091</v>
+      </c>
+      <c r="S35" s="1">
+        <v>71753</v>
+      </c>
+      <c r="T35" s="5">
+        <v>11420</v>
+      </c>
+      <c r="U35" s="4">
+        <v>66493</v>
+      </c>
+      <c r="V35" s="1">
+        <v>18908</v>
+      </c>
+      <c r="W35" s="5">
+        <v>22908</v>
+      </c>
+      <c r="X35" s="4">
+        <v>72855</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>74941</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>63058</v>
+      </c>
+      <c r="AB35" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC35" s="68">
+        <f>MAX(I17:I26)/1000</f>
+        <v>15.968</v>
+      </c>
+      <c r="AD35" s="63">
+        <f>MAX(J17:J26)/1000</f>
+        <v>27.783999999999999</v>
+      </c>
+      <c r="AE35" s="69">
+        <f>MAX(K17:K26)/1000</f>
+        <v>10.343999999999999</v>
+      </c>
+      <c r="AF35" s="68">
+        <f>MAX(L17:L26)/1000</f>
+        <v>15.909000000000001</v>
+      </c>
+      <c r="AG35" s="63">
+        <f>MAX(M17:M26)/1000</f>
+        <v>16.792999999999999</v>
+      </c>
+      <c r="AH35" s="69">
+        <f>MAX(N17:N26)/1000</f>
+        <v>13.157999999999999</v>
+      </c>
+      <c r="AI35" s="68">
+        <f>MAX(O17:O26)/1000</f>
+        <v>16.018000000000001</v>
+      </c>
+      <c r="AJ35" s="63">
+        <f>MAX(P17:P26)/1000</f>
+        <v>27.795999999999999</v>
+      </c>
+      <c r="AK35" s="69">
+        <f>MAX(Q17:Q26)/1000</f>
+        <v>14.162000000000001</v>
+      </c>
+      <c r="AL35" s="68">
+        <f>MAX(R17:R26)/1000</f>
+        <v>16.074000000000002</v>
+      </c>
+      <c r="AM35" s="63">
+        <f>MAX(S17:S26)/1000</f>
+        <v>25.073</v>
+      </c>
+      <c r="AN35" s="69">
+        <f>MAX(T30:T39)/1000</f>
+        <v>41.15</v>
+      </c>
+      <c r="AO35" s="68">
+        <f>MAX(U17:U26)/1000</f>
+        <v>16.178999999999998</v>
+      </c>
+      <c r="AP35" s="63">
+        <f>MAX(V17:V26)/1000</f>
+        <v>19.353999999999999</v>
+      </c>
+      <c r="AQ35" s="69">
+        <f>MAX(W17:W26)/1000</f>
+        <v>10.5</v>
+      </c>
+      <c r="AR35" s="68">
+        <f>MAX(X17:X26)/1000</f>
+        <v>15.968</v>
+      </c>
+      <c r="AS35" s="63">
+        <f>MAX(Y17:Y26)/1000</f>
+        <v>27.411000000000001</v>
+      </c>
+      <c r="AT35" s="69">
+        <f>MAX(Z17:Z26)/1000</f>
+        <v>13.917999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <v>10</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>67815</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
+      <c r="C36" s="2">
+        <v>136150</v>
+      </c>
+      <c r="D36" s="2">
+        <v>213300</v>
+      </c>
+      <c r="E36" s="2">
+        <v>67815</v>
+      </c>
+      <c r="F36" s="2">
+        <v>67696</v>
+      </c>
+      <c r="G36" s="16">
+        <v>68302</v>
+      </c>
+      <c r="H36" s="45">
         <v>7</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="4">
         <v>67416</v>
       </c>
       <c r="J36" s="1">
         <v>106184</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="5">
         <v>7056</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
+      <c r="L36" s="4">
+        <v>37777</v>
+      </c>
+      <c r="M36" s="1">
+        <v>64573</v>
+      </c>
+      <c r="N36" s="5">
+        <v>20786</v>
+      </c>
+      <c r="O36" s="4">
+        <v>67535</v>
+      </c>
+      <c r="P36" s="1">
+        <v>74994</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>60039</v>
+      </c>
+      <c r="R36" s="4">
+        <v>61973</v>
+      </c>
+      <c r="S36" s="1">
+        <v>62486</v>
+      </c>
+      <c r="T36" s="5">
+        <v>31625</v>
+      </c>
+      <c r="U36" s="4">
+        <v>66479</v>
+      </c>
+      <c r="V36" s="1">
+        <v>73416</v>
+      </c>
+      <c r="W36" s="5">
+        <v>31088</v>
+      </c>
+      <c r="X36" s="4">
+        <v>73284</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>94795</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>55593</v>
+      </c>
+      <c r="AB36" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="68">
+        <f>MAX(I30:I39)/1000</f>
+        <v>70.807000000000002</v>
+      </c>
+      <c r="AD36" s="63">
+        <f>MAX(J30:J39)/1000</f>
+        <v>113.039</v>
+      </c>
+      <c r="AE36" s="69">
+        <f>MAX(K30:K39)/1000</f>
+        <v>45.832999999999998</v>
+      </c>
+      <c r="AF36" s="68">
+        <f>MAX(L30:L39)/1000</f>
+        <v>64.152000000000001</v>
+      </c>
+      <c r="AG36" s="63">
+        <f>MAX(M30:M39)/1000</f>
+        <v>112.97799999999999</v>
+      </c>
+      <c r="AH36" s="69">
+        <f>MAX(N30:N39)/1000</f>
+        <v>47.17</v>
+      </c>
+      <c r="AI36" s="68">
+        <f>MAX(O30:O39)/1000</f>
+        <v>72.078999999999994</v>
+      </c>
+      <c r="AJ36" s="63">
+        <f>MAX(P30:P39)/1000</f>
+        <v>103.685</v>
+      </c>
+      <c r="AK36" s="69">
+        <f>MAX(Q30:Q39)/1000</f>
+        <v>60.215000000000003</v>
+      </c>
+      <c r="AL36" s="68">
+        <f>MAX(R30:R39)/1000</f>
+        <v>67.706000000000003</v>
+      </c>
+      <c r="AM36" s="63">
+        <f>MAX(S30:S39)/1000</f>
+        <v>87.89</v>
+      </c>
+      <c r="AN36" s="69">
+        <f>MAX(T30:T39)/1000</f>
+        <v>41.15</v>
+      </c>
+      <c r="AO36" s="68">
+        <f>MAX(U30:U39)/1000</f>
+        <v>76.887</v>
+      </c>
+      <c r="AP36" s="63">
+        <f>MAX(V30:V39)/1000</f>
+        <v>101.122</v>
+      </c>
+      <c r="AQ36" s="69">
+        <f>MAX(W30:W39)/1000</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AR36" s="68">
+        <f>MAX(X30:X39)/1000</f>
+        <v>77.64</v>
+      </c>
+      <c r="AS36" s="63">
+        <f>MAX(Y30:Y39)/1000</f>
+        <v>94.795000000000002</v>
+      </c>
+      <c r="AT36" s="69">
+        <f>MAX(Z30:Z39)/1000</f>
+        <v>67.343999999999994</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="1">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="45">
         <v>8</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="4">
         <v>67843</v>
       </c>
       <c r="J37" s="1">
         <v>47084</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="5">
         <v>11540</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="L37" s="4">
+        <v>51644</v>
+      </c>
+      <c r="M37" s="1">
+        <v>49915</v>
+      </c>
+      <c r="N37" s="5">
+        <v>42946</v>
+      </c>
+      <c r="O37" s="4">
+        <v>67107</v>
+      </c>
+      <c r="P37" s="1">
+        <v>62297</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>49652</v>
+      </c>
+      <c r="R37" s="4">
+        <v>59108</v>
+      </c>
+      <c r="S37" s="1">
+        <v>52797</v>
+      </c>
+      <c r="T37" s="5">
+        <v>35446</v>
+      </c>
+      <c r="U37" s="4">
+        <v>66668</v>
+      </c>
+      <c r="V37" s="1">
+        <v>21533</v>
+      </c>
+      <c r="W37" s="5">
+        <v>7888</v>
+      </c>
+      <c r="X37" s="4">
+        <v>67240</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>57240</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>40990</v>
+      </c>
+      <c r="AB37" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="74">
+        <f>MAX(I43:I52)/1000</f>
+        <v>528.05600000000004</v>
+      </c>
+      <c r="AD37" s="72">
+        <f>MAX(J43:J52)/1000</f>
+        <v>546.03800000000001</v>
+      </c>
+      <c r="AE37" s="75">
+        <f>MAX(K43:K52)/1000</f>
+        <v>306.303</v>
+      </c>
+      <c r="AF37" s="74">
+        <f>MAX(L43:L52)/1000</f>
+        <v>584.673</v>
+      </c>
+      <c r="AG37" s="72">
+        <f>MAX(M43:M52)/1000</f>
+        <v>998.52499999999998</v>
+      </c>
+      <c r="AH37" s="75">
+        <f>MAX(N43:N52)/1000</f>
+        <v>322.39400000000001</v>
+      </c>
+      <c r="AI37" s="74">
+        <f>MAX(O43:O52)/1000</f>
+        <v>604.14099999999996</v>
+      </c>
+      <c r="AJ37" s="72">
+        <f>MAX(P43:P52)/1000</f>
+        <v>969.90899999999999</v>
+      </c>
+      <c r="AK37" s="75">
+        <f>MAX(Q43:Q52)/1000</f>
+        <v>445.60599999999999</v>
+      </c>
+      <c r="AL37" s="74">
+        <f>MAX(R43:R52)/1000</f>
+        <v>509.20800000000003</v>
+      </c>
+      <c r="AM37" s="72">
+        <f>MAX(S43:S52)/1000</f>
+        <v>592.94000000000005</v>
+      </c>
+      <c r="AN37" s="75">
+        <f>MAX(T43:T52)/1000</f>
+        <v>139.815</v>
+      </c>
+      <c r="AO37" s="74">
+        <f>MAX(U43:U52)/1000</f>
+        <v>445.74099999999999</v>
+      </c>
+      <c r="AP37" s="72">
+        <f>MAX(V43:V52)/1000</f>
+        <v>679.75800000000004</v>
+      </c>
+      <c r="AQ37" s="75">
+        <f>MAX(W43:W52)/1000</f>
+        <v>173.15700000000001</v>
+      </c>
+      <c r="AR37" s="74">
+        <f>MAX(X43:X52)/1000</f>
+        <v>426.44499999999999</v>
+      </c>
+      <c r="AS37" s="72">
+        <f>MAX(Y43:Y52)/1000</f>
+        <v>578.18700000000001</v>
+      </c>
+      <c r="AT37" s="75">
+        <f>MAX(Z43:Z52)/1000</f>
+        <v>307.82</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="45">
         <v>9</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="4">
         <v>67824</v>
       </c>
       <c r="J38" s="1">
         <v>62757</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="5">
         <v>38858</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="L38" s="4">
+        <v>64152</v>
+      </c>
+      <c r="M38" s="1">
+        <v>91245</v>
+      </c>
+      <c r="N38" s="5">
+        <v>47170</v>
+      </c>
+      <c r="O38" s="4">
+        <v>67226</v>
+      </c>
+      <c r="P38" s="1">
+        <v>89082</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>60215</v>
+      </c>
+      <c r="R38" s="4">
+        <v>64435</v>
+      </c>
+      <c r="S38" s="1">
+        <v>80441</v>
+      </c>
+      <c r="T38" s="5">
+        <v>38659</v>
+      </c>
+      <c r="U38" s="4">
+        <v>66479</v>
+      </c>
+      <c r="V38" s="1">
+        <v>17682</v>
+      </c>
+      <c r="W38" s="5">
+        <v>38800</v>
+      </c>
+      <c r="X38" s="4">
+        <v>74249</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>91183</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>38410</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="1">
+        <v>523150</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1002526</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1165692</v>
+      </c>
       <c r="E39" s="1">
         <v>420417</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
+      <c r="F39" s="1">
+        <v>331893</v>
+      </c>
+      <c r="G39" s="1">
+        <v>328391</v>
+      </c>
+      <c r="H39" s="45">
         <v>10</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="6">
         <v>67781</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="7">
         <v>66086</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="8">
         <v>34566</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
+      <c r="L39" s="10">
+        <v>26562</v>
+      </c>
+      <c r="M39" s="7">
+        <v>83390</v>
+      </c>
+      <c r="N39" s="8">
+        <v>15092</v>
+      </c>
+      <c r="O39" s="6">
+        <v>64443</v>
+      </c>
+      <c r="P39" s="7">
+        <v>62867</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>49763</v>
+      </c>
+      <c r="R39" s="6">
+        <v>63745</v>
+      </c>
+      <c r="S39" s="7">
+        <v>50265</v>
+      </c>
+      <c r="T39" s="8">
+        <v>37634</v>
+      </c>
+      <c r="U39" s="6">
+        <v>74711</v>
+      </c>
+      <c r="V39" s="7">
+        <v>55580</v>
+      </c>
+      <c r="W39" s="8">
+        <v>10579</v>
+      </c>
+      <c r="X39" s="6">
+        <v>77640</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>80937</v>
+      </c>
+      <c r="Z39" s="8">
+        <v>67344</v>
+      </c>
+      <c r="AB39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="27"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="I40" s="24" t="s">
+      <c r="B40" s="1">
+        <v>516883</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1001078</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1023234</v>
+      </c>
+      <c r="E40" s="1">
+        <v>387491</v>
+      </c>
+      <c r="F40" s="1">
+        <v>321999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>326216</v>
+      </c>
+      <c r="I40" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="43"/>
+      <c r="AB40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC40" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="48"/>
+      <c r="AO40" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="48"/>
+      <c r="AR40" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="48"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="I41" s="23" t="s">
+      <c r="B41" s="1">
+        <v>515454</v>
+      </c>
+      <c r="C41" s="1">
+        <v>999135</v>
+      </c>
+      <c r="D41" s="1">
+        <v>986760</v>
+      </c>
+      <c r="E41" s="1">
+        <v>382107</v>
+      </c>
+      <c r="F41" s="1">
+        <v>326709</v>
+      </c>
+      <c r="G41" s="1">
+        <v>327974</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23" t="s">
+      <c r="K41" s="24"/>
+      <c r="L41" s="22" t="s">
         <v>1</v>
       </c>
       <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23" t="s">
+      <c r="N41" s="24"/>
+      <c r="O41" s="22" t="s">
         <v>2</v>
       </c>
       <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23" t="s">
+      <c r="Q41" s="24"/>
+      <c r="R41" s="58" t="s">
         <v>3</v>
       </c>
       <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23" t="s">
+      <c r="T41" s="24"/>
+      <c r="U41" s="22" t="s">
         <v>4</v>
       </c>
       <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23" t="s">
+      <c r="W41" s="24"/>
+      <c r="X41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
+      <c r="Z41" s="24"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE41" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH41" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK41" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN41" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ41" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT41" s="35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="I42" s="2" t="s">
+      <c r="B42" s="1">
+        <v>517128</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1003083</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1031527</v>
+      </c>
+      <c r="E42" s="1">
+        <v>408802</v>
+      </c>
+      <c r="F42" s="1">
+        <v>327155</v>
+      </c>
+      <c r="G42" s="1">
+        <v>328477</v>
+      </c>
+      <c r="I42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="2" t="s">
+      <c r="K42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="2" t="s">
+      <c r="N42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R42" s="2" t="s">
+      <c r="Q42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="2" t="s">
+      <c r="T42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="2" t="s">
+      <c r="V42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X42" s="2" t="s">
+      <c r="W42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X42" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Y42" s="2" t="s">
+      <c r="Y42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="2" t="s">
-        <v>12</v>
+      <c r="Z42" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB42" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="65">
+        <f>MIN(I12:I21)/1000</f>
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="AD42" s="66">
+        <f>MIN(J12:J21)/1000</f>
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="AE42" s="67">
+        <f>MIN(K4:K13)/1000</f>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="AF42" s="65">
+        <f>MIN(L12:L21)/1000</f>
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="AG42" s="66">
+        <f>MIN(M12:M21)/1000</f>
+        <v>1.206</v>
+      </c>
+      <c r="AH42" s="67">
+        <f>MIN(N12:N21)/1000</f>
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="AI42" s="65">
+        <f>MIN(O12:O21)/1000</f>
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="AJ42" s="66">
+        <f>MIN(P12:P21)/1000</f>
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="AK42" s="67">
+        <f>MIN(Q12:Q21)/1000</f>
+        <v>1.875</v>
+      </c>
+      <c r="AL42" s="65">
+        <f>MIN(R12:R21)/1000</f>
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AM42" s="66">
+        <f>MIN(S12:S21)/1000</f>
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="AN42" s="67">
+        <f>MIN(T12:T21)/1000</f>
+        <v>2.06</v>
+      </c>
+      <c r="AO42" s="65">
+        <f>MIN(U12:U21)/1000</f>
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="AP42" s="66">
+        <f>MIN(V12:V21)/1000</f>
+        <v>3.7</v>
+      </c>
+      <c r="AQ42" s="67">
+        <f>MIN(W12:W21)/1000</f>
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="AR42" s="65">
+        <f>MIN(X12:X21)/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="AS42" s="66">
+        <f>MIN(Y12:Y21)/1000</f>
+        <v>1.663</v>
+      </c>
+      <c r="AT42" s="67">
+        <f>MIN(Z12:Z21)/1000</f>
+        <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3">
+      <c r="B43" s="1">
+        <v>558129</v>
+      </c>
+      <c r="C43" s="1">
+        <v>981714</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1002790</v>
+      </c>
+      <c r="E43" s="1">
+        <v>398029</v>
+      </c>
+      <c r="F43" s="1">
+        <v>322530</v>
+      </c>
+      <c r="G43" s="1">
+        <v>327272</v>
+      </c>
+      <c r="H43" s="44">
         <v>1</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1">
+      <c r="I43" s="4">
+        <v>528056</v>
+      </c>
+      <c r="J43" s="1">
+        <v>541059</v>
+      </c>
+      <c r="K43" s="5">
+        <v>306303</v>
+      </c>
+      <c r="L43" s="4">
+        <v>269187</v>
+      </c>
+      <c r="M43" s="1">
+        <v>369606</v>
+      </c>
+      <c r="N43" s="5">
+        <v>122142</v>
+      </c>
+      <c r="O43" s="11">
+        <v>326282</v>
+      </c>
+      <c r="P43" s="12">
+        <v>476257</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>164958</v>
+      </c>
+      <c r="R43" s="60">
         <v>205360</v>
       </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
+      <c r="S43" s="12">
+        <v>265069</v>
+      </c>
+      <c r="T43" s="14">
+        <v>48616</v>
+      </c>
+      <c r="U43" s="11">
+        <v>334362</v>
+      </c>
+      <c r="V43" s="12">
+        <v>408098</v>
+      </c>
+      <c r="W43" s="14">
+        <v>173157</v>
+      </c>
+      <c r="X43" s="11">
+        <v>329500</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>578187</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>170477</v>
+      </c>
+      <c r="AB43" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="68">
+        <f>MIN(I25:I34)/1000</f>
+        <v>15.802</v>
+      </c>
+      <c r="AD43" s="63">
+        <f>MIN(J25:J34)/1000</f>
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="AE43" s="69">
+        <f>MIN(K25:K34)/1000</f>
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="AF43" s="68">
+        <f>MIN(L25:L34)/1000</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AG43" s="63">
+        <f>MIN(M25:M34)/1000</f>
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="AH43" s="69">
+        <f>MIN(N25:N34)/1000</f>
+        <v>3.827</v>
+      </c>
+      <c r="AI43" s="68">
+        <f>MIN(O25:O34)/1000</f>
+        <v>13.446999999999999</v>
+      </c>
+      <c r="AJ43" s="63">
+        <f>MIN(P25:P34)/1000</f>
+        <v>12.07</v>
+      </c>
+      <c r="AK43" s="69">
+        <f>MIN(Q25:Q34)/1000</f>
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="AL43" s="68">
+        <f>MIN(R25:R34)/1000</f>
+        <v>15.477</v>
+      </c>
+      <c r="AM43" s="63">
+        <f>MIN(S25:S34)/1000</f>
+        <v>13.409000000000001</v>
+      </c>
+      <c r="AN43" s="69">
+        <f>MAX(W25:W34)/1000</f>
+        <v>29.963999999999999</v>
+      </c>
+      <c r="AO43" s="68">
+        <f>MIN(U25:U34)/1000</f>
+        <v>15.8</v>
+      </c>
+      <c r="AP43" s="63">
+        <f>MIN(V25:V34)/1000</f>
+        <v>6.0039999999999996</v>
+      </c>
+      <c r="AQ43" s="69">
+        <f>MIN(W25:W34)/1000</f>
+        <v>4.17</v>
+      </c>
+      <c r="AR43" s="68">
+        <f>MIN(X25:X34)/1000</f>
+        <v>15.938000000000001</v>
+      </c>
+      <c r="AS43" s="63">
+        <f>MIN(Y25:Y34)/1000</f>
+        <v>17.378</v>
+      </c>
+      <c r="AT43" s="69">
+        <f>MIN(Z25:Z34)/1000</f>
+        <v>4.8490000000000002</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3">
+      <c r="B44" s="1">
+        <v>501228</v>
+      </c>
+      <c r="C44" s="1">
+        <v>973155</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1091553</v>
+      </c>
+      <c r="E44" s="1">
+        <v>552462</v>
+      </c>
+      <c r="F44" s="1">
+        <v>321980</v>
+      </c>
+      <c r="G44" s="1">
+        <v>333759</v>
+      </c>
+      <c r="H44" s="44">
         <v>2</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+      <c r="I44" s="4">
+        <v>518999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>162479</v>
+      </c>
+      <c r="K44" s="5">
+        <v>59210</v>
+      </c>
+      <c r="L44" s="4">
+        <v>243475</v>
+      </c>
+      <c r="M44" s="1">
+        <v>819260</v>
+      </c>
+      <c r="N44" s="5">
+        <v>149196</v>
+      </c>
+      <c r="O44" s="4">
+        <v>378286</v>
+      </c>
+      <c r="P44" s="1">
+        <v>348114</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>343875</v>
+      </c>
+      <c r="R44" s="28">
+        <v>328497</v>
+      </c>
+      <c r="S44" s="1">
+        <v>592940</v>
+      </c>
+      <c r="T44" s="5">
+        <v>122753</v>
+      </c>
+      <c r="U44" s="4">
+        <v>320728</v>
+      </c>
+      <c r="V44" s="1">
+        <v>222439</v>
+      </c>
+      <c r="W44" s="5">
+        <v>35412</v>
+      </c>
+      <c r="X44" s="4">
+        <v>325882</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>294665</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>195367</v>
+      </c>
+      <c r="AB44" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="68">
+        <f>MIN(I38:I47)/1000</f>
+        <v>67.781000000000006</v>
+      </c>
+      <c r="AD44" s="63">
+        <f>MIN(J38:J47)/1000</f>
+        <v>62.756999999999998</v>
+      </c>
+      <c r="AE44" s="69">
+        <f>MIN(K38:K47)/1000</f>
+        <v>32.820999999999998</v>
+      </c>
+      <c r="AF44" s="68">
+        <f>MIN(L38:L47)/1000</f>
+        <v>26.562000000000001</v>
+      </c>
+      <c r="AG44" s="63">
+        <f>MIN(M38:M47)/1000</f>
+        <v>83.39</v>
+      </c>
+      <c r="AH44" s="69">
+        <f>MIN(N38:N47)/1000</f>
+        <v>15.092000000000001</v>
+      </c>
+      <c r="AI44" s="68">
+        <f>MIN(O38:O47)/1000</f>
+        <v>64.442999999999998</v>
+      </c>
+      <c r="AJ44" s="63">
+        <f>MIN(P38:P47)/1000</f>
+        <v>62.866999999999997</v>
+      </c>
+      <c r="AK44" s="69">
+        <f>MIN(Q38:Q47)/1000</f>
+        <v>49.762999999999998</v>
+      </c>
+      <c r="AL44" s="68">
+        <f>MIN(R38:R47)/1000</f>
+        <v>63.744999999999997</v>
+      </c>
+      <c r="AM44" s="63">
+        <f>MIN(S38:S47)/1000</f>
+        <v>50.265000000000001</v>
+      </c>
+      <c r="AN44" s="69">
+        <f>MAX(T38:T47)/1000</f>
+        <v>122.753</v>
+      </c>
+      <c r="AO44" s="68">
+        <f>MIN(U38:U47)/1000</f>
+        <v>66.478999999999999</v>
+      </c>
+      <c r="AP44" s="63">
+        <f>MIN(V38:V47)/1000</f>
+        <v>17.681999999999999</v>
+      </c>
+      <c r="AQ44" s="69">
+        <f>MIN(W38:W47)/1000</f>
+        <v>10.579000000000001</v>
+      </c>
+      <c r="AR44" s="68">
+        <f>MIN(X38:X47)/1000</f>
+        <v>74.248999999999995</v>
+      </c>
+      <c r="AS44" s="63">
+        <f>MIN(Y38:Y47)/1000</f>
+        <v>80.936999999999998</v>
+      </c>
+      <c r="AT44" s="69">
+        <f>MIN(Z38:Z47)/1000</f>
+        <v>38.409999999999997</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>7</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1">
+      <c r="B45" s="1">
+        <v>493448</v>
+      </c>
+      <c r="C45" s="1">
+        <v>979382</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1085462</v>
+      </c>
+      <c r="E45" s="1">
+        <v>637812</v>
+      </c>
+      <c r="F45" s="1">
+        <v>339300</v>
+      </c>
+      <c r="G45" s="1">
+        <v>334865</v>
+      </c>
+      <c r="H45" s="45">
         <v>3</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+      <c r="I45" s="4">
+        <v>514390</v>
+      </c>
+      <c r="J45" s="1">
+        <v>507779</v>
+      </c>
+      <c r="K45" s="5">
+        <v>113108</v>
+      </c>
+      <c r="L45" s="4">
+        <v>289367</v>
+      </c>
+      <c r="M45" s="1">
+        <v>541324</v>
+      </c>
+      <c r="N45" s="5">
+        <v>133123</v>
+      </c>
+      <c r="O45" s="4">
+        <v>351850</v>
+      </c>
+      <c r="P45" s="1">
+        <v>287622</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>259071</v>
+      </c>
+      <c r="R45" s="28">
+        <v>238024</v>
+      </c>
+      <c r="S45" s="1">
+        <v>332022</v>
+      </c>
+      <c r="T45" s="5">
+        <v>33924</v>
+      </c>
+      <c r="U45" s="4">
+        <v>371247</v>
+      </c>
+      <c r="V45" s="1">
+        <v>306287</v>
+      </c>
+      <c r="W45" s="5">
+        <v>86709</v>
+      </c>
+      <c r="X45" s="4">
+        <v>342619</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>293286</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>307820</v>
+      </c>
+      <c r="AB45" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC45" s="74">
+        <f>MIN(I43:I52)/1000</f>
+        <v>495.25099999999998</v>
+      </c>
+      <c r="AD45" s="72">
+        <f>MIN(J43:J52)/1000</f>
+        <v>80.42</v>
+      </c>
+      <c r="AE45" s="75">
+        <f>MIN(K43:K52)/1000</f>
+        <v>22.27</v>
+      </c>
+      <c r="AF45" s="74">
+        <f>MIN(L43:L52)/1000</f>
+        <v>139.37</v>
+      </c>
+      <c r="AG45" s="72">
+        <f>MIN(M43:M52)/1000</f>
+        <v>104.902</v>
+      </c>
+      <c r="AH45" s="75">
+        <f>MIN(N43:N52)/1000</f>
+        <v>61.112000000000002</v>
+      </c>
+      <c r="AI45" s="74">
+        <f>MIN(O43:O52)/1000</f>
+        <v>326.28199999999998</v>
+      </c>
+      <c r="AJ45" s="72">
+        <f>MIN(P43:P52)/1000</f>
+        <v>287.62200000000001</v>
+      </c>
+      <c r="AK45" s="75">
+        <f>MIN(Q43:Q52)/1000</f>
+        <v>164.958</v>
+      </c>
+      <c r="AL45" s="74">
+        <f>MIN(R43:R52)/1000</f>
+        <v>205.36</v>
+      </c>
+      <c r="AM45" s="72">
+        <f>MIN(S43:S52)/1000</f>
+        <v>100.173</v>
+      </c>
+      <c r="AN45" s="75">
+        <f>MIN(T43:T52)/1000</f>
+        <v>33.201000000000001</v>
+      </c>
+      <c r="AO45" s="74">
+        <f>MIN(U43:U52)/1000</f>
+        <v>320.72800000000001</v>
+      </c>
+      <c r="AP45" s="72">
+        <f>MIN(V43:V52)/1000</f>
+        <v>68.325999999999993</v>
+      </c>
+      <c r="AQ45" s="75">
+        <f>MIN(W43:W52)/1000</f>
+        <v>29.725000000000001</v>
+      </c>
+      <c r="AR45" s="74">
+        <f>MIN(X43:X52)/1000</f>
+        <v>315.822</v>
+      </c>
+      <c r="AS45" s="72">
+        <f>MIN(Y43:Y52)/1000</f>
+        <v>99.819000000000003</v>
+      </c>
+      <c r="AT45" s="75">
+        <f>MIN(Z43:Z52)/1000</f>
+        <v>155.85400000000001</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1">
+      <c r="B46" s="1">
+        <v>499446</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1026821</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1099664</v>
+      </c>
+      <c r="E46" s="1">
+        <v>512821</v>
+      </c>
+      <c r="F46" s="1">
+        <v>346020</v>
+      </c>
+      <c r="G46" s="1">
+        <v>322165</v>
+      </c>
+      <c r="H46" s="45">
         <v>4</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="I46" s="4">
+        <v>524299</v>
+      </c>
+      <c r="J46" s="1">
+        <v>80420</v>
+      </c>
+      <c r="K46" s="5">
+        <v>46230</v>
+      </c>
+      <c r="L46" s="4">
+        <v>298162</v>
+      </c>
+      <c r="M46" s="1">
+        <v>321026</v>
+      </c>
+      <c r="N46" s="5">
+        <v>161438</v>
+      </c>
+      <c r="O46" s="4">
+        <v>332104</v>
+      </c>
+      <c r="P46" s="1">
+        <v>351069</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>282359</v>
+      </c>
+      <c r="R46" s="28">
+        <v>326142</v>
+      </c>
+      <c r="S46" s="1">
+        <v>392864</v>
+      </c>
+      <c r="T46" s="5">
+        <v>36015</v>
+      </c>
+      <c r="U46" s="4">
+        <v>322570</v>
+      </c>
+      <c r="V46" s="1">
+        <v>453406</v>
+      </c>
+      <c r="W46" s="5">
+        <v>107933</v>
+      </c>
+      <c r="X46" s="4">
+        <v>320296</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>348303</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>230859</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1">
+      <c r="B47" s="1">
+        <v>494769</v>
+      </c>
+      <c r="C47" s="1">
+        <v>541430</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1132733</v>
+      </c>
+      <c r="E47" s="1">
+        <v>418351</v>
+      </c>
+      <c r="F47" s="1">
+        <v>375177</v>
+      </c>
+      <c r="G47" s="1">
+        <v>322488</v>
+      </c>
+      <c r="H47" s="45">
         <v>5</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
+      <c r="I47" s="4">
+        <v>495251</v>
+      </c>
+      <c r="J47" s="1">
+        <v>546038</v>
+      </c>
+      <c r="K47" s="5">
+        <v>32821</v>
+      </c>
+      <c r="L47" s="4">
+        <v>148411</v>
+      </c>
+      <c r="M47" s="1">
+        <v>104902</v>
+      </c>
+      <c r="N47" s="5">
+        <v>107614</v>
+      </c>
+      <c r="O47" s="4">
+        <v>331556</v>
+      </c>
+      <c r="P47" s="1">
+        <v>328217</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>299783</v>
+      </c>
+      <c r="R47" s="28">
+        <v>308631</v>
+      </c>
+      <c r="S47" s="1">
+        <v>314044</v>
+      </c>
+      <c r="T47" s="5">
+        <v>33201</v>
+      </c>
+      <c r="U47" s="4">
+        <v>369811</v>
+      </c>
+      <c r="V47" s="1">
+        <v>679758</v>
+      </c>
+      <c r="W47" s="5">
+        <v>57915</v>
+      </c>
+      <c r="X47" s="4">
+        <v>315822</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>560554</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>263207</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1">
+      <c r="B48" s="1">
+        <v>494302</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1048039</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1162210</v>
+      </c>
+      <c r="E48" s="1">
+        <v>521618</v>
+      </c>
+      <c r="F48" s="1">
+        <v>484604</v>
+      </c>
+      <c r="G48" s="1">
+        <v>363353</v>
+      </c>
+      <c r="H48" s="45">
         <v>6</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
+      <c r="I48" s="4">
+        <v>510050</v>
+      </c>
+      <c r="J48" s="1">
+        <v>114337</v>
+      </c>
+      <c r="K48" s="5">
+        <v>48251</v>
+      </c>
+      <c r="L48" s="4">
+        <v>268679</v>
+      </c>
+      <c r="M48" s="1">
+        <v>262052</v>
+      </c>
+      <c r="N48" s="5">
+        <v>174982</v>
+      </c>
+      <c r="O48" s="4">
+        <v>521705</v>
+      </c>
+      <c r="P48" s="1">
+        <v>333558</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>340772</v>
+      </c>
+      <c r="R48" s="28">
+        <v>296690</v>
+      </c>
+      <c r="S48" s="1">
+        <v>464626</v>
+      </c>
+      <c r="T48" s="5">
+        <v>34714</v>
+      </c>
+      <c r="U48" s="4">
+        <v>359776</v>
+      </c>
+      <c r="V48" s="1">
+        <v>68326</v>
+      </c>
+      <c r="W48" s="5">
+        <v>91763</v>
+      </c>
+      <c r="X48" s="4">
+        <v>359198</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>346507</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>291538</v>
+      </c>
     </row>
     <row r="49" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <v>7</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
+      <c r="I49" s="4">
+        <v>499430</v>
+      </c>
+      <c r="J49" s="1">
+        <v>405228</v>
+      </c>
+      <c r="K49" s="5">
+        <v>22931</v>
+      </c>
+      <c r="L49" s="4">
+        <v>283312</v>
+      </c>
+      <c r="M49" s="1">
+        <v>998525</v>
+      </c>
+      <c r="N49" s="5">
+        <v>61112</v>
+      </c>
+      <c r="O49" s="4">
+        <v>570838</v>
+      </c>
+      <c r="P49" s="1">
+        <v>799071</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>363863</v>
+      </c>
+      <c r="R49" s="28">
+        <v>509208</v>
+      </c>
+      <c r="S49" s="1">
+        <v>145356</v>
+      </c>
+      <c r="T49" s="5">
+        <v>139815</v>
+      </c>
+      <c r="U49" s="4">
+        <v>341299</v>
+      </c>
+      <c r="V49" s="1">
+        <v>285089</v>
+      </c>
+      <c r="W49" s="5">
+        <v>29725</v>
+      </c>
+      <c r="X49" s="4">
+        <v>353304</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>430572</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>302675</v>
+      </c>
     </row>
     <row r="50" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <v>8</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
+      <c r="I50" s="4">
+        <v>496996</v>
+      </c>
+      <c r="J50" s="1">
+        <v>539467</v>
+      </c>
+      <c r="K50" s="5">
+        <v>22270</v>
+      </c>
+      <c r="L50" s="4">
+        <v>293411</v>
+      </c>
+      <c r="M50" s="1">
+        <v>619675</v>
+      </c>
+      <c r="N50" s="5">
+        <v>204927</v>
+      </c>
+      <c r="O50" s="4">
+        <v>542591</v>
+      </c>
+      <c r="P50" s="1">
+        <v>482217</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>414111</v>
+      </c>
+      <c r="R50" s="28">
+        <v>437914</v>
+      </c>
+      <c r="S50" s="1">
+        <v>100173</v>
+      </c>
+      <c r="T50" s="5">
+        <v>51104</v>
+      </c>
+      <c r="U50" s="4">
+        <v>331278</v>
+      </c>
+      <c r="V50" s="1">
+        <v>369147</v>
+      </c>
+      <c r="W50" s="5">
+        <v>41083</v>
+      </c>
+      <c r="X50" s="4">
+        <v>334616</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>99819</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>180209</v>
+      </c>
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <v>9</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
+      <c r="I51" s="4">
+        <v>507780</v>
+      </c>
+      <c r="J51" s="1">
+        <v>355874</v>
+      </c>
+      <c r="K51" s="5">
+        <v>75909</v>
+      </c>
+      <c r="L51" s="4">
+        <v>584673</v>
+      </c>
+      <c r="M51" s="1">
+        <v>720541</v>
+      </c>
+      <c r="N51" s="5">
+        <v>322394</v>
+      </c>
+      <c r="O51" s="4">
+        <v>604141</v>
+      </c>
+      <c r="P51" s="1">
+        <v>338634</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>324233</v>
+      </c>
+      <c r="R51" s="28">
+        <v>376497</v>
+      </c>
+      <c r="S51" s="1">
+        <v>240706</v>
+      </c>
+      <c r="T51" s="5">
+        <v>63082</v>
+      </c>
+      <c r="U51" s="4">
+        <v>388916</v>
+      </c>
+      <c r="V51" s="1">
+        <v>461943</v>
+      </c>
+      <c r="W51" s="5">
+        <v>124267</v>
+      </c>
+      <c r="X51" s="4">
+        <v>321401</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>346809</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>155854</v>
+      </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.25">
-      <c r="H52" s="1">
+    <row r="52" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="3">
         <v>10</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
+      <c r="I52" s="6">
+        <v>515276</v>
+      </c>
+      <c r="J52" s="7">
+        <v>477162</v>
+      </c>
+      <c r="K52" s="8">
+        <v>284560</v>
+      </c>
+      <c r="L52" s="6">
+        <v>139370</v>
+      </c>
+      <c r="M52" s="7">
+        <v>545229</v>
+      </c>
+      <c r="N52" s="8">
+        <v>100821</v>
+      </c>
+      <c r="O52" s="6">
+        <v>588052</v>
+      </c>
+      <c r="P52" s="7">
+        <v>969909</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>445606</v>
+      </c>
+      <c r="R52" s="29">
+        <v>303511</v>
+      </c>
+      <c r="S52" s="7">
+        <v>401658</v>
+      </c>
+      <c r="T52" s="8">
+        <v>89316</v>
+      </c>
+      <c r="U52" s="6">
+        <v>445741</v>
+      </c>
+      <c r="V52" s="7">
+        <v>269020</v>
+      </c>
+      <c r="W52" s="8">
+        <v>33594</v>
+      </c>
+      <c r="X52" s="6">
+        <v>426445</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>160577</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>279965</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="89">
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AB22:AT22"/>
+    <mergeCell ref="AB39:AT39"/>
+    <mergeCell ref="AB31:AT31"/>
+    <mergeCell ref="AR40:AT40"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AB8:AJ8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AB15:AJ15"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="I1:Z1"/>
@@ -3954,28 +6681,6 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="X28:Z28"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="I40:Z40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="I27:Z27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0AE8E-2807-4B64-8831-09CC32A466FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23C06F-E8F4-4F95-8D3E-D3312E8FCF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,40 +707,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,17 +727,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,62 +820,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1108,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL53" sqref="AL53"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,130 +1157,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AB1" s="52" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="54"/>
+      <c r="AB1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="18"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="22" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="22" t="s">
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
-      <c r="AB2" s="51" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
+      <c r="AB2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="55" t="s">
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="55" t="s">
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="67"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -1299,89 +1304,89 @@
       <c r="G3" s="5">
         <v>3963</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="61">
+      <c r="AC3" s="55">
         <f>AVERAGE(B3:B12)/1000</f>
         <v>3.9470000000000001</v>
       </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="63">
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="38">
         <f>AVERAGE(C3:C12)/1000</f>
         <v>7.4497999999999998</v>
       </c>
-      <c r="AF3" s="63">
+      <c r="AF3" s="38">
         <f>AVERAGE(D3:D12)/1000</f>
         <v>9.3028999999999993</v>
       </c>
-      <c r="AG3" s="63">
+      <c r="AG3" s="38">
         <f>AVERAGE(E3:E12)/1000</f>
         <v>4.0015000000000001</v>
       </c>
-      <c r="AH3" s="63">
+      <c r="AH3" s="38">
         <f>AVERAGE(F3:F12)/1000</f>
         <v>4.3183999999999996</v>
       </c>
-      <c r="AI3" s="61">
+      <c r="AI3" s="55">
         <f>AVERAGE(G3:G12)/1000</f>
         <v>3.9734000000000003</v>
       </c>
-      <c r="AJ3" s="64"/>
+      <c r="AJ3" s="57"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1405,7 +1410,7 @@
       <c r="G4" s="5">
         <v>3973</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="28">
         <v>1</v>
       </c>
       <c r="I4" s="11">
@@ -1462,35 +1467,35 @@
       <c r="Z4" s="14">
         <v>3742</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="61">
+      <c r="AC4" s="55">
         <f>AVERAGE(B15:B24)/1000</f>
         <v>15.862299999999999</v>
       </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="63">
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="38">
         <f>AVERAGE(C15:C24)/1000</f>
         <v>30.738900000000001</v>
       </c>
-      <c r="AF4" s="63">
+      <c r="AF4" s="38">
         <f>AVERAGE(D15:D24)/1000</f>
         <v>46.905800000000006</v>
       </c>
-      <c r="AG4" s="63">
+      <c r="AG4" s="38">
         <f>AVERAGE(E15:E24)/1000</f>
         <v>15.919600000000001</v>
       </c>
-      <c r="AH4" s="63">
+      <c r="AH4" s="38">
         <f>AVERAGE(F15:F24)/1000</f>
         <v>16.555299999999999</v>
       </c>
-      <c r="AI4" s="61">
+      <c r="AI4" s="55">
         <f>AVERAGE(G15:G24)/1000</f>
         <v>15.826799999999999</v>
       </c>
-      <c r="AJ4" s="64"/>
+      <c r="AJ4" s="57"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1514,7 +1519,7 @@
       <c r="G5" s="5">
         <v>3989</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="28">
         <v>2</v>
       </c>
       <c r="I5" s="4">
@@ -1571,35 +1576,35 @@
       <c r="Z5" s="5">
         <v>1766</v>
       </c>
-      <c r="AB5" s="50" t="s">
+      <c r="AB5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="61">
+      <c r="AC5" s="55">
         <f>AVERAGE(B27:B36)/1000</f>
         <v>67.549600000000012</v>
       </c>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="63">
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="38">
         <f>AVERAGE(C27:C36)/1000</f>
         <v>136.70320000000001</v>
       </c>
-      <c r="AF5" s="63">
+      <c r="AF5" s="38">
         <f>AVERAGE(D27:D36)/1000</f>
         <v>206.7079</v>
       </c>
-      <c r="AG5" s="63">
+      <c r="AG5" s="38">
         <f>AVERAGE(E27:E36)/1000</f>
         <v>67.81</v>
       </c>
-      <c r="AH5" s="63">
+      <c r="AH5" s="38">
         <f>AVERAGE(F27:F36)/1000</f>
         <v>67.813399999999987</v>
       </c>
-      <c r="AI5" s="61">
+      <c r="AI5" s="55">
         <f>AVERAGE(G27:G36)/1000</f>
         <v>67.846100000000007</v>
       </c>
-      <c r="AJ5" s="64"/>
+      <c r="AJ5" s="57"/>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1623,7 +1628,7 @@
       <c r="G6" s="5">
         <v>3951</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="29">
         <v>3</v>
       </c>
       <c r="I6" s="4">
@@ -1680,35 +1685,35 @@
       <c r="Z6" s="5">
         <v>2811</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="70">
+      <c r="AC6" s="58">
         <f>AVERAGE(B39:B48)/1000</f>
         <v>511.39370000000002</v>
       </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="72">
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="44">
         <f>AVERAGE(C39:C48)/1000</f>
         <v>955.63630000000001</v>
       </c>
-      <c r="AF6" s="72">
+      <c r="AF6" s="44">
         <f>AVERAGE(D39:D48)/1000</f>
         <v>1078.1624999999999</v>
       </c>
-      <c r="AG6" s="72">
+      <c r="AG6" s="44">
         <f>AVERAGE(E39:E48)/1000</f>
         <v>463.99099999999999</v>
       </c>
-      <c r="AH6" s="72">
+      <c r="AH6" s="44">
         <f>AVERAGE(F39:F48)/1000</f>
         <v>349.73669999999998</v>
       </c>
-      <c r="AI6" s="70">
+      <c r="AI6" s="58">
         <f>AVERAGE(G39:G48)/1000</f>
         <v>331.49599999999998</v>
       </c>
-      <c r="AJ6" s="73"/>
+      <c r="AJ6" s="60"/>
     </row>
     <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1732,7 +1737,7 @@
       <c r="G7" s="5">
         <v>3996</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="29">
         <v>4</v>
       </c>
       <c r="I7" s="4">
@@ -1812,7 +1817,7 @@
       <c r="G8" s="5">
         <v>3997</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="29">
         <v>5</v>
       </c>
       <c r="I8" s="4">
@@ -1869,17 +1874,17 @@
       <c r="Z8" s="5">
         <v>1561</v>
       </c>
-      <c r="AB8" s="52" t="s">
+      <c r="AB8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="65"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1903,7 +1908,7 @@
       <c r="G9" s="5">
         <v>3971</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="29">
         <v>6</v>
       </c>
       <c r="I9" s="4">
@@ -1960,29 +1965,29 @@
       <c r="Z9" s="5">
         <v>2717</v>
       </c>
-      <c r="AB9" s="51" t="s">
+      <c r="AB9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="39" t="s">
+      <c r="AC9" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="55" t="s">
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="55" t="s">
+      <c r="AF9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG9" s="55" t="s">
+      <c r="AG9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="55" t="s">
+      <c r="AH9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AI9" s="39" t="s">
+      <c r="AI9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="40"/>
+      <c r="AJ9" s="67"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2006,7 +2011,7 @@
       <c r="G10" s="5">
         <v>3981</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="29">
         <v>7</v>
       </c>
       <c r="I10" s="4">
@@ -2063,35 +2068,35 @@
       <c r="Z10" s="5">
         <v>3488</v>
       </c>
-      <c r="AB10" s="50" t="s">
+      <c r="AB10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC10" s="61">
+      <c r="AC10" s="55">
         <f>MAX(B3:B12)/1000</f>
         <v>4.0209999999999999</v>
       </c>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63">
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="38">
         <f>MAX(C3:C12)/1000</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="AF10" s="63">
+      <c r="AF10" s="38">
         <f>MAX(D3:D12)/1000</f>
         <v>9.7149999999999999</v>
       </c>
-      <c r="AG10" s="63">
+      <c r="AG10" s="38">
         <f>MAX(E3:E12)/1000</f>
         <v>4.2069999999999999</v>
       </c>
-      <c r="AH10" s="63">
+      <c r="AH10" s="38">
         <f>MAX(F3:F12)/1000</f>
         <v>4.4880000000000004</v>
       </c>
-      <c r="AI10" s="61">
+      <c r="AI10" s="55">
         <f>MAX(G3:G12)/1000</f>
         <v>3.9969999999999999</v>
       </c>
-      <c r="AJ10" s="64"/>
+      <c r="AJ10" s="57"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2115,7 +2120,7 @@
       <c r="G11" s="5">
         <v>3932</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="29">
         <v>8</v>
       </c>
       <c r="I11" s="4">
@@ -2172,35 +2177,35 @@
       <c r="Z11" s="5">
         <v>1464</v>
       </c>
-      <c r="AB11" s="50" t="s">
+      <c r="AB11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC11" s="61">
+      <c r="AC11" s="55">
         <f>MAX(B15:B24)/1000</f>
         <v>16.137</v>
       </c>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="63">
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="38">
         <f>MAX(C15:C24)/1000</f>
         <v>31.608000000000001</v>
       </c>
-      <c r="AF11" s="63">
+      <c r="AF11" s="38">
         <f>MAX(D15:D24)/1000</f>
         <v>51.146999999999998</v>
       </c>
-      <c r="AG11" s="63">
+      <c r="AG11" s="38">
         <f>MAX(E15:E24)/1000</f>
         <v>16.138999999999999</v>
       </c>
-      <c r="AH11" s="63">
+      <c r="AH11" s="38">
         <f>MAX(F15:F24)/1000</f>
         <v>16.835999999999999</v>
       </c>
-      <c r="AI11" s="61">
+      <c r="AI11" s="55">
         <f>MAX(G15:G24)/1000</f>
         <v>15.977</v>
       </c>
-      <c r="AJ11" s="64"/>
+      <c r="AJ11" s="57"/>
     </row>
     <row r="12" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -2224,7 +2229,7 @@
       <c r="G12" s="8">
         <v>3981</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="29">
         <v>9</v>
       </c>
       <c r="I12" s="4">
@@ -2281,47 +2286,47 @@
       <c r="Z12" s="5">
         <v>1797</v>
       </c>
-      <c r="AB12" s="50" t="s">
+      <c r="AB12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="61">
+      <c r="AC12" s="55">
         <f>MAX(B27:B36)/1000</f>
         <v>67.930999999999997</v>
       </c>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="63">
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="38">
         <f>MAX(C27:C36)/1000</f>
         <v>138.80099999999999</v>
       </c>
-      <c r="AF12" s="63">
+      <c r="AF12" s="38">
         <f>MAX(D27:D36)/1000</f>
         <v>214.881</v>
       </c>
-      <c r="AG12" s="63">
+      <c r="AG12" s="38">
         <f>MAX(E27:E36)/1000</f>
         <v>68.295000000000002</v>
       </c>
-      <c r="AH12" s="63">
+      <c r="AH12" s="38">
         <f>MAX(F27:F36)/1000</f>
         <v>68.593000000000004</v>
       </c>
-      <c r="AI12" s="61">
+      <c r="AI12" s="55">
         <f>MAX(G27:G36)/1000</f>
         <v>68.691999999999993</v>
       </c>
-      <c r="AJ12" s="64"/>
+      <c r="AJ12" s="57"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="45">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="29">
         <v>10</v>
       </c>
       <c r="I13" s="6">
@@ -2378,76 +2383,76 @@
       <c r="Z13" s="8">
         <v>3294</v>
       </c>
-      <c r="AB13" s="31" t="s">
+      <c r="AB13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="70">
+      <c r="AC13" s="58">
         <f>MAX(B39:B48)/1000</f>
         <v>558.12900000000002</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="72">
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="44">
         <f>MAX(C39:C48)/1000</f>
         <v>1048.039</v>
       </c>
-      <c r="AF13" s="72">
+      <c r="AF13" s="44">
         <f>MAX(D39:D48)/1000</f>
         <v>1165.692</v>
       </c>
-      <c r="AG13" s="72">
+      <c r="AG13" s="44">
         <f>MAX(E39:E48)/1000</f>
         <v>637.81200000000001</v>
       </c>
-      <c r="AH13" s="72">
+      <c r="AH13" s="44">
         <f>MAX(F39:F48)/1000</f>
         <v>484.60399999999998</v>
       </c>
-      <c r="AI13" s="70">
+      <c r="AI13" s="58">
         <f>MAX(G39:G48)/1000</f>
         <v>363.35300000000001</v>
       </c>
-      <c r="AJ13" s="73"/>
+      <c r="AJ13" s="60"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2471,47 +2476,47 @@
       <c r="G15" s="5">
         <v>15709</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="22" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="22" t="s">
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="22" t="s">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="22" t="s">
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="22" t="s">
+      <c r="V15" s="69"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AB15" s="22" t="s">
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70"/>
+      <c r="AB15" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="24"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="70"/>
     </row>
     <row r="16" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -2535,83 +2540,83 @@
       <c r="G16" s="5">
         <v>15732</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="V16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB16" s="21" t="s">
+      <c r="AB16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="36" t="s">
+      <c r="AC16" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37" t="s">
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF16" s="37" t="s">
+      <c r="AF16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AG16" s="37" t="s">
+      <c r="AG16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AH16" s="37" t="s">
+      <c r="AH16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AI16" s="36" t="s">
+      <c r="AI16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="62"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2635,7 +2640,7 @@
       <c r="G17" s="5">
         <v>15803</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="28">
         <v>1</v>
       </c>
       <c r="I17" s="11">
@@ -2692,35 +2697,35 @@
       <c r="Z17" s="14">
         <v>5255</v>
       </c>
-      <c r="AB17" s="50" t="s">
+      <c r="AB17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC17" s="61">
+      <c r="AC17" s="55">
         <f>MIN(B10:B19)/1000</f>
         <v>3.9849999999999999</v>
       </c>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="63">
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="38">
         <f>MIN(C10:C19)/1000</f>
         <v>7.2750000000000004</v>
       </c>
-      <c r="AF17" s="63">
+      <c r="AF17" s="38">
         <f>MIN(D10:D19)/1000</f>
         <v>8.8010000000000002</v>
       </c>
-      <c r="AG17" s="63">
+      <c r="AG17" s="38">
         <f>MIN(E10:E19)/1000</f>
         <v>3.9550000000000001</v>
       </c>
-      <c r="AH17" s="63">
+      <c r="AH17" s="38">
         <f>MIN(F10:F19)/1000</f>
         <v>4.282</v>
       </c>
-      <c r="AI17" s="61">
+      <c r="AI17" s="55">
         <f>MIN(G10:G19)/1000</f>
         <v>3.9319999999999999</v>
       </c>
-      <c r="AJ17" s="64"/>
+      <c r="AJ17" s="57"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2744,7 +2749,7 @@
       <c r="G18" s="5">
         <v>15800</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="28">
         <v>2</v>
       </c>
       <c r="I18" s="4">
@@ -2801,35 +2806,35 @@
       <c r="Z18" s="5">
         <v>6321</v>
       </c>
-      <c r="AB18" s="50" t="s">
+      <c r="AB18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC18" s="61">
+      <c r="AC18" s="55">
         <f>MIN(B22:B31)/1000</f>
         <v>15.654</v>
       </c>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="63">
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="38">
         <f>MIN(C22:C31)/1000</f>
         <v>30.356000000000002</v>
       </c>
-      <c r="AF18" s="63">
+      <c r="AF18" s="38">
         <f>MIN(D22:D31)/1000</f>
         <v>47.476999999999997</v>
       </c>
-      <c r="AG18" s="63">
+      <c r="AG18" s="38">
         <f>MIN(E22:E31)/1000</f>
         <v>15.968</v>
       </c>
-      <c r="AH18" s="63">
+      <c r="AH18" s="38">
         <f>MIN(F22:F31)/1000</f>
         <v>16.446000000000002</v>
       </c>
-      <c r="AI18" s="61">
+      <c r="AI18" s="55">
         <f>MIN(G22:G31)/1000</f>
         <v>15.887</v>
       </c>
-      <c r="AJ18" s="64"/>
+      <c r="AJ18" s="57"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2853,7 +2858,7 @@
       <c r="G19" s="5">
         <v>15737</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="29">
         <v>3</v>
       </c>
       <c r="I19" s="4">
@@ -2910,35 +2915,35 @@
       <c r="Z19" s="5">
         <v>8373</v>
       </c>
-      <c r="AB19" s="50" t="s">
+      <c r="AB19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="55">
         <f>MIN(B34:B43)/1000</f>
         <v>67.567999999999998</v>
       </c>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="63">
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="38">
         <f>MIN(C34:C43)/1000</f>
         <v>135.81800000000001</v>
       </c>
-      <c r="AF19" s="63">
+      <c r="AF19" s="38">
         <f>MIN(D34:D43)/1000</f>
         <v>201.02600000000001</v>
       </c>
-      <c r="AG19" s="63">
+      <c r="AG19" s="38">
         <f>MIN(E34:E43)/1000</f>
         <v>67.716999999999999</v>
       </c>
-      <c r="AH19" s="63">
+      <c r="AH19" s="38">
         <f>MIN(F34:F43)/1000</f>
         <v>67.584000000000003</v>
       </c>
-      <c r="AI19" s="61">
+      <c r="AI19" s="55">
         <f>MIN(G34:G43)/1000</f>
         <v>67.576999999999998</v>
       </c>
-      <c r="AJ19" s="64"/>
+      <c r="AJ19" s="57"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2962,7 +2967,7 @@
       <c r="G20" s="5">
         <v>15912</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="29">
         <v>4</v>
       </c>
       <c r="I20" s="4">
@@ -3019,35 +3024,35 @@
       <c r="Z20" s="5">
         <v>9642</v>
       </c>
-      <c r="AB20" s="31" t="s">
+      <c r="AB20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC20" s="70">
+      <c r="AC20" s="58">
         <f>MIN(B39:B48)/1000</f>
         <v>493.44799999999998</v>
       </c>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72">
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="44">
         <f>MIN(C39:C48)/1000</f>
         <v>541.42999999999995</v>
       </c>
-      <c r="AF20" s="72">
+      <c r="AF20" s="44">
         <f>MIN(D39:D48)/1000</f>
         <v>986.76</v>
       </c>
-      <c r="AG20" s="72">
+      <c r="AG20" s="44">
         <f>MIN(E39:E48)/1000</f>
         <v>382.10700000000003</v>
       </c>
-      <c r="AH20" s="72">
+      <c r="AH20" s="44">
         <f>MIN(F39:F48)/1000</f>
         <v>321.98</v>
       </c>
-      <c r="AI20" s="70">
+      <c r="AI20" s="58">
         <f>MIN(G39:G48)/1000</f>
         <v>322.16500000000002</v>
       </c>
-      <c r="AJ20" s="73"/>
+      <c r="AJ20" s="60"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -3071,7 +3076,7 @@
       <c r="G21" s="5">
         <v>15815</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="29">
         <v>5</v>
       </c>
       <c r="I21" s="4">
@@ -3151,7 +3156,7 @@
       <c r="G22" s="5">
         <v>15977</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="29">
         <v>6</v>
       </c>
       <c r="I22" s="4">
@@ -3208,27 +3213,27 @@
       <c r="Z22" s="5">
         <v>13918</v>
       </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AB22" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="27"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="54"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -3252,7 +3257,7 @@
       <c r="G23" s="5">
         <v>15896</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="29">
         <v>7</v>
       </c>
       <c r="I23" s="4">
@@ -3309,39 +3314,39 @@
       <c r="Z23" s="5">
         <v>9814</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AB23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC23" s="46" t="s">
+      <c r="AC23" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="46" t="s">
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="46" t="s">
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="46" t="s">
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="46" t="s">
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="46" t="s">
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="48"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="51"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -3365,7 +3370,7 @@
       <c r="G24" s="8">
         <v>15887</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="29">
         <v>8</v>
       </c>
       <c r="I24" s="4">
@@ -3422,73 +3427,73 @@
       <c r="Z24" s="5">
         <v>11597</v>
       </c>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="32" t="s">
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AD24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE24" s="35" t="s">
+      <c r="AE24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF24" s="32" t="s">
+      <c r="AF24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG24" s="33" t="s">
+      <c r="AG24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH24" s="35" t="s">
+      <c r="AH24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="32" t="s">
+      <c r="AI24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="AJ24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK24" s="35" t="s">
+      <c r="AK24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL24" s="32" t="s">
+      <c r="AL24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM24" s="33" t="s">
+      <c r="AM24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN24" s="35" t="s">
+      <c r="AN24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO24" s="32" t="s">
+      <c r="AO24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP24" s="33" t="s">
+      <c r="AP24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ24" s="35" t="s">
+      <c r="AQ24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR24" s="32" t="s">
+      <c r="AR24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS24" s="33" t="s">
+      <c r="AS24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT24" s="35" t="s">
+      <c r="AT24" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="45">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="29">
         <v>9</v>
       </c>
       <c r="I25" s="4">
@@ -3545,103 +3550,103 @@
       <c r="Z25" s="5">
         <v>4849</v>
       </c>
-      <c r="AB25" s="56" t="s">
+      <c r="AB25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC25" s="65">
-        <f>AVERAGE(I4:I13)/1000</f>
+      <c r="AC25" s="39">
+        <f t="shared" ref="AC25:AT25" si="0">AVERAGE(I4:I13)/1000</f>
         <v>4.0011000000000001</v>
       </c>
-      <c r="AD25" s="66">
-        <f>AVERAGE(J4:J13)/1000</f>
+      <c r="AD25" s="40">
+        <f t="shared" si="0"/>
         <v>4.0937000000000001</v>
       </c>
-      <c r="AE25" s="67">
-        <f>AVERAGE(K4:K13)/1000</f>
+      <c r="AE25" s="41">
+        <f t="shared" si="0"/>
         <v>1.6949000000000001</v>
       </c>
-      <c r="AF25" s="65">
-        <f>AVERAGE(L4:L13)/1000</f>
+      <c r="AF25" s="39">
+        <f t="shared" si="0"/>
         <v>1.5979000000000001</v>
       </c>
-      <c r="AG25" s="66">
-        <f>AVERAGE(M4:M13)/1000</f>
+      <c r="AG25" s="40">
+        <f t="shared" si="0"/>
         <v>2.6601999999999997</v>
       </c>
-      <c r="AH25" s="67">
-        <f>AVERAGE(N4:N13)/1000</f>
+      <c r="AH25" s="41">
+        <f t="shared" si="0"/>
         <v>1.3119000000000001</v>
       </c>
-      <c r="AI25" s="65">
-        <f>AVERAGE(O4:O13)/1000</f>
+      <c r="AI25" s="39">
+        <f t="shared" si="0"/>
         <v>3.7222</v>
       </c>
-      <c r="AJ25" s="66">
-        <f>AVERAGE(P4:P13)/1000</f>
+      <c r="AJ25" s="40">
+        <f t="shared" si="0"/>
         <v>4.2919999999999998</v>
       </c>
-      <c r="AK25" s="67">
-        <f>AVERAGE(Q4:Q13)/1000</f>
+      <c r="AK25" s="41">
+        <f t="shared" si="0"/>
         <v>2.1384000000000003</v>
       </c>
-      <c r="AL25" s="65">
-        <f>AVERAGE(R4:R13)/1000</f>
+      <c r="AL25" s="39">
+        <f t="shared" si="0"/>
         <v>3.5098000000000003</v>
       </c>
-      <c r="AM25" s="66">
-        <f>AVERAGE(S4:S13)/1000</f>
+      <c r="AM25" s="40">
+        <f t="shared" si="0"/>
         <v>3.2866999999999997</v>
       </c>
-      <c r="AN25" s="67">
-        <f>AVERAGE(T4:T13)/1000</f>
+      <c r="AN25" s="41">
+        <f t="shared" si="0"/>
         <v>1.3482000000000001</v>
       </c>
-      <c r="AO25" s="65">
-        <f>AVERAGE(U4:U13)/1000</f>
+      <c r="AO25" s="39">
+        <f t="shared" si="0"/>
         <v>3.9864000000000002</v>
       </c>
-      <c r="AP25" s="66">
-        <f>AVERAGE(V4:V13)/1000</f>
+      <c r="AP25" s="40">
+        <f t="shared" si="0"/>
         <v>3.8466999999999998</v>
       </c>
-      <c r="AQ25" s="67">
-        <f>AVERAGE(W4:W13)/1000</f>
+      <c r="AQ25" s="41">
+        <f t="shared" si="0"/>
         <v>1.8312999999999999</v>
       </c>
-      <c r="AR25" s="65">
-        <f>AVERAGE(X4:X13)/1000</f>
+      <c r="AR25" s="39">
+        <f t="shared" si="0"/>
         <v>3.7240000000000002</v>
       </c>
-      <c r="AS25" s="66">
-        <f>AVERAGE(Y4:Y13)/1000</f>
+      <c r="AS25" s="40">
+        <f t="shared" si="0"/>
         <v>3.4049999999999998</v>
       </c>
-      <c r="AT25" s="67">
-        <f>AVERAGE(Z4:Z13)/1000</f>
+      <c r="AT25" s="41">
+        <f t="shared" si="0"/>
         <v>2.5911999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="29">
         <v>10</v>
       </c>
       <c r="I26" s="6">
@@ -3698,79 +3703,79 @@
       <c r="Z26" s="8">
         <v>13873</v>
       </c>
-      <c r="AB26" s="56" t="s">
+      <c r="AB26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC26" s="68">
-        <f>AVERAGE(I17:I26)/1000</f>
+      <c r="AC26" s="42">
+        <f t="shared" ref="AC26:AT26" si="1">AVERAGE(I17:I26)/1000</f>
         <v>15.805299999999999</v>
       </c>
-      <c r="AD26" s="63">
-        <f>AVERAGE(J17:J26)/1000</f>
+      <c r="AD26" s="38">
+        <f t="shared" si="1"/>
         <v>14.4915</v>
       </c>
-      <c r="AE26" s="69">
-        <f>AVERAGE(K17:K26)/1000</f>
+      <c r="AE26" s="43">
+        <f t="shared" si="1"/>
         <v>5.0922999999999998</v>
       </c>
-      <c r="AF26" s="68">
-        <f>AVERAGE(L17:L26)/1000</f>
+      <c r="AF26" s="42">
+        <f t="shared" si="1"/>
         <v>8.1033999999999988</v>
       </c>
-      <c r="AG26" s="63">
-        <f>AVERAGE(M17:M26)/1000</f>
+      <c r="AG26" s="38">
+        <f t="shared" si="1"/>
         <v>9.1905999999999999</v>
       </c>
-      <c r="AH26" s="69">
-        <f>AVERAGE(N17:N26)/1000</f>
+      <c r="AH26" s="43">
+        <f t="shared" si="1"/>
         <v>5.9988999999999999</v>
       </c>
-      <c r="AI26" s="68">
-        <f>AVERAGE(O17:O26)/1000</f>
+      <c r="AI26" s="42">
+        <f t="shared" si="1"/>
         <v>14.723000000000001</v>
       </c>
-      <c r="AJ26" s="63">
-        <f>AVERAGE(P17:P26)/1000</f>
+      <c r="AJ26" s="38">
+        <f t="shared" si="1"/>
         <v>19.040599999999998</v>
       </c>
-      <c r="AK26" s="69">
-        <f>AVERAGE(Q17:Q26)/1000</f>
+      <c r="AK26" s="43">
+        <f t="shared" si="1"/>
         <v>10.3414</v>
       </c>
-      <c r="AL26" s="68">
-        <f>AVERAGE(R17:R26)/1000</f>
+      <c r="AL26" s="42">
+        <f t="shared" si="1"/>
         <v>13.542899999999999</v>
       </c>
-      <c r="AM26" s="63">
-        <f>AVERAGE(S17:S26)/1000</f>
+      <c r="AM26" s="38">
+        <f t="shared" si="1"/>
         <v>17.337799999999998</v>
       </c>
-      <c r="AN26" s="69">
-        <f>AVERAGE(T17:T26)/1000</f>
+      <c r="AN26" s="43">
+        <f t="shared" si="1"/>
         <v>5.9192999999999998</v>
       </c>
-      <c r="AO26" s="68">
-        <f>AVERAGE(U17:U26)/1000</f>
+      <c r="AO26" s="42">
+        <f t="shared" si="1"/>
         <v>15.882700000000002</v>
       </c>
-      <c r="AP26" s="63">
-        <f>AVERAGE(V17:V26)/1000</f>
+      <c r="AP26" s="38">
+        <f t="shared" si="1"/>
         <v>14.131399999999999</v>
       </c>
-      <c r="AQ26" s="69">
-        <f>AVERAGE(W17:W26)/1000</f>
+      <c r="AQ26" s="43">
+        <f t="shared" si="1"/>
         <v>5.1476999999999995</v>
       </c>
-      <c r="AR26" s="68">
-        <f>AVERAGE(X17:X26)/1000</f>
+      <c r="AR26" s="42">
+        <f t="shared" si="1"/>
         <v>14.918100000000001</v>
       </c>
-      <c r="AS26" s="63">
-        <f>AVERAGE(Y17:Y26)/1000</f>
+      <c r="AS26" s="38">
+        <f t="shared" si="1"/>
         <v>17.284400000000002</v>
       </c>
-      <c r="AT26" s="69">
-        <f>AVERAGE(Z17:Z26)/1000</f>
+      <c r="AT26" s="43">
+        <f t="shared" si="1"/>
         <v>9.3224</v>
       </c>
     </row>
@@ -3796,99 +3801,99 @@
       <c r="G27" s="5">
         <v>66625</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="43"/>
-      <c r="AB27" s="56" t="s">
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="73"/>
+      <c r="AB27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC27" s="68">
-        <f>AVERAGE(I30:I39)/1000</f>
+      <c r="AC27" s="42">
+        <f t="shared" ref="AC27:AT27" si="2">AVERAGE(I30:I39)/1000</f>
         <v>67.871200000000002</v>
       </c>
-      <c r="AD27" s="63">
-        <f>AVERAGE(J30:J39)/1000</f>
+      <c r="AD27" s="38">
+        <f t="shared" si="2"/>
         <v>64.128</v>
       </c>
-      <c r="AE27" s="69">
-        <f>AVERAGE(K30:K39)/1000</f>
+      <c r="AE27" s="43">
+        <f t="shared" si="2"/>
         <v>25.667000000000002</v>
       </c>
-      <c r="AF27" s="68">
-        <f>AVERAGE(L30:L39)/1000</f>
+      <c r="AF27" s="42">
+        <f t="shared" si="2"/>
         <v>41.885100000000001</v>
       </c>
-      <c r="AG27" s="63">
-        <f>AVERAGE(M30:M39)/1000</f>
+      <c r="AG27" s="38">
+        <f t="shared" si="2"/>
         <v>78.3125</v>
       </c>
-      <c r="AH27" s="69">
-        <f>AVERAGE(N30:N39)/1000</f>
+      <c r="AH27" s="43">
+        <f t="shared" si="2"/>
         <v>28.2013</v>
       </c>
-      <c r="AI27" s="68">
-        <f>AVERAGE(O30:O39)/1000</f>
+      <c r="AI27" s="42">
+        <f t="shared" si="2"/>
         <v>67.468399999999988</v>
       </c>
-      <c r="AJ27" s="63">
-        <f>AVERAGE(P30:P39)/1000</f>
+      <c r="AJ27" s="38">
+        <f t="shared" si="2"/>
         <v>71.296800000000005</v>
       </c>
-      <c r="AK27" s="69">
-        <f>AVERAGE(Q30:Q39)/1000</f>
+      <c r="AK27" s="43">
+        <f t="shared" si="2"/>
         <v>50.866</v>
       </c>
-      <c r="AL27" s="68">
-        <f>AVERAGE(R30:R39)/1000</f>
+      <c r="AL27" s="42">
+        <f t="shared" si="2"/>
         <v>58.244999999999997</v>
       </c>
-      <c r="AM27" s="63">
-        <f>AVERAGE(S30:S39)/1000</f>
+      <c r="AM27" s="38">
+        <f t="shared" si="2"/>
         <v>65.817300000000003</v>
       </c>
-      <c r="AN27" s="69">
-        <f>AVERAGE(T30:T39)/1000</f>
+      <c r="AN27" s="43">
+        <f t="shared" si="2"/>
         <v>29.448599999999999</v>
       </c>
-      <c r="AO27" s="68">
-        <f>AVERAGE(U30:U39)/1000</f>
+      <c r="AO27" s="42">
+        <f t="shared" si="2"/>
         <v>68.327300000000008</v>
       </c>
-      <c r="AP27" s="63">
-        <f>AVERAGE(V30:V39)/1000</f>
+      <c r="AP27" s="38">
+        <f t="shared" si="2"/>
         <v>46.220199999999998</v>
       </c>
-      <c r="AQ27" s="69">
-        <f>AVERAGE(W30:W39)/1000</f>
+      <c r="AQ27" s="43">
+        <f t="shared" si="2"/>
         <v>18.4193</v>
       </c>
-      <c r="AR27" s="68">
-        <f>AVERAGE(X30:X39)/1000</f>
+      <c r="AR27" s="42">
+        <f t="shared" si="2"/>
         <v>70.106800000000007</v>
       </c>
-      <c r="AS27" s="63">
-        <f>AVERAGE(Y30:Y39)/1000</f>
+      <c r="AS27" s="38">
+        <f t="shared" si="2"/>
         <v>72.821100000000001</v>
       </c>
-      <c r="AT27" s="69">
-        <f>AVERAGE(Z30:Z39)/1000</f>
+      <c r="AT27" s="43">
+        <f t="shared" si="2"/>
         <v>53.351099999999995</v>
       </c>
     </row>
@@ -3914,109 +3919,109 @@
       <c r="G28" s="5">
         <v>68411</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="22" t="s">
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="22" t="s">
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22" t="s">
+      <c r="P28" s="69"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="22" t="s">
+      <c r="S28" s="69"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="22" t="s">
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
-      <c r="AB28" s="57" t="s">
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70"/>
+      <c r="AB28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC28" s="74">
-        <f>AVERAGE(I43:I52)/1000</f>
+      <c r="AC28" s="45">
+        <f t="shared" ref="AC28:AT28" si="3">AVERAGE(I43:I52)/1000</f>
         <v>511.05270000000002</v>
       </c>
-      <c r="AD28" s="72">
-        <f>AVERAGE(J43:J52)/1000</f>
+      <c r="AD28" s="44">
+        <f t="shared" si="3"/>
         <v>372.98429999999996</v>
       </c>
-      <c r="AE28" s="75">
-        <f>AVERAGE(K43:K52)/1000</f>
+      <c r="AE28" s="46">
+        <f t="shared" si="3"/>
         <v>101.1593</v>
       </c>
-      <c r="AF28" s="74">
-        <f>AVERAGE(L43:L52)/1000</f>
+      <c r="AF28" s="45">
+        <f t="shared" si="3"/>
         <v>281.80470000000003</v>
       </c>
-      <c r="AG28" s="72">
-        <f>AVERAGE(M43:M52)/1000</f>
+      <c r="AG28" s="44">
+        <f t="shared" si="3"/>
         <v>530.21400000000006</v>
       </c>
-      <c r="AH28" s="75">
-        <f>AVERAGE(N43:N52)/1000</f>
+      <c r="AH28" s="46">
+        <f t="shared" si="3"/>
         <v>153.7749</v>
       </c>
-      <c r="AI28" s="74">
-        <f>AVERAGE(O43:O52)/1000</f>
+      <c r="AI28" s="45">
+        <f t="shared" si="3"/>
         <v>454.7405</v>
       </c>
-      <c r="AJ28" s="72">
-        <f>AVERAGE(P43:P52)/1000</f>
+      <c r="AJ28" s="44">
+        <f t="shared" si="3"/>
         <v>471.46679999999998</v>
       </c>
-      <c r="AK28" s="75">
-        <f>AVERAGE(Q43:Q52)/1000</f>
+      <c r="AK28" s="46">
+        <f t="shared" si="3"/>
         <v>323.86309999999997</v>
       </c>
-      <c r="AL28" s="74">
-        <f>AVERAGE(R43:R52)/1000</f>
+      <c r="AL28" s="45">
+        <f t="shared" si="3"/>
         <v>333.04740000000004</v>
       </c>
-      <c r="AM28" s="72">
-        <f>AVERAGE(S43:S52)/1000</f>
+      <c r="AM28" s="44">
+        <f t="shared" si="3"/>
         <v>324.94579999999996</v>
       </c>
-      <c r="AN28" s="75">
-        <f>AVERAGE(T43:T52)/1000</f>
+      <c r="AN28" s="46">
+        <f t="shared" si="3"/>
         <v>65.254000000000005</v>
       </c>
-      <c r="AO28" s="74">
-        <f>AVERAGE(U43:U52)/1000</f>
+      <c r="AO28" s="45">
+        <f t="shared" si="3"/>
         <v>358.57279999999997</v>
       </c>
-      <c r="AP28" s="72">
-        <f>AVERAGE(V43:V52)/1000</f>
+      <c r="AP28" s="44">
+        <f t="shared" si="3"/>
         <v>352.35129999999998</v>
       </c>
-      <c r="AQ28" s="75">
-        <f>AVERAGE(W43:W52)/1000</f>
+      <c r="AQ28" s="46">
+        <f t="shared" si="3"/>
         <v>78.155799999999999</v>
       </c>
-      <c r="AR28" s="74">
-        <f>AVERAGE(X43:X52)/1000</f>
+      <c r="AR28" s="45">
+        <f t="shared" si="3"/>
         <v>342.9083</v>
       </c>
-      <c r="AS28" s="72">
-        <f>AVERAGE(Y43:Y52)/1000</f>
+      <c r="AS28" s="44">
+        <f t="shared" si="3"/>
         <v>345.92790000000002</v>
       </c>
-      <c r="AT28" s="75">
-        <f>AVERAGE(Z43:Z52)/1000</f>
+      <c r="AT28" s="46">
+        <f t="shared" si="3"/>
         <v>237.7971</v>
       </c>
     </row>
@@ -4042,58 +4047,58 @@
       <c r="G29" s="5">
         <v>68321</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="35" t="s">
+      <c r="Q29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="33" t="s">
+      <c r="S29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="35" t="s">
+      <c r="T29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="33" t="s">
+      <c r="V29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W29" s="35" t="s">
+      <c r="W29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="32" t="s">
+      <c r="X29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="33" t="s">
+      <c r="Y29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z29" s="35" t="s">
+      <c r="Z29" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4119,7 +4124,7 @@
       <c r="G30" s="5">
         <v>68692</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="28">
         <v>1</v>
       </c>
       <c r="I30" s="11">
@@ -4199,7 +4204,7 @@
       <c r="G31" s="5">
         <v>67662</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="28">
         <v>2</v>
       </c>
       <c r="I31" s="4">
@@ -4256,27 +4261,27 @@
       <c r="Z31" s="5">
         <v>60631</v>
       </c>
-      <c r="AB31" s="25" t="s">
+      <c r="AB31" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="27"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="54"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -4300,7 +4305,7 @@
       <c r="G32" s="5">
         <v>68082</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="29">
         <v>3</v>
       </c>
       <c r="I32" s="4">
@@ -4357,39 +4362,39 @@
       <c r="Z32" s="5">
         <v>42126</v>
       </c>
-      <c r="AB32" s="17" t="s">
+      <c r="AB32" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC32" s="46" t="s">
+      <c r="AC32" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="46" t="s">
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="46" t="s">
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="46" t="s">
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="46" t="s">
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="46" t="s">
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="48"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="51"/>
     </row>
     <row r="33" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -4413,7 +4418,7 @@
       <c r="G33" s="5">
         <v>66823</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="29">
         <v>4</v>
       </c>
       <c r="I33" s="4">
@@ -4470,59 +4475,59 @@
       <c r="Z33" s="5">
         <v>57126</v>
       </c>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="32" t="s">
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD33" s="33" t="s">
+      <c r="AD33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE33" s="35" t="s">
+      <c r="AE33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF33" s="32" t="s">
+      <c r="AF33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG33" s="33" t="s">
+      <c r="AG33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH33" s="35" t="s">
+      <c r="AH33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI33" s="32" t="s">
+      <c r="AI33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ33" s="33" t="s">
+      <c r="AJ33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK33" s="35" t="s">
+      <c r="AK33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL33" s="32" t="s">
+      <c r="AL33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM33" s="33" t="s">
+      <c r="AM33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN33" s="35" t="s">
+      <c r="AN33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO33" s="32" t="s">
+      <c r="AO33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP33" s="33" t="s">
+      <c r="AP33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="35" t="s">
+      <c r="AQ33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR33" s="32" t="s">
+      <c r="AR33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS33" s="33" t="s">
+      <c r="AS33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT33" s="35" t="s">
+      <c r="AT33" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4548,7 +4553,7 @@
       <c r="G34" s="5">
         <v>67577</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="29">
         <v>5</v>
       </c>
       <c r="I34" s="4">
@@ -4605,79 +4610,79 @@
       <c r="Z34" s="5">
         <v>63671</v>
       </c>
-      <c r="AB34" s="56" t="s">
+      <c r="AB34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC34" s="65">
-        <f>MAX(I4:I13)/1000</f>
+      <c r="AC34" s="39">
+        <f t="shared" ref="AC34:AT34" si="4">MAX(I4:I13)/1000</f>
         <v>4.1180000000000003</v>
       </c>
-      <c r="AD34" s="66">
-        <f>MAX(J4:J13)/1000</f>
+      <c r="AD34" s="40">
+        <f t="shared" si="4"/>
         <v>7.39</v>
       </c>
-      <c r="AE34" s="67">
-        <f>MAX(K4:K13)/1000</f>
+      <c r="AE34" s="41">
+        <f t="shared" si="4"/>
         <v>3.2040000000000002</v>
       </c>
-      <c r="AF34" s="65">
-        <f>MAX(L4:L13)/1000</f>
+      <c r="AF34" s="39">
+        <f t="shared" si="4"/>
         <v>2.2690000000000001</v>
       </c>
-      <c r="AG34" s="66">
-        <f>MAX(M4:M13)/1000</f>
+      <c r="AG34" s="40">
+        <f t="shared" si="4"/>
         <v>6.8869999999999996</v>
       </c>
-      <c r="AH34" s="67">
-        <f>MAX(N4:N13)/1000</f>
+      <c r="AH34" s="41">
+        <f t="shared" si="4"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="AI34" s="65">
-        <f>MAX(O4:O13)/1000</f>
+      <c r="AI34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0570000000000004</v>
       </c>
-      <c r="AJ34" s="66">
-        <f>MAX(P4:P13)/1000</f>
+      <c r="AJ34" s="40">
+        <f t="shared" si="4"/>
         <v>6.7560000000000002</v>
       </c>
-      <c r="AK34" s="67">
-        <f>MAX(Q4:Q13)/1000</f>
+      <c r="AK34" s="41">
+        <f t="shared" si="4"/>
         <v>3.1539999999999999</v>
       </c>
-      <c r="AL34" s="65">
-        <f>MAX(R4:R13)/1000</f>
+      <c r="AL34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0060000000000002</v>
       </c>
-      <c r="AM34" s="66">
-        <f>MAX(S4:S13)/1000</f>
+      <c r="AM34" s="40">
+        <f t="shared" si="4"/>
         <v>6.6340000000000003</v>
       </c>
-      <c r="AN34" s="67">
-        <f>MAX(T4:T13)/1000</f>
+      <c r="AN34" s="41">
+        <f t="shared" si="4"/>
         <v>2.681</v>
       </c>
-      <c r="AO34" s="65">
-        <f>MAX(U4:U13)/1000</f>
+      <c r="AO34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0910000000000002</v>
       </c>
-      <c r="AP34" s="66">
-        <f>MAX(V4:V13)/1000</f>
+      <c r="AP34" s="40">
+        <f t="shared" si="4"/>
         <v>5.0990000000000002</v>
       </c>
-      <c r="AQ34" s="67">
-        <f>MAX(W4:W13)/1000</f>
+      <c r="AQ34" s="41">
+        <f t="shared" si="4"/>
         <v>3.5880000000000001</v>
       </c>
-      <c r="AR34" s="65">
-        <f>MAX(X4:X13)/1000</f>
+      <c r="AR34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0979999999999999</v>
       </c>
-      <c r="AS34" s="66">
-        <f>MAX(Y4:Y13)/1000</f>
+      <c r="AS34" s="40">
+        <f t="shared" si="4"/>
         <v>6.4219999999999997</v>
       </c>
-      <c r="AT34" s="67">
-        <f>MAX(Z4:Z13)/1000</f>
+      <c r="AT34" s="41">
+        <f t="shared" si="4"/>
         <v>3.742</v>
       </c>
     </row>
@@ -4703,7 +4708,7 @@
       <c r="G35" s="5">
         <v>67966</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="29">
         <v>6</v>
       </c>
       <c r="I35" s="4">
@@ -4760,79 +4765,79 @@
       <c r="Z35" s="5">
         <v>63058</v>
       </c>
-      <c r="AB35" s="56" t="s">
+      <c r="AB35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC35" s="68">
-        <f>MAX(I17:I26)/1000</f>
+      <c r="AC35" s="42">
+        <f t="shared" ref="AC35:AM35" si="5">MAX(I17:I26)/1000</f>
         <v>15.968</v>
       </c>
-      <c r="AD35" s="63">
-        <f>MAX(J17:J26)/1000</f>
+      <c r="AD35" s="38">
+        <f t="shared" si="5"/>
         <v>27.783999999999999</v>
       </c>
-      <c r="AE35" s="69">
-        <f>MAX(K17:K26)/1000</f>
+      <c r="AE35" s="43">
+        <f t="shared" si="5"/>
         <v>10.343999999999999</v>
       </c>
-      <c r="AF35" s="68">
-        <f>MAX(L17:L26)/1000</f>
+      <c r="AF35" s="42">
+        <f t="shared" si="5"/>
         <v>15.909000000000001</v>
       </c>
-      <c r="AG35" s="63">
-        <f>MAX(M17:M26)/1000</f>
+      <c r="AG35" s="38">
+        <f t="shared" si="5"/>
         <v>16.792999999999999</v>
       </c>
-      <c r="AH35" s="69">
-        <f>MAX(N17:N26)/1000</f>
+      <c r="AH35" s="43">
+        <f t="shared" si="5"/>
         <v>13.157999999999999</v>
       </c>
-      <c r="AI35" s="68">
-        <f>MAX(O17:O26)/1000</f>
+      <c r="AI35" s="42">
+        <f t="shared" si="5"/>
         <v>16.018000000000001</v>
       </c>
-      <c r="AJ35" s="63">
-        <f>MAX(P17:P26)/1000</f>
+      <c r="AJ35" s="38">
+        <f t="shared" si="5"/>
         <v>27.795999999999999</v>
       </c>
-      <c r="AK35" s="69">
-        <f>MAX(Q17:Q26)/1000</f>
+      <c r="AK35" s="43">
+        <f t="shared" si="5"/>
         <v>14.162000000000001</v>
       </c>
-      <c r="AL35" s="68">
-        <f>MAX(R17:R26)/1000</f>
+      <c r="AL35" s="42">
+        <f t="shared" si="5"/>
         <v>16.074000000000002</v>
       </c>
-      <c r="AM35" s="63">
-        <f>MAX(S17:S26)/1000</f>
+      <c r="AM35" s="38">
+        <f t="shared" si="5"/>
         <v>25.073</v>
       </c>
-      <c r="AN35" s="69">
+      <c r="AN35" s="43">
         <f>MAX(T30:T39)/1000</f>
         <v>41.15</v>
       </c>
-      <c r="AO35" s="68">
-        <f>MAX(U17:U26)/1000</f>
+      <c r="AO35" s="42">
+        <f t="shared" ref="AO35:AT35" si="6">MAX(U17:U26)/1000</f>
         <v>16.178999999999998</v>
       </c>
-      <c r="AP35" s="63">
-        <f>MAX(V17:V26)/1000</f>
+      <c r="AP35" s="38">
+        <f t="shared" si="6"/>
         <v>19.353999999999999</v>
       </c>
-      <c r="AQ35" s="69">
-        <f>MAX(W17:W26)/1000</f>
+      <c r="AQ35" s="43">
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="AR35" s="68">
-        <f>MAX(X17:X26)/1000</f>
+      <c r="AR35" s="42">
+        <f t="shared" si="6"/>
         <v>15.968</v>
       </c>
-      <c r="AS35" s="63">
-        <f>MAX(Y17:Y26)/1000</f>
+      <c r="AS35" s="38">
+        <f t="shared" si="6"/>
         <v>27.411000000000001</v>
       </c>
-      <c r="AT35" s="69">
-        <f>MAX(Z17:Z26)/1000</f>
+      <c r="AT35" s="43">
+        <f t="shared" si="6"/>
         <v>13.917999999999999</v>
       </c>
     </row>
@@ -4858,7 +4863,7 @@
       <c r="G36" s="16">
         <v>68302</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="29">
         <v>7</v>
       </c>
       <c r="I36" s="4">
@@ -4915,93 +4920,93 @@
       <c r="Z36" s="5">
         <v>55593</v>
       </c>
-      <c r="AB36" s="56" t="s">
+      <c r="AB36" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC36" s="68">
-        <f>MAX(I30:I39)/1000</f>
+      <c r="AC36" s="42">
+        <f t="shared" ref="AC36:AT36" si="7">MAX(I30:I39)/1000</f>
         <v>70.807000000000002</v>
       </c>
-      <c r="AD36" s="63">
-        <f>MAX(J30:J39)/1000</f>
+      <c r="AD36" s="38">
+        <f t="shared" si="7"/>
         <v>113.039</v>
       </c>
-      <c r="AE36" s="69">
-        <f>MAX(K30:K39)/1000</f>
+      <c r="AE36" s="43">
+        <f t="shared" si="7"/>
         <v>45.832999999999998</v>
       </c>
-      <c r="AF36" s="68">
-        <f>MAX(L30:L39)/1000</f>
+      <c r="AF36" s="42">
+        <f t="shared" si="7"/>
         <v>64.152000000000001</v>
       </c>
-      <c r="AG36" s="63">
-        <f>MAX(M30:M39)/1000</f>
+      <c r="AG36" s="38">
+        <f t="shared" si="7"/>
         <v>112.97799999999999</v>
       </c>
-      <c r="AH36" s="69">
-        <f>MAX(N30:N39)/1000</f>
+      <c r="AH36" s="43">
+        <f t="shared" si="7"/>
         <v>47.17</v>
       </c>
-      <c r="AI36" s="68">
-        <f>MAX(O30:O39)/1000</f>
+      <c r="AI36" s="42">
+        <f t="shared" si="7"/>
         <v>72.078999999999994</v>
       </c>
-      <c r="AJ36" s="63">
-        <f>MAX(P30:P39)/1000</f>
+      <c r="AJ36" s="38">
+        <f t="shared" si="7"/>
         <v>103.685</v>
       </c>
-      <c r="AK36" s="69">
-        <f>MAX(Q30:Q39)/1000</f>
+      <c r="AK36" s="43">
+        <f t="shared" si="7"/>
         <v>60.215000000000003</v>
       </c>
-      <c r="AL36" s="68">
-        <f>MAX(R30:R39)/1000</f>
+      <c r="AL36" s="42">
+        <f t="shared" si="7"/>
         <v>67.706000000000003</v>
       </c>
-      <c r="AM36" s="63">
-        <f>MAX(S30:S39)/1000</f>
+      <c r="AM36" s="38">
+        <f t="shared" si="7"/>
         <v>87.89</v>
       </c>
-      <c r="AN36" s="69">
-        <f>MAX(T30:T39)/1000</f>
+      <c r="AN36" s="43">
+        <f t="shared" si="7"/>
         <v>41.15</v>
       </c>
-      <c r="AO36" s="68">
-        <f>MAX(U30:U39)/1000</f>
+      <c r="AO36" s="42">
+        <f t="shared" si="7"/>
         <v>76.887</v>
       </c>
-      <c r="AP36" s="63">
-        <f>MAX(V30:V39)/1000</f>
+      <c r="AP36" s="38">
+        <f t="shared" si="7"/>
         <v>101.122</v>
       </c>
-      <c r="AQ36" s="69">
-        <f>MAX(W30:W39)/1000</f>
+      <c r="AQ36" s="43">
+        <f t="shared" si="7"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="AR36" s="68">
-        <f>MAX(X30:X39)/1000</f>
+      <c r="AR36" s="42">
+        <f t="shared" si="7"/>
         <v>77.64</v>
       </c>
-      <c r="AS36" s="63">
-        <f>MAX(Y30:Y39)/1000</f>
+      <c r="AS36" s="38">
+        <f t="shared" si="7"/>
         <v>94.795000000000002</v>
       </c>
-      <c r="AT36" s="69">
-        <f>MAX(Z30:Z39)/1000</f>
+      <c r="AT36" s="43">
+        <f t="shared" si="7"/>
         <v>67.343999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="45">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="29">
         <v>8</v>
       </c>
       <c r="I37" s="4">
@@ -5058,103 +5063,103 @@
       <c r="Z37" s="5">
         <v>40990</v>
       </c>
-      <c r="AB37" s="57" t="s">
+      <c r="AB37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC37" s="74">
-        <f>MAX(I43:I52)/1000</f>
+      <c r="AC37" s="45">
+        <f t="shared" ref="AC37:AT37" si="8">MAX(I43:I52)/1000</f>
         <v>528.05600000000004</v>
       </c>
-      <c r="AD37" s="72">
-        <f>MAX(J43:J52)/1000</f>
+      <c r="AD37" s="44">
+        <f t="shared" si="8"/>
         <v>546.03800000000001</v>
       </c>
-      <c r="AE37" s="75">
-        <f>MAX(K43:K52)/1000</f>
+      <c r="AE37" s="46">
+        <f t="shared" si="8"/>
         <v>306.303</v>
       </c>
-      <c r="AF37" s="74">
-        <f>MAX(L43:L52)/1000</f>
+      <c r="AF37" s="45">
+        <f t="shared" si="8"/>
         <v>584.673</v>
       </c>
-      <c r="AG37" s="72">
-        <f>MAX(M43:M52)/1000</f>
+      <c r="AG37" s="44">
+        <f t="shared" si="8"/>
         <v>998.52499999999998</v>
       </c>
-      <c r="AH37" s="75">
-        <f>MAX(N43:N52)/1000</f>
+      <c r="AH37" s="46">
+        <f t="shared" si="8"/>
         <v>322.39400000000001</v>
       </c>
-      <c r="AI37" s="74">
-        <f>MAX(O43:O52)/1000</f>
+      <c r="AI37" s="45">
+        <f t="shared" si="8"/>
         <v>604.14099999999996</v>
       </c>
-      <c r="AJ37" s="72">
-        <f>MAX(P43:P52)/1000</f>
+      <c r="AJ37" s="44">
+        <f t="shared" si="8"/>
         <v>969.90899999999999</v>
       </c>
-      <c r="AK37" s="75">
-        <f>MAX(Q43:Q52)/1000</f>
+      <c r="AK37" s="46">
+        <f t="shared" si="8"/>
         <v>445.60599999999999</v>
       </c>
-      <c r="AL37" s="74">
-        <f>MAX(R43:R52)/1000</f>
+      <c r="AL37" s="45">
+        <f t="shared" si="8"/>
         <v>509.20800000000003</v>
       </c>
-      <c r="AM37" s="72">
-        <f>MAX(S43:S52)/1000</f>
+      <c r="AM37" s="44">
+        <f t="shared" si="8"/>
         <v>592.94000000000005</v>
       </c>
-      <c r="AN37" s="75">
-        <f>MAX(T43:T52)/1000</f>
+      <c r="AN37" s="46">
+        <f t="shared" si="8"/>
         <v>139.815</v>
       </c>
-      <c r="AO37" s="74">
-        <f>MAX(U43:U52)/1000</f>
+      <c r="AO37" s="45">
+        <f t="shared" si="8"/>
         <v>445.74099999999999</v>
       </c>
-      <c r="AP37" s="72">
-        <f>MAX(V43:V52)/1000</f>
+      <c r="AP37" s="44">
+        <f t="shared" si="8"/>
         <v>679.75800000000004</v>
       </c>
-      <c r="AQ37" s="75">
-        <f>MAX(W43:W52)/1000</f>
+      <c r="AQ37" s="46">
+        <f t="shared" si="8"/>
         <v>173.15700000000001</v>
       </c>
-      <c r="AR37" s="74">
-        <f>MAX(X43:X52)/1000</f>
+      <c r="AR37" s="45">
+        <f t="shared" si="8"/>
         <v>426.44499999999999</v>
       </c>
-      <c r="AS37" s="72">
-        <f>MAX(Y43:Y52)/1000</f>
+      <c r="AS37" s="44">
+        <f t="shared" si="8"/>
         <v>578.18700000000001</v>
       </c>
-      <c r="AT37" s="75">
-        <f>MAX(Z43:Z52)/1000</f>
+      <c r="AT37" s="46">
+        <f t="shared" si="8"/>
         <v>307.82</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="29">
         <v>9</v>
       </c>
       <c r="I38" s="4">
@@ -5234,7 +5239,7 @@
       <c r="G39" s="1">
         <v>328391</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="29">
         <v>10</v>
       </c>
       <c r="I39" s="6">
@@ -5291,27 +5296,27 @@
       <c r="Z39" s="8">
         <v>67344</v>
       </c>
-      <c r="AB39" s="25" t="s">
+      <c r="AB39" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="27"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="54"/>
     </row>
     <row r="40" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -5335,59 +5340,59 @@
       <c r="G40" s="1">
         <v>326216</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="I40" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="43"/>
-      <c r="AB40" s="17" t="s">
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="73"/>
+      <c r="AB40" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC40" s="46" t="s">
+      <c r="AC40" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="46" t="s">
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="46" t="s">
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="48"/>
-      <c r="AL40" s="46" t="s">
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="46" t="s">
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="46" t="s">
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="48"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="51"/>
     </row>
     <row r="41" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -5411,89 +5416,89 @@
       <c r="G41" s="1">
         <v>327974</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="22" t="s">
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="22" t="s">
+      <c r="M41" s="69"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="58" t="s">
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="23"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="22" t="s">
+      <c r="S41" s="69"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="23"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="22" t="s">
+      <c r="V41" s="69"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="24"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="32" t="s">
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="70"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD41" s="33" t="s">
+      <c r="AD41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE41" s="35" t="s">
+      <c r="AE41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF41" s="32" t="s">
+      <c r="AF41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG41" s="33" t="s">
+      <c r="AG41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH41" s="35" t="s">
+      <c r="AH41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI41" s="32" t="s">
+      <c r="AI41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ41" s="33" t="s">
+      <c r="AJ41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK41" s="35" t="s">
+      <c r="AK41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL41" s="32" t="s">
+      <c r="AL41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM41" s="33" t="s">
+      <c r="AM41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN41" s="35" t="s">
+      <c r="AN41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO41" s="32" t="s">
+      <c r="AO41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP41" s="33" t="s">
+      <c r="AP41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ41" s="35" t="s">
+      <c r="AQ41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR41" s="32" t="s">
+      <c r="AR41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS41" s="33" t="s">
+      <c r="AS41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT41" s="35" t="s">
+      <c r="AT41" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5519,133 +5524,133 @@
       <c r="G42" s="1">
         <v>328477</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="O42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="59" t="s">
+      <c r="R42" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="33" t="s">
+      <c r="S42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="35" t="s">
+      <c r="T42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U42" s="32" t="s">
+      <c r="U42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="33" t="s">
+      <c r="V42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="35" t="s">
+      <c r="W42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X42" s="32" t="s">
+      <c r="X42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y42" s="33" t="s">
+      <c r="Y42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="35" t="s">
+      <c r="Z42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB42" s="56" t="s">
+      <c r="AB42" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC42" s="65">
+      <c r="AC42" s="39">
         <f>MIN(I12:I21)/1000</f>
         <v>4.0110000000000001</v>
       </c>
-      <c r="AD42" s="66">
+      <c r="AD42" s="40">
         <f>MIN(J12:J21)/1000</f>
         <v>4.5430000000000001</v>
       </c>
-      <c r="AE42" s="67">
+      <c r="AE42" s="41">
         <f>MIN(K4:K13)/1000</f>
         <v>0.66600000000000004</v>
       </c>
-      <c r="AF42" s="65">
-        <f>MIN(L12:L21)/1000</f>
+      <c r="AF42" s="39">
+        <f t="shared" ref="AF42:AT42" si="9">MIN(L12:L21)/1000</f>
         <v>1.3240000000000001</v>
       </c>
-      <c r="AG42" s="66">
-        <f>MIN(M12:M21)/1000</f>
+      <c r="AG42" s="40">
+        <f t="shared" si="9"/>
         <v>1.206</v>
       </c>
-      <c r="AH42" s="67">
-        <f>MIN(N12:N21)/1000</f>
+      <c r="AH42" s="41">
+        <f t="shared" si="9"/>
         <v>1.2130000000000001</v>
       </c>
-      <c r="AI42" s="65">
-        <f>MIN(O12:O21)/1000</f>
+      <c r="AI42" s="39">
+        <f t="shared" si="9"/>
         <v>3.4910000000000001</v>
       </c>
-      <c r="AJ42" s="66">
-        <f>MIN(P12:P21)/1000</f>
+      <c r="AJ42" s="40">
+        <f t="shared" si="9"/>
         <v>3.0289999999999999</v>
       </c>
-      <c r="AK42" s="67">
-        <f>MIN(Q12:Q21)/1000</f>
+      <c r="AK42" s="41">
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
-      <c r="AL42" s="65">
-        <f>MIN(R12:R21)/1000</f>
+      <c r="AL42" s="39">
+        <f t="shared" si="9"/>
         <v>3.5750000000000002</v>
       </c>
-      <c r="AM42" s="66">
-        <f>MIN(S12:S21)/1000</f>
+      <c r="AM42" s="40">
+        <f t="shared" si="9"/>
         <v>2.1080000000000001</v>
       </c>
-      <c r="AN42" s="67">
-        <f>MIN(T12:T21)/1000</f>
+      <c r="AN42" s="41">
+        <f t="shared" si="9"/>
         <v>2.06</v>
       </c>
-      <c r="AO42" s="65">
-        <f>MIN(U12:U21)/1000</f>
+      <c r="AO42" s="39">
+        <f t="shared" si="9"/>
         <v>3.9359999999999999</v>
       </c>
-      <c r="AP42" s="66">
-        <f>MIN(V12:V21)/1000</f>
+      <c r="AP42" s="40">
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
-      <c r="AQ42" s="67">
-        <f>MIN(W12:W21)/1000</f>
+      <c r="AQ42" s="41">
+        <f t="shared" si="9"/>
         <v>1.2689999999999999</v>
       </c>
-      <c r="AR42" s="65">
-        <f>MIN(X12:X21)/1000</f>
+      <c r="AR42" s="39">
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AS42" s="66">
-        <f>MIN(Y12:Y21)/1000</f>
+      <c r="AS42" s="40">
+        <f t="shared" si="9"/>
         <v>1.663</v>
       </c>
-      <c r="AT42" s="67">
-        <f>MIN(Z12:Z21)/1000</f>
+      <c r="AT42" s="41">
+        <f t="shared" si="9"/>
         <v>1.7969999999999999</v>
       </c>
     </row>
@@ -5671,7 +5676,7 @@
       <c r="G43" s="1">
         <v>327272</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="28">
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -5701,7 +5706,7 @@
       <c r="Q43" s="14">
         <v>164958</v>
       </c>
-      <c r="R43" s="60">
+      <c r="R43" s="37">
         <v>205360</v>
       </c>
       <c r="S43" s="12">
@@ -5728,79 +5733,79 @@
       <c r="Z43" s="14">
         <v>170477</v>
       </c>
-      <c r="AB43" s="56" t="s">
+      <c r="AB43" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC43" s="68">
-        <f>MIN(I25:I34)/1000</f>
+      <c r="AC43" s="42">
+        <f t="shared" ref="AC43:AM43" si="10">MIN(I25:I34)/1000</f>
         <v>15.802</v>
       </c>
-      <c r="AD43" s="63">
-        <f>MIN(J25:J34)/1000</f>
+      <c r="AD43" s="38">
+        <f t="shared" si="10"/>
         <v>5.2560000000000002</v>
       </c>
-      <c r="AE43" s="69">
-        <f>MIN(K25:K34)/1000</f>
+      <c r="AE43" s="43">
+        <f t="shared" si="10"/>
         <v>1.7549999999999999</v>
       </c>
-      <c r="AF43" s="68">
-        <f>MIN(L25:L34)/1000</f>
+      <c r="AF43" s="42">
+        <f t="shared" si="10"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="AG43" s="63">
-        <f>MIN(M25:M34)/1000</f>
+      <c r="AG43" s="38">
+        <f t="shared" si="10"/>
         <v>3.7919999999999998</v>
       </c>
-      <c r="AH43" s="69">
-        <f>MIN(N25:N34)/1000</f>
+      <c r="AH43" s="43">
+        <f t="shared" si="10"/>
         <v>3.827</v>
       </c>
-      <c r="AI43" s="68">
-        <f>MIN(O25:O34)/1000</f>
+      <c r="AI43" s="42">
+        <f t="shared" si="10"/>
         <v>13.446999999999999</v>
       </c>
-      <c r="AJ43" s="63">
-        <f>MIN(P25:P34)/1000</f>
+      <c r="AJ43" s="38">
+        <f t="shared" si="10"/>
         <v>12.07</v>
       </c>
-      <c r="AK43" s="69">
-        <f>MIN(Q25:Q34)/1000</f>
+      <c r="AK43" s="43">
+        <f t="shared" si="10"/>
         <v>8.9139999999999997</v>
       </c>
-      <c r="AL43" s="68">
-        <f>MIN(R25:R34)/1000</f>
+      <c r="AL43" s="42">
+        <f t="shared" si="10"/>
         <v>15.477</v>
       </c>
-      <c r="AM43" s="63">
-        <f>MIN(S25:S34)/1000</f>
+      <c r="AM43" s="38">
+        <f t="shared" si="10"/>
         <v>13.409000000000001</v>
       </c>
-      <c r="AN43" s="69">
+      <c r="AN43" s="43">
         <f>MAX(W25:W34)/1000</f>
         <v>29.963999999999999</v>
       </c>
-      <c r="AO43" s="68">
-        <f>MIN(U25:U34)/1000</f>
+      <c r="AO43" s="42">
+        <f t="shared" ref="AO43:AT43" si="11">MIN(U25:U34)/1000</f>
         <v>15.8</v>
       </c>
-      <c r="AP43" s="63">
-        <f>MIN(V25:V34)/1000</f>
+      <c r="AP43" s="38">
+        <f t="shared" si="11"/>
         <v>6.0039999999999996</v>
       </c>
-      <c r="AQ43" s="69">
-        <f>MIN(W25:W34)/1000</f>
+      <c r="AQ43" s="43">
+        <f t="shared" si="11"/>
         <v>4.17</v>
       </c>
-      <c r="AR43" s="68">
-        <f>MIN(X25:X34)/1000</f>
+      <c r="AR43" s="42">
+        <f t="shared" si="11"/>
         <v>15.938000000000001</v>
       </c>
-      <c r="AS43" s="63">
-        <f>MIN(Y25:Y34)/1000</f>
+      <c r="AS43" s="38">
+        <f t="shared" si="11"/>
         <v>17.378</v>
       </c>
-      <c r="AT43" s="69">
-        <f>MIN(Z25:Z34)/1000</f>
+      <c r="AT43" s="43">
+        <f t="shared" si="11"/>
         <v>4.8490000000000002</v>
       </c>
     </row>
@@ -5826,7 +5831,7 @@
       <c r="G44" s="1">
         <v>333759</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="28">
         <v>2</v>
       </c>
       <c r="I44" s="4">
@@ -5856,7 +5861,7 @@
       <c r="Q44" s="5">
         <v>343875</v>
       </c>
-      <c r="R44" s="28">
+      <c r="R44" s="20">
         <v>328497</v>
       </c>
       <c r="S44" s="1">
@@ -5883,79 +5888,79 @@
       <c r="Z44" s="5">
         <v>195367</v>
       </c>
-      <c r="AB44" s="56" t="s">
+      <c r="AB44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC44" s="68">
-        <f>MIN(I38:I47)/1000</f>
+      <c r="AC44" s="42">
+        <f t="shared" ref="AC44:AM44" si="12">MIN(I38:I47)/1000</f>
         <v>67.781000000000006</v>
       </c>
-      <c r="AD44" s="63">
-        <f>MIN(J38:J47)/1000</f>
+      <c r="AD44" s="38">
+        <f t="shared" si="12"/>
         <v>62.756999999999998</v>
       </c>
-      <c r="AE44" s="69">
-        <f>MIN(K38:K47)/1000</f>
+      <c r="AE44" s="43">
+        <f t="shared" si="12"/>
         <v>32.820999999999998</v>
       </c>
-      <c r="AF44" s="68">
-        <f>MIN(L38:L47)/1000</f>
+      <c r="AF44" s="42">
+        <f t="shared" si="12"/>
         <v>26.562000000000001</v>
       </c>
-      <c r="AG44" s="63">
-        <f>MIN(M38:M47)/1000</f>
+      <c r="AG44" s="38">
+        <f t="shared" si="12"/>
         <v>83.39</v>
       </c>
-      <c r="AH44" s="69">
-        <f>MIN(N38:N47)/1000</f>
+      <c r="AH44" s="43">
+        <f t="shared" si="12"/>
         <v>15.092000000000001</v>
       </c>
-      <c r="AI44" s="68">
-        <f>MIN(O38:O47)/1000</f>
+      <c r="AI44" s="42">
+        <f t="shared" si="12"/>
         <v>64.442999999999998</v>
       </c>
-      <c r="AJ44" s="63">
-        <f>MIN(P38:P47)/1000</f>
+      <c r="AJ44" s="38">
+        <f t="shared" si="12"/>
         <v>62.866999999999997</v>
       </c>
-      <c r="AK44" s="69">
-        <f>MIN(Q38:Q47)/1000</f>
+      <c r="AK44" s="43">
+        <f t="shared" si="12"/>
         <v>49.762999999999998</v>
       </c>
-      <c r="AL44" s="68">
-        <f>MIN(R38:R47)/1000</f>
+      <c r="AL44" s="42">
+        <f t="shared" si="12"/>
         <v>63.744999999999997</v>
       </c>
-      <c r="AM44" s="63">
-        <f>MIN(S38:S47)/1000</f>
+      <c r="AM44" s="38">
+        <f t="shared" si="12"/>
         <v>50.265000000000001</v>
       </c>
-      <c r="AN44" s="69">
+      <c r="AN44" s="43">
         <f>MAX(T38:T47)/1000</f>
         <v>122.753</v>
       </c>
-      <c r="AO44" s="68">
-        <f>MIN(U38:U47)/1000</f>
+      <c r="AO44" s="42">
+        <f t="shared" ref="AO44:AT44" si="13">MIN(U38:U47)/1000</f>
         <v>66.478999999999999</v>
       </c>
-      <c r="AP44" s="63">
-        <f>MIN(V38:V47)/1000</f>
+      <c r="AP44" s="38">
+        <f t="shared" si="13"/>
         <v>17.681999999999999</v>
       </c>
-      <c r="AQ44" s="69">
-        <f>MIN(W38:W47)/1000</f>
+      <c r="AQ44" s="43">
+        <f t="shared" si="13"/>
         <v>10.579000000000001</v>
       </c>
-      <c r="AR44" s="68">
-        <f>MIN(X38:X47)/1000</f>
+      <c r="AR44" s="42">
+        <f t="shared" si="13"/>
         <v>74.248999999999995</v>
       </c>
-      <c r="AS44" s="63">
-        <f>MIN(Y38:Y47)/1000</f>
+      <c r="AS44" s="38">
+        <f t="shared" si="13"/>
         <v>80.936999999999998</v>
       </c>
-      <c r="AT44" s="69">
-        <f>MIN(Z38:Z47)/1000</f>
+      <c r="AT44" s="43">
+        <f t="shared" si="13"/>
         <v>38.409999999999997</v>
       </c>
     </row>
@@ -5981,7 +5986,7 @@
       <c r="G45" s="1">
         <v>334865</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="29">
         <v>3</v>
       </c>
       <c r="I45" s="4">
@@ -6011,7 +6016,7 @@
       <c r="Q45" s="5">
         <v>259071</v>
       </c>
-      <c r="R45" s="28">
+      <c r="R45" s="20">
         <v>238024</v>
       </c>
       <c r="S45" s="1">
@@ -6038,79 +6043,79 @@
       <c r="Z45" s="5">
         <v>307820</v>
       </c>
-      <c r="AB45" s="57" t="s">
+      <c r="AB45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC45" s="74">
-        <f>MIN(I43:I52)/1000</f>
+      <c r="AC45" s="45">
+        <f t="shared" ref="AC45:AT45" si="14">MIN(I43:I52)/1000</f>
         <v>495.25099999999998</v>
       </c>
-      <c r="AD45" s="72">
-        <f>MIN(J43:J52)/1000</f>
+      <c r="AD45" s="44">
+        <f t="shared" si="14"/>
         <v>80.42</v>
       </c>
-      <c r="AE45" s="75">
-        <f>MIN(K43:K52)/1000</f>
+      <c r="AE45" s="46">
+        <f t="shared" si="14"/>
         <v>22.27</v>
       </c>
-      <c r="AF45" s="74">
-        <f>MIN(L43:L52)/1000</f>
+      <c r="AF45" s="45">
+        <f t="shared" si="14"/>
         <v>139.37</v>
       </c>
-      <c r="AG45" s="72">
-        <f>MIN(M43:M52)/1000</f>
+      <c r="AG45" s="44">
+        <f t="shared" si="14"/>
         <v>104.902</v>
       </c>
-      <c r="AH45" s="75">
-        <f>MIN(N43:N52)/1000</f>
+      <c r="AH45" s="46">
+        <f t="shared" si="14"/>
         <v>61.112000000000002</v>
       </c>
-      <c r="AI45" s="74">
-        <f>MIN(O43:O52)/1000</f>
+      <c r="AI45" s="45">
+        <f t="shared" si="14"/>
         <v>326.28199999999998</v>
       </c>
-      <c r="AJ45" s="72">
-        <f>MIN(P43:P52)/1000</f>
+      <c r="AJ45" s="44">
+        <f t="shared" si="14"/>
         <v>287.62200000000001</v>
       </c>
-      <c r="AK45" s="75">
-        <f>MIN(Q43:Q52)/1000</f>
+      <c r="AK45" s="46">
+        <f t="shared" si="14"/>
         <v>164.958</v>
       </c>
-      <c r="AL45" s="74">
-        <f>MIN(R43:R52)/1000</f>
+      <c r="AL45" s="45">
+        <f t="shared" si="14"/>
         <v>205.36</v>
       </c>
-      <c r="AM45" s="72">
-        <f>MIN(S43:S52)/1000</f>
+      <c r="AM45" s="44">
+        <f t="shared" si="14"/>
         <v>100.173</v>
       </c>
-      <c r="AN45" s="75">
-        <f>MIN(T43:T52)/1000</f>
+      <c r="AN45" s="46">
+        <f t="shared" si="14"/>
         <v>33.201000000000001</v>
       </c>
-      <c r="AO45" s="74">
-        <f>MIN(U43:U52)/1000</f>
+      <c r="AO45" s="45">
+        <f t="shared" si="14"/>
         <v>320.72800000000001</v>
       </c>
-      <c r="AP45" s="72">
-        <f>MIN(V43:V52)/1000</f>
+      <c r="AP45" s="44">
+        <f t="shared" si="14"/>
         <v>68.325999999999993</v>
       </c>
-      <c r="AQ45" s="75">
-        <f>MIN(W43:W52)/1000</f>
+      <c r="AQ45" s="46">
+        <f t="shared" si="14"/>
         <v>29.725000000000001</v>
       </c>
-      <c r="AR45" s="74">
-        <f>MIN(X43:X52)/1000</f>
+      <c r="AR45" s="45">
+        <f t="shared" si="14"/>
         <v>315.822</v>
       </c>
-      <c r="AS45" s="72">
-        <f>MIN(Y43:Y52)/1000</f>
+      <c r="AS45" s="44">
+        <f t="shared" si="14"/>
         <v>99.819000000000003</v>
       </c>
-      <c r="AT45" s="75">
-        <f>MIN(Z43:Z52)/1000</f>
+      <c r="AT45" s="46">
+        <f t="shared" si="14"/>
         <v>155.85400000000001</v>
       </c>
     </row>
@@ -6136,7 +6141,7 @@
       <c r="G46" s="1">
         <v>322165</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="29">
         <v>4</v>
       </c>
       <c r="I46" s="4">
@@ -6166,7 +6171,7 @@
       <c r="Q46" s="5">
         <v>282359</v>
       </c>
-      <c r="R46" s="28">
+      <c r="R46" s="20">
         <v>326142</v>
       </c>
       <c r="S46" s="1">
@@ -6216,7 +6221,7 @@
       <c r="G47" s="1">
         <v>322488</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="29">
         <v>5</v>
       </c>
       <c r="I47" s="4">
@@ -6246,7 +6251,7 @@
       <c r="Q47" s="5">
         <v>299783</v>
       </c>
-      <c r="R47" s="28">
+      <c r="R47" s="20">
         <v>308631</v>
       </c>
       <c r="S47" s="1">
@@ -6296,7 +6301,7 @@
       <c r="G48" s="1">
         <v>363353</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="29">
         <v>6</v>
       </c>
       <c r="I48" s="4">
@@ -6326,7 +6331,7 @@
       <c r="Q48" s="5">
         <v>340772</v>
       </c>
-      <c r="R48" s="28">
+      <c r="R48" s="20">
         <v>296690</v>
       </c>
       <c r="S48" s="1">
@@ -6385,7 +6390,7 @@
       <c r="Q49" s="5">
         <v>363863</v>
       </c>
-      <c r="R49" s="28">
+      <c r="R49" s="20">
         <v>509208</v>
       </c>
       <c r="S49" s="1">
@@ -6444,7 +6449,7 @@
       <c r="Q50" s="5">
         <v>414111</v>
       </c>
-      <c r="R50" s="28">
+      <c r="R50" s="20">
         <v>437914</v>
       </c>
       <c r="S50" s="1">
@@ -6503,7 +6508,7 @@
       <c r="Q51" s="5">
         <v>324233</v>
       </c>
-      <c r="R51" s="28">
+      <c r="R51" s="20">
         <v>376497</v>
       </c>
       <c r="S51" s="1">
@@ -6562,7 +6567,7 @@
       <c r="Q52" s="8">
         <v>445606</v>
       </c>
-      <c r="R52" s="29">
+      <c r="R52" s="21">
         <v>303511</v>
       </c>
       <c r="S52" s="7">
@@ -6592,14 +6597,71 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="I14:Z14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AB15:AJ15"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AB8:AJ8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="AB22:AT22"/>
     <mergeCell ref="AB39:AT39"/>
     <mergeCell ref="AB31:AT31"/>
@@ -6616,71 +6678,14 @@
     <mergeCell ref="AF32:AH32"/>
     <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AB8:AJ8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AB15:AJ15"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I40:Z40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="I27:Z27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="I14:Z14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AC23:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\Code\Java\MazeJava\src\main\java\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0AE8E-2807-4B64-8831-09CC32A466FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD246F-752E-448C-AB57-C707865938BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -100,11 +100,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,7 +113,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -707,40 +708,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,17 +728,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,56 +821,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,174 +1109,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL53" sqref="AL53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.140625" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="3.125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="7.125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
+    <col min="44" max="45" bestFit="true" customWidth="true" width="6.75" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="7.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AB1" s="52" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="54"/>
+      <c r="AB1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="18"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="22" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="22" t="s">
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
-      <c r="AB2" s="51" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
+      <c r="AB2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="55" t="s">
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="55" t="s">
+      <c r="AF2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="40"/>
+      <c r="AJ2" s="67"/>
     </row>
     <row r="3" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -1299,91 +1300,91 @@
       <c r="G3" s="5">
         <v>3963</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="61">
+      <c r="AC3" s="55">
         <f>AVERAGE(B3:B12)/1000</f>
-        <v>3.9470000000000001</v>
-      </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="63">
+        <v>3.9387777777777777</v>
+      </c>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="38">
         <f>AVERAGE(C3:C12)/1000</f>
-        <v>7.4497999999999998</v>
-      </c>
-      <c r="AF3" s="63">
+        <v>7.4572222222222226</v>
+      </c>
+      <c r="AF3" s="38">
         <f>AVERAGE(D3:D12)/1000</f>
-        <v>9.3028999999999993</v>
-      </c>
-      <c r="AG3" s="63">
+        <v>9.2707777777777771</v>
+      </c>
+      <c r="AG3" s="38">
         <f>AVERAGE(E3:E12)/1000</f>
-        <v>4.0015000000000001</v>
-      </c>
-      <c r="AH3" s="63">
+        <v>4.0066666666666668</v>
+      </c>
+      <c r="AH3" s="38">
         <f>AVERAGE(F3:F12)/1000</f>
-        <v>4.3183999999999996</v>
-      </c>
-      <c r="AI3" s="61">
+        <v>4.3078888888888889</v>
+      </c>
+      <c r="AI3" s="55">
         <f>AVERAGE(G3:G12)/1000</f>
-        <v>3.9734000000000003</v>
-      </c>
-      <c r="AJ3" s="64"/>
+        <v>3.9725555555555556</v>
+      </c>
+      <c r="AJ3" s="57"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1405,7 +1406,7 @@
       <c r="G4" s="5">
         <v>3973</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="28">
         <v>1</v>
       </c>
       <c r="I4" s="11">
@@ -1462,37 +1463,37 @@
       <c r="Z4" s="14">
         <v>3742</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="61">
+      <c r="AC4" s="55">
         <f>AVERAGE(B15:B24)/1000</f>
-        <v>15.862299999999999</v>
-      </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="63">
+        <v>15.868222222222222</v>
+      </c>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="38">
         <f>AVERAGE(C15:C24)/1000</f>
-        <v>30.738900000000001</v>
-      </c>
-      <c r="AF4" s="63">
+        <v>30.739000000000001</v>
+      </c>
+      <c r="AF4" s="38">
         <f>AVERAGE(D15:D24)/1000</f>
-        <v>46.905800000000006</v>
-      </c>
-      <c r="AG4" s="63">
+        <v>46.842333333333336</v>
+      </c>
+      <c r="AG4" s="38">
         <f>AVERAGE(E15:E24)/1000</f>
-        <v>15.919600000000001</v>
-      </c>
-      <c r="AH4" s="63">
+        <v>15.914222222222223</v>
+      </c>
+      <c r="AH4" s="38">
         <f>AVERAGE(F15:F24)/1000</f>
-        <v>16.555299999999999</v>
-      </c>
-      <c r="AI4" s="61">
+        <v>16.541</v>
+      </c>
+      <c r="AI4" s="55">
         <f>AVERAGE(G15:G24)/1000</f>
-        <v>15.826799999999999</v>
-      </c>
-      <c r="AJ4" s="64"/>
+        <v>15.820111111111112</v>
+      </c>
+      <c r="AJ4" s="57"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1514,7 +1515,7 @@
       <c r="G5" s="5">
         <v>3989</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="28">
         <v>2</v>
       </c>
       <c r="I5" s="4">
@@ -1571,35 +1572,35 @@
       <c r="Z5" s="5">
         <v>1766</v>
       </c>
-      <c r="AB5" s="50" t="s">
+      <c r="AB5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="61">
+      <c r="AC5" s="55">
         <f>AVERAGE(B27:B36)/1000</f>
-        <v>67.549600000000012</v>
-      </c>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="63">
+        <v>67.520111111111106</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="38">
         <f>AVERAGE(C27:C36)/1000</f>
-        <v>136.70320000000001</v>
-      </c>
-      <c r="AF5" s="63">
+        <v>136.76466666666667</v>
+      </c>
+      <c r="AF5" s="38">
         <f>AVERAGE(D27:D36)/1000</f>
-        <v>206.7079</v>
-      </c>
-      <c r="AG5" s="63">
+        <v>205.97544444444443</v>
+      </c>
+      <c r="AG5" s="38">
         <f>AVERAGE(E27:E36)/1000</f>
-        <v>67.81</v>
-      </c>
-      <c r="AH5" s="63">
+        <v>67.809444444444438</v>
+      </c>
+      <c r="AH5" s="38">
         <f>AVERAGE(F27:F36)/1000</f>
-        <v>67.813399999999987</v>
-      </c>
-      <c r="AI5" s="61">
+        <v>67.826444444444434</v>
+      </c>
+      <c r="AI5" s="55">
         <f>AVERAGE(G27:G36)/1000</f>
-        <v>67.846100000000007</v>
-      </c>
-      <c r="AJ5" s="64"/>
+        <v>67.795444444444442</v>
+      </c>
+      <c r="AJ5" s="57"/>
     </row>
     <row r="6" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1623,7 +1624,7 @@
       <c r="G6" s="5">
         <v>3951</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="29">
         <v>3</v>
       </c>
       <c r="I6" s="4">
@@ -1680,37 +1681,37 @@
       <c r="Z6" s="5">
         <v>2811</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="70">
+      <c r="AC6" s="58">
         <f>AVERAGE(B39:B48)/1000</f>
-        <v>511.39370000000002</v>
-      </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="72">
+        <v>513.2927777777777</v>
+      </c>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="44">
         <f>AVERAGE(C39:C48)/1000</f>
-        <v>955.63630000000001</v>
-      </c>
-      <c r="AF6" s="72">
+        <v>945.36933333333332</v>
+      </c>
+      <c r="AF6" s="44">
         <f>AVERAGE(D39:D48)/1000</f>
-        <v>1078.1624999999999</v>
-      </c>
-      <c r="AG6" s="72">
+        <v>1068.8238888888891</v>
+      </c>
+      <c r="AG6" s="44">
         <f>AVERAGE(E39:E48)/1000</f>
-        <v>463.99099999999999</v>
-      </c>
-      <c r="AH6" s="72">
+        <v>457.58800000000002</v>
+      </c>
+      <c r="AH6" s="44">
         <f>AVERAGE(F39:F48)/1000</f>
-        <v>349.73669999999998</v>
-      </c>
-      <c r="AI6" s="70">
+        <v>334.75144444444442</v>
+      </c>
+      <c r="AI6" s="58">
         <f>AVERAGE(G39:G48)/1000</f>
-        <v>331.49599999999998</v>
-      </c>
-      <c r="AJ6" s="73"/>
+        <v>327.9563333333333</v>
+      </c>
+      <c r="AJ6" s="60"/>
     </row>
-    <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1732,7 +1733,7 @@
       <c r="G7" s="5">
         <v>3996</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="29">
         <v>4</v>
       </c>
       <c r="I7" s="4">
@@ -1812,7 +1813,7 @@
       <c r="G8" s="5">
         <v>3997</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="29">
         <v>5</v>
       </c>
       <c r="I8" s="4">
@@ -1869,19 +1870,19 @@
       <c r="Z8" s="5">
         <v>1561</v>
       </c>
-      <c r="AB8" s="52" t="s">
+      <c r="AB8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="54"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="65"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="G9" s="5">
         <v>3971</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="29">
         <v>6</v>
       </c>
       <c r="I9" s="4">
@@ -1960,31 +1961,31 @@
       <c r="Z9" s="5">
         <v>2717</v>
       </c>
-      <c r="AB9" s="51" t="s">
+      <c r="AB9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="39" t="s">
+      <c r="AC9" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="55" t="s">
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="55" t="s">
+      <c r="AF9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AG9" s="55" t="s">
+      <c r="AG9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="55" t="s">
+      <c r="AH9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AI9" s="39" t="s">
+      <c r="AI9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="40"/>
+      <c r="AJ9" s="67"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="G10" s="5">
         <v>3981</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="29">
         <v>7</v>
       </c>
       <c r="I10" s="4">
@@ -2063,37 +2064,37 @@
       <c r="Z10" s="5">
         <v>3488</v>
       </c>
-      <c r="AB10" s="50" t="s">
+      <c r="AB10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC10" s="61">
+      <c r="AC10" s="55">
         <f>MAX(B3:B12)/1000</f>
-        <v>4.0209999999999999</v>
-      </c>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63">
+        <v>3.9870000000000001</v>
+      </c>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="38">
         <f>MAX(C3:C12)/1000</f>
         <v>7.8550000000000004</v>
       </c>
-      <c r="AF10" s="63">
+      <c r="AF10" s="38">
         <f>MAX(D3:D12)/1000</f>
         <v>9.7149999999999999</v>
       </c>
-      <c r="AG10" s="63">
+      <c r="AG10" s="38">
         <f>MAX(E3:E12)/1000</f>
         <v>4.2069999999999999</v>
       </c>
-      <c r="AH10" s="63">
+      <c r="AH10" s="38">
         <f>MAX(F3:F12)/1000</f>
         <v>4.4880000000000004</v>
       </c>
-      <c r="AI10" s="61">
+      <c r="AI10" s="55">
         <f>MAX(G3:G12)/1000</f>
         <v>3.9969999999999999</v>
       </c>
-      <c r="AJ10" s="64"/>
+      <c r="AJ10" s="57"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="G11" s="5">
         <v>3932</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="29">
         <v>8</v>
       </c>
       <c r="I11" s="4">
@@ -2172,59 +2173,59 @@
       <c r="Z11" s="5">
         <v>1464</v>
       </c>
-      <c r="AB11" s="50" t="s">
+      <c r="AB11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC11" s="61">
+      <c r="AC11" s="55">
         <f>MAX(B15:B24)/1000</f>
         <v>16.137</v>
       </c>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="63">
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="38">
         <f>MAX(C15:C24)/1000</f>
         <v>31.608000000000001</v>
       </c>
-      <c r="AF11" s="63">
+      <c r="AF11" s="38">
         <f>MAX(D15:D24)/1000</f>
         <v>51.146999999999998</v>
       </c>
-      <c r="AG11" s="63">
+      <c r="AG11" s="38">
         <f>MAX(E15:E24)/1000</f>
         <v>16.138999999999999</v>
       </c>
-      <c r="AH11" s="63">
+      <c r="AH11" s="38">
         <f>MAX(F15:F24)/1000</f>
         <v>16.835999999999999</v>
       </c>
-      <c r="AI11" s="61">
+      <c r="AI11" s="55">
         <f>MAX(G15:G24)/1000</f>
         <v>15.977</v>
       </c>
-      <c r="AJ11" s="64"/>
+      <c r="AJ11" s="57"/>
     </row>
     <row r="12" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>4021</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7383</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9592</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3955</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4413</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3981</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="B12" s="7" t="n">
+        <v>3949.0</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>7196.0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>8436.0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>3981.0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>4336.0</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>3980.0</v>
+      </c>
+      <c r="H12" s="29">
         <v>9</v>
       </c>
       <c r="I12" s="4">
@@ -2281,47 +2282,47 @@
       <c r="Z12" s="5">
         <v>1797</v>
       </c>
-      <c r="AB12" s="50" t="s">
+      <c r="AB12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="61">
+      <c r="AC12" s="55">
         <f>MAX(B27:B36)/1000</f>
         <v>67.930999999999997</v>
       </c>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="63">
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="38">
         <f>MAX(C27:C36)/1000</f>
         <v>138.80099999999999</v>
       </c>
-      <c r="AF12" s="63">
+      <c r="AF12" s="38">
         <f>MAX(D27:D36)/1000</f>
         <v>214.881</v>
       </c>
-      <c r="AG12" s="63">
+      <c r="AG12" s="38">
         <f>MAX(E27:E36)/1000</f>
         <v>68.295000000000002</v>
       </c>
-      <c r="AH12" s="63">
+      <c r="AH12" s="38">
         <f>MAX(F27:F36)/1000</f>
         <v>68.593000000000004</v>
       </c>
-      <c r="AI12" s="61">
+      <c r="AI12" s="55">
         <f>MAX(G27:G36)/1000</f>
         <v>68.691999999999993</v>
       </c>
-      <c r="AJ12" s="64"/>
+      <c r="AJ12" s="57"/>
     </row>
     <row r="13" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="45">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="29">
         <v>10</v>
       </c>
       <c r="I13" s="6">
@@ -2378,78 +2379,78 @@
       <c r="Z13" s="8">
         <v>3294</v>
       </c>
-      <c r="AB13" s="31" t="s">
+      <c r="AB13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="70">
+      <c r="AC13" s="58">
         <f>MAX(B39:B48)/1000</f>
         <v>558.12900000000002</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="72">
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="44">
         <f>MAX(C39:C48)/1000</f>
-        <v>1048.039</v>
-      </c>
-      <c r="AF13" s="72">
+        <v>1026.8209999999999</v>
+      </c>
+      <c r="AF13" s="44">
         <f>MAX(D39:D48)/1000</f>
         <v>1165.692</v>
       </c>
-      <c r="AG13" s="72">
+      <c r="AG13" s="44">
         <f>MAX(E39:E48)/1000</f>
         <v>637.81200000000001</v>
       </c>
-      <c r="AH13" s="72">
+      <c r="AH13" s="44">
         <f>MAX(F39:F48)/1000</f>
-        <v>484.60399999999998</v>
-      </c>
-      <c r="AI13" s="70">
+        <v>375.17700000000002</v>
+      </c>
+      <c r="AI13" s="58">
         <f>MAX(G39:G48)/1000</f>
-        <v>363.35300000000001</v>
-      </c>
-      <c r="AJ13" s="73"/>
+        <v>334.86500000000001</v>
+      </c>
+      <c r="AJ13" s="60"/>
     </row>
     <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="43"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2471,47 +2472,47 @@
       <c r="G15" s="5">
         <v>15709</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="22" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="22" t="s">
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="22" t="s">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="22" t="s">
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="22" t="s">
+      <c r="V15" s="69"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AB15" s="22" t="s">
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70"/>
+      <c r="AB15" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="24"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="70"/>
     </row>
     <row r="16" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -2535,85 +2536,85 @@
       <c r="G16" s="5">
         <v>15732</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="V16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB16" s="21" t="s">
+      <c r="AB16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="36" t="s">
+      <c r="AC16" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="37" t="s">
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF16" s="37" t="s">
+      <c r="AF16" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AG16" s="37" t="s">
+      <c r="AG16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AH16" s="37" t="s">
+      <c r="AH16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AI16" s="36" t="s">
+      <c r="AI16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="62"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2635,7 +2636,7 @@
       <c r="G17" s="5">
         <v>15803</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="28">
         <v>1</v>
       </c>
       <c r="I17" s="11">
@@ -2692,37 +2693,37 @@
       <c r="Z17" s="14">
         <v>5255</v>
       </c>
-      <c r="AB17" s="50" t="s">
+      <c r="AB17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AC17" s="61">
+      <c r="AC17" s="55">
         <f>MIN(B10:B19)/1000</f>
         <v>3.9849999999999999</v>
       </c>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="63">
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="38">
         <f>MIN(C10:C19)/1000</f>
         <v>7.2750000000000004</v>
       </c>
-      <c r="AF17" s="63">
+      <c r="AF17" s="38">
         <f>MIN(D10:D19)/1000</f>
         <v>8.8010000000000002</v>
       </c>
-      <c r="AG17" s="63">
+      <c r="AG17" s="38">
         <f>MIN(E10:E19)/1000</f>
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="AH17" s="63">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="AH17" s="38">
         <f>MIN(F10:F19)/1000</f>
         <v>4.282</v>
       </c>
-      <c r="AI17" s="61">
+      <c r="AI17" s="55">
         <f>MIN(G10:G19)/1000</f>
         <v>3.9319999999999999</v>
       </c>
-      <c r="AJ17" s="64"/>
+      <c r="AJ17" s="57"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -2744,7 +2745,7 @@
       <c r="G18" s="5">
         <v>15800</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="28">
         <v>2</v>
       </c>
       <c r="I18" s="4">
@@ -2801,37 +2802,37 @@
       <c r="Z18" s="5">
         <v>6321</v>
       </c>
-      <c r="AB18" s="50" t="s">
+      <c r="AB18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AC18" s="61">
+      <c r="AC18" s="55">
         <f>MIN(B22:B31)/1000</f>
         <v>15.654</v>
       </c>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="63">
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="38">
         <f>MIN(C22:C31)/1000</f>
         <v>30.356000000000002</v>
       </c>
-      <c r="AF18" s="63">
+      <c r="AF18" s="38">
         <f>MIN(D22:D31)/1000</f>
-        <v>47.476999999999997</v>
-      </c>
-      <c r="AG18" s="63">
+        <v>47.673000000000002</v>
+      </c>
+      <c r="AG18" s="38">
         <f>MIN(E22:E31)/1000</f>
-        <v>15.968</v>
-      </c>
-      <c r="AH18" s="63">
+        <v>15.989000000000001</v>
+      </c>
+      <c r="AH18" s="38">
         <f>MIN(F22:F31)/1000</f>
         <v>16.446000000000002</v>
       </c>
-      <c r="AI18" s="61">
+      <c r="AI18" s="55">
         <f>MIN(G22:G31)/1000</f>
-        <v>15.887</v>
-      </c>
-      <c r="AJ18" s="64"/>
+        <v>15.896000000000001</v>
+      </c>
+      <c r="AJ18" s="57"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2853,7 +2854,7 @@
       <c r="G19" s="5">
         <v>15737</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="29">
         <v>3</v>
       </c>
       <c r="I19" s="4">
@@ -2910,35 +2911,35 @@
       <c r="Z19" s="5">
         <v>8373</v>
       </c>
-      <c r="AB19" s="50" t="s">
+      <c r="AB19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="55">
         <f>MIN(B34:B43)/1000</f>
         <v>67.567999999999998</v>
       </c>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="63">
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="38">
         <f>MIN(C34:C43)/1000</f>
         <v>135.81800000000001</v>
       </c>
-      <c r="AF19" s="63">
+      <c r="AF19" s="38">
         <f>MIN(D34:D43)/1000</f>
         <v>201.02600000000001</v>
       </c>
-      <c r="AG19" s="63">
+      <c r="AG19" s="38">
         <f>MIN(E34:E43)/1000</f>
         <v>67.716999999999999</v>
       </c>
-      <c r="AH19" s="63">
+      <c r="AH19" s="38">
         <f>MIN(F34:F43)/1000</f>
         <v>67.584000000000003</v>
       </c>
-      <c r="AI19" s="61">
+      <c r="AI19" s="55">
         <f>MIN(G34:G43)/1000</f>
         <v>67.576999999999998</v>
       </c>
-      <c r="AJ19" s="64"/>
+      <c r="AJ19" s="57"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2962,7 +2963,7 @@
       <c r="G20" s="5">
         <v>15912</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="29">
         <v>4</v>
       </c>
       <c r="I20" s="4">
@@ -3019,37 +3020,37 @@
       <c r="Z20" s="5">
         <v>9642</v>
       </c>
-      <c r="AB20" s="31" t="s">
+      <c r="AB20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AC20" s="70">
+      <c r="AC20" s="58">
         <f>MIN(B39:B48)/1000</f>
         <v>493.44799999999998</v>
       </c>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72">
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="44">
         <f>MIN(C39:C48)/1000</f>
         <v>541.42999999999995</v>
       </c>
-      <c r="AF20" s="72">
+      <c r="AF20" s="44">
         <f>MIN(D39:D48)/1000</f>
         <v>986.76</v>
       </c>
-      <c r="AG20" s="72">
+      <c r="AG20" s="44">
         <f>MIN(E39:E48)/1000</f>
         <v>382.10700000000003</v>
       </c>
-      <c r="AH20" s="72">
+      <c r="AH20" s="44">
         <f>MIN(F39:F48)/1000</f>
         <v>321.98</v>
       </c>
-      <c r="AI20" s="70">
+      <c r="AI20" s="58">
         <f>MIN(G39:G48)/1000</f>
         <v>322.16500000000002</v>
       </c>
-      <c r="AJ20" s="73"/>
+      <c r="AJ20" s="60"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -3071,7 +3072,7 @@
       <c r="G21" s="5">
         <v>15815</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="29">
         <v>5</v>
       </c>
       <c r="I21" s="4">
@@ -3151,7 +3152,7 @@
       <c r="G22" s="5">
         <v>15977</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="29">
         <v>6</v>
       </c>
       <c r="I22" s="4">
@@ -3208,29 +3209,29 @@
       <c r="Z22" s="5">
         <v>13918</v>
       </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AB22" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="27"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="54"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
@@ -3252,7 +3253,7 @@
       <c r="G23" s="5">
         <v>15896</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="29">
         <v>7</v>
       </c>
       <c r="I23" s="4">
@@ -3309,63 +3310,51 @@
       <c r="Z23" s="5">
         <v>9814</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AB23" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC23" s="46" t="s">
+      <c r="AC23" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="46" t="s">
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="46" t="s">
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="46" t="s">
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="46" t="s">
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="46" t="s">
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="48"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="51"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
-        <v>15809</v>
-      </c>
-      <c r="C24" s="7">
-        <v>30738</v>
-      </c>
-      <c r="D24" s="7">
-        <v>47477</v>
-      </c>
-      <c r="E24" s="7">
-        <v>15968</v>
-      </c>
-      <c r="F24" s="7">
-        <v>16684</v>
-      </c>
-      <c r="G24" s="8">
-        <v>15887</v>
-      </c>
-      <c r="H24" s="45">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="29">
         <v>8</v>
       </c>
       <c r="I24" s="4">
@@ -3422,73 +3411,73 @@
       <c r="Z24" s="5">
         <v>11597</v>
       </c>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="32" t="s">
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AD24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE24" s="35" t="s">
+      <c r="AE24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF24" s="32" t="s">
+      <c r="AF24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG24" s="33" t="s">
+      <c r="AG24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH24" s="35" t="s">
+      <c r="AH24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="32" t="s">
+      <c r="AI24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="AJ24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK24" s="35" t="s">
+      <c r="AK24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL24" s="32" t="s">
+      <c r="AL24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM24" s="33" t="s">
+      <c r="AM24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN24" s="35" t="s">
+      <c r="AN24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO24" s="32" t="s">
+      <c r="AO24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP24" s="33" t="s">
+      <c r="AP24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ24" s="35" t="s">
+      <c r="AQ24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR24" s="32" t="s">
+      <c r="AR24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS24" s="33" t="s">
+      <c r="AS24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT24" s="35" t="s">
+      <c r="AT24" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="45">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="29">
         <v>9</v>
       </c>
       <c r="I25" s="4">
@@ -3545,233 +3534,197 @@
       <c r="Z25" s="5">
         <v>4849</v>
       </c>
-      <c r="AB25" s="56" t="s">
+      <c r="AB25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC25" s="65">
-        <f>AVERAGE(I4:I13)/1000</f>
+      <c r="AC25" s="39">
+        <f t="shared" ref="AC25:AT25" si="0">AVERAGE(I4:I13)/1000</f>
         <v>4.0011000000000001</v>
       </c>
-      <c r="AD25" s="66">
-        <f>AVERAGE(J4:J13)/1000</f>
+      <c r="AD25" s="40">
+        <f t="shared" si="0"/>
         <v>4.0937000000000001</v>
       </c>
-      <c r="AE25" s="67">
-        <f>AVERAGE(K4:K13)/1000</f>
+      <c r="AE25" s="41">
+        <f t="shared" si="0"/>
         <v>1.6949000000000001</v>
       </c>
-      <c r="AF25" s="65">
-        <f>AVERAGE(L4:L13)/1000</f>
+      <c r="AF25" s="39">
+        <f t="shared" si="0"/>
         <v>1.5979000000000001</v>
       </c>
-      <c r="AG25" s="66">
-        <f>AVERAGE(M4:M13)/1000</f>
+      <c r="AG25" s="40">
+        <f t="shared" si="0"/>
         <v>2.6601999999999997</v>
       </c>
-      <c r="AH25" s="67">
-        <f>AVERAGE(N4:N13)/1000</f>
+      <c r="AH25" s="41">
+        <f t="shared" si="0"/>
         <v>1.3119000000000001</v>
       </c>
-      <c r="AI25" s="65">
-        <f>AVERAGE(O4:O13)/1000</f>
+      <c r="AI25" s="39">
+        <f t="shared" si="0"/>
         <v>3.7222</v>
       </c>
-      <c r="AJ25" s="66">
-        <f>AVERAGE(P4:P13)/1000</f>
+      <c r="AJ25" s="40">
+        <f t="shared" si="0"/>
         <v>4.2919999999999998</v>
       </c>
-      <c r="AK25" s="67">
-        <f>AVERAGE(Q4:Q13)/1000</f>
+      <c r="AK25" s="41">
+        <f t="shared" si="0"/>
         <v>2.1384000000000003</v>
       </c>
-      <c r="AL25" s="65">
-        <f>AVERAGE(R4:R13)/1000</f>
+      <c r="AL25" s="39">
+        <f t="shared" si="0"/>
         <v>3.5098000000000003</v>
       </c>
-      <c r="AM25" s="66">
-        <f>AVERAGE(S4:S13)/1000</f>
+      <c r="AM25" s="40">
+        <f t="shared" si="0"/>
         <v>3.2866999999999997</v>
       </c>
-      <c r="AN25" s="67">
-        <f>AVERAGE(T4:T13)/1000</f>
+      <c r="AN25" s="41">
+        <f t="shared" si="0"/>
         <v>1.3482000000000001</v>
       </c>
-      <c r="AO25" s="65">
-        <f>AVERAGE(U4:U13)/1000</f>
+      <c r="AO25" s="39">
+        <f t="shared" si="0"/>
         <v>3.9864000000000002</v>
       </c>
-      <c r="AP25" s="66">
-        <f>AVERAGE(V4:V13)/1000</f>
+      <c r="AP25" s="40">
+        <f t="shared" si="0"/>
         <v>3.8466999999999998</v>
       </c>
-      <c r="AQ25" s="67">
-        <f>AVERAGE(W4:W13)/1000</f>
+      <c r="AQ25" s="41">
+        <f t="shared" si="0"/>
         <v>1.8312999999999999</v>
       </c>
-      <c r="AR25" s="65">
-        <f>AVERAGE(X4:X13)/1000</f>
+      <c r="AR25" s="39">
+        <f t="shared" si="0"/>
         <v>3.7240000000000002</v>
       </c>
-      <c r="AS25" s="66">
-        <f>AVERAGE(Y4:Y13)/1000</f>
+      <c r="AS25" s="40">
+        <f t="shared" si="0"/>
         <v>3.4049999999999998</v>
       </c>
-      <c r="AT25" s="67">
-        <f>AVERAGE(Z4:Z13)/1000</f>
+      <c r="AT25" s="41">
+        <f t="shared" si="0"/>
         <v>2.5911999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="29">
         <v>10</v>
       </c>
-      <c r="I26" s="6">
-        <v>15822</v>
-      </c>
-      <c r="J26" s="7">
-        <v>9079</v>
-      </c>
-      <c r="K26" s="8">
-        <v>7510</v>
-      </c>
-      <c r="L26" s="10">
-        <v>4690</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3792</v>
-      </c>
-      <c r="N26" s="8">
-        <v>3827</v>
-      </c>
-      <c r="O26" s="6">
-        <v>13447</v>
-      </c>
-      <c r="P26" s="7">
-        <v>26904</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>13378</v>
-      </c>
-      <c r="R26" s="6">
-        <v>15477</v>
-      </c>
-      <c r="S26" s="7">
-        <v>13409</v>
-      </c>
-      <c r="T26" s="8">
-        <v>6197</v>
-      </c>
-      <c r="U26" s="6">
-        <v>16179</v>
-      </c>
-      <c r="V26" s="7">
-        <v>17145</v>
-      </c>
-      <c r="W26" s="8">
-        <v>4170</v>
-      </c>
-      <c r="X26" s="6">
-        <v>15968</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>27411</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>13873</v>
-      </c>
-      <c r="AB26" s="56" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="8"/>
+      <c r="AB26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC26" s="68">
-        <f>AVERAGE(I17:I26)/1000</f>
-        <v>15.805299999999999</v>
-      </c>
-      <c r="AD26" s="63">
-        <f>AVERAGE(J17:J26)/1000</f>
-        <v>14.4915</v>
-      </c>
-      <c r="AE26" s="69">
-        <f>AVERAGE(K17:K26)/1000</f>
-        <v>5.0922999999999998</v>
-      </c>
-      <c r="AF26" s="68">
-        <f>AVERAGE(L17:L26)/1000</f>
-        <v>8.1033999999999988</v>
-      </c>
-      <c r="AG26" s="63">
-        <f>AVERAGE(M17:M26)/1000</f>
-        <v>9.1905999999999999</v>
-      </c>
-      <c r="AH26" s="69">
-        <f>AVERAGE(N17:N26)/1000</f>
-        <v>5.9988999999999999</v>
-      </c>
-      <c r="AI26" s="68">
-        <f>AVERAGE(O17:O26)/1000</f>
-        <v>14.723000000000001</v>
-      </c>
-      <c r="AJ26" s="63">
-        <f>AVERAGE(P17:P26)/1000</f>
-        <v>19.040599999999998</v>
-      </c>
-      <c r="AK26" s="69">
-        <f>AVERAGE(Q17:Q26)/1000</f>
-        <v>10.3414</v>
-      </c>
-      <c r="AL26" s="68">
-        <f>AVERAGE(R17:R26)/1000</f>
-        <v>13.542899999999999</v>
-      </c>
-      <c r="AM26" s="63">
-        <f>AVERAGE(S17:S26)/1000</f>
-        <v>17.337799999999998</v>
-      </c>
-      <c r="AN26" s="69">
-        <f>AVERAGE(T17:T26)/1000</f>
-        <v>5.9192999999999998</v>
-      </c>
-      <c r="AO26" s="68">
-        <f>AVERAGE(U17:U26)/1000</f>
-        <v>15.882700000000002</v>
-      </c>
-      <c r="AP26" s="63">
-        <f>AVERAGE(V17:V26)/1000</f>
-        <v>14.131399999999999</v>
-      </c>
-      <c r="AQ26" s="69">
-        <f>AVERAGE(W17:W26)/1000</f>
-        <v>5.1476999999999995</v>
-      </c>
-      <c r="AR26" s="68">
-        <f>AVERAGE(X17:X26)/1000</f>
-        <v>14.918100000000001</v>
-      </c>
-      <c r="AS26" s="63">
-        <f>AVERAGE(Y17:Y26)/1000</f>
-        <v>17.284400000000002</v>
-      </c>
-      <c r="AT26" s="69">
-        <f>AVERAGE(Z17:Z26)/1000</f>
-        <v>9.3224</v>
+      <c r="AC26" s="42">
+        <f t="shared" ref="AC26:AT26" si="1">AVERAGE(I17:I26)/1000</f>
+        <v>15.803444444444445</v>
+      </c>
+      <c r="AD26" s="38">
+        <f t="shared" si="1"/>
+        <v>15.092888888888888</v>
+      </c>
+      <c r="AE26" s="43">
+        <f t="shared" si="1"/>
+        <v>4.823666666666667</v>
+      </c>
+      <c r="AF26" s="42">
+        <f t="shared" si="1"/>
+        <v>8.4826666666666668</v>
+      </c>
+      <c r="AG26" s="38">
+        <f t="shared" si="1"/>
+        <v>9.7904444444444447</v>
+      </c>
+      <c r="AH26" s="43">
+        <f t="shared" si="1"/>
+        <v>6.240222222222223</v>
+      </c>
+      <c r="AI26" s="42">
+        <f t="shared" si="1"/>
+        <v>14.864777777777777</v>
+      </c>
+      <c r="AJ26" s="38">
+        <f t="shared" si="1"/>
+        <v>18.166888888888892</v>
+      </c>
+      <c r="AK26" s="43">
+        <f t="shared" si="1"/>
+        <v>10.004</v>
+      </c>
+      <c r="AL26" s="42">
+        <f t="shared" si="1"/>
+        <v>13.327999999999999</v>
+      </c>
+      <c r="AM26" s="38">
+        <f t="shared" si="1"/>
+        <v>17.774333333333331</v>
+      </c>
+      <c r="AN26" s="43">
+        <f t="shared" si="1"/>
+        <v>5.8884444444444446</v>
+      </c>
+      <c r="AO26" s="42">
+        <f t="shared" si="1"/>
+        <v>15.849777777777778</v>
+      </c>
+      <c r="AP26" s="38">
+        <f t="shared" si="1"/>
+        <v>13.796555555555555</v>
+      </c>
+      <c r="AQ26" s="43">
+        <f t="shared" si="1"/>
+        <v>5.2563333333333331</v>
+      </c>
+      <c r="AR26" s="42">
+        <f t="shared" si="1"/>
+        <v>14.801444444444446</v>
+      </c>
+      <c r="AS26" s="38">
+        <f t="shared" si="1"/>
+        <v>16.159222222222223</v>
+      </c>
+      <c r="AT26" s="43">
+        <f t="shared" si="1"/>
+        <v>8.8167777777777765</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,100 +3749,100 @@
       <c r="G27" s="5">
         <v>66625</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="43"/>
-      <c r="AB27" s="56" t="s">
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="73"/>
+      <c r="AB27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC27" s="68">
-        <f>AVERAGE(I30:I39)/1000</f>
-        <v>67.871200000000002</v>
-      </c>
-      <c r="AD27" s="63">
-        <f>AVERAGE(J30:J39)/1000</f>
-        <v>64.128</v>
-      </c>
-      <c r="AE27" s="69">
-        <f>AVERAGE(K30:K39)/1000</f>
-        <v>25.667000000000002</v>
-      </c>
-      <c r="AF27" s="68">
-        <f>AVERAGE(L30:L39)/1000</f>
-        <v>41.885100000000001</v>
-      </c>
-      <c r="AG27" s="63">
-        <f>AVERAGE(M30:M39)/1000</f>
-        <v>78.3125</v>
-      </c>
-      <c r="AH27" s="69">
-        <f>AVERAGE(N30:N39)/1000</f>
-        <v>28.2013</v>
-      </c>
-      <c r="AI27" s="68">
-        <f>AVERAGE(O30:O39)/1000</f>
-        <v>67.468399999999988</v>
-      </c>
-      <c r="AJ27" s="63">
-        <f>AVERAGE(P30:P39)/1000</f>
-        <v>71.296800000000005</v>
-      </c>
-      <c r="AK27" s="69">
-        <f>AVERAGE(Q30:Q39)/1000</f>
-        <v>50.866</v>
-      </c>
-      <c r="AL27" s="68">
-        <f>AVERAGE(R30:R39)/1000</f>
-        <v>58.244999999999997</v>
-      </c>
-      <c r="AM27" s="63">
-        <f>AVERAGE(S30:S39)/1000</f>
-        <v>65.817300000000003</v>
-      </c>
-      <c r="AN27" s="69">
-        <f>AVERAGE(T30:T39)/1000</f>
-        <v>29.448599999999999</v>
-      </c>
-      <c r="AO27" s="68">
-        <f>AVERAGE(U30:U39)/1000</f>
-        <v>68.327300000000008</v>
-      </c>
-      <c r="AP27" s="63">
-        <f>AVERAGE(V30:V39)/1000</f>
-        <v>46.220199999999998</v>
-      </c>
-      <c r="AQ27" s="69">
-        <f>AVERAGE(W30:W39)/1000</f>
-        <v>18.4193</v>
-      </c>
-      <c r="AR27" s="68">
-        <f>AVERAGE(X30:X39)/1000</f>
-        <v>70.106800000000007</v>
-      </c>
-      <c r="AS27" s="63">
-        <f>AVERAGE(Y30:Y39)/1000</f>
-        <v>72.821100000000001</v>
-      </c>
-      <c r="AT27" s="69">
-        <f>AVERAGE(Z30:Z39)/1000</f>
-        <v>53.351099999999995</v>
+      <c r="AC27" s="42">
+        <f t="shared" ref="AC27:AT27" si="2">AVERAGE(I30:I39)/1000</f>
+        <v>67.88122222222222</v>
+      </c>
+      <c r="AD27" s="38">
+        <f t="shared" si="2"/>
+        <v>63.910444444444444</v>
+      </c>
+      <c r="AE27" s="43">
+        <f t="shared" si="2"/>
+        <v>24.678222222222221</v>
+      </c>
+      <c r="AF27" s="42">
+        <f t="shared" si="2"/>
+        <v>43.587666666666664</v>
+      </c>
+      <c r="AG27" s="38">
+        <f t="shared" si="2"/>
+        <v>77.748333333333335</v>
+      </c>
+      <c r="AH27" s="43">
+        <f t="shared" si="2"/>
+        <v>29.657888888888891</v>
+      </c>
+      <c r="AI27" s="42">
+        <f t="shared" si="2"/>
+        <v>67.804555555555567</v>
+      </c>
+      <c r="AJ27" s="38">
+        <f t="shared" si="2"/>
+        <v>72.233444444444444</v>
+      </c>
+      <c r="AK27" s="43">
+        <f t="shared" si="2"/>
+        <v>50.988555555555557</v>
+      </c>
+      <c r="AL27" s="42">
+        <f t="shared" si="2"/>
+        <v>57.63388888888889</v>
+      </c>
+      <c r="AM27" s="38">
+        <f t="shared" si="2"/>
+        <v>67.545333333333332</v>
+      </c>
+      <c r="AN27" s="43">
+        <f t="shared" si="2"/>
+        <v>28.539111111111108</v>
+      </c>
+      <c r="AO27" s="42">
+        <f t="shared" si="2"/>
+        <v>67.617999999999995</v>
+      </c>
+      <c r="AP27" s="38">
+        <f t="shared" si="2"/>
+        <v>45.18022222222222</v>
+      </c>
+      <c r="AQ27" s="43">
+        <f t="shared" si="2"/>
+        <v>19.290444444444447</v>
+      </c>
+      <c r="AR27" s="42">
+        <f t="shared" si="2"/>
+        <v>69.269777777777776</v>
+      </c>
+      <c r="AS27" s="38">
+        <f t="shared" si="2"/>
+        <v>71.919333333333327</v>
+      </c>
+      <c r="AT27" s="43">
+        <f t="shared" si="2"/>
+        <v>51.796333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,110 +3867,110 @@
       <c r="G28" s="5">
         <v>68411</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="22" t="s">
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="22" t="s">
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22" t="s">
+      <c r="P28" s="69"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="22" t="s">
+      <c r="S28" s="69"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="22" t="s">
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
-      <c r="AB28" s="57" t="s">
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70"/>
+      <c r="AB28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC28" s="74">
-        <f>AVERAGE(I43:I52)/1000</f>
-        <v>511.05270000000002</v>
-      </c>
-      <c r="AD28" s="72">
-        <f>AVERAGE(J43:J52)/1000</f>
-        <v>372.98429999999996</v>
-      </c>
-      <c r="AE28" s="75">
-        <f>AVERAGE(K43:K52)/1000</f>
-        <v>101.1593</v>
-      </c>
-      <c r="AF28" s="74">
-        <f>AVERAGE(L43:L52)/1000</f>
-        <v>281.80470000000003</v>
-      </c>
-      <c r="AG28" s="72">
-        <f>AVERAGE(M43:M52)/1000</f>
-        <v>530.21400000000006</v>
-      </c>
-      <c r="AH28" s="75">
-        <f>AVERAGE(N43:N52)/1000</f>
-        <v>153.7749</v>
-      </c>
-      <c r="AI28" s="74">
-        <f>AVERAGE(O43:O52)/1000</f>
-        <v>454.7405</v>
-      </c>
-      <c r="AJ28" s="72">
-        <f>AVERAGE(P43:P52)/1000</f>
-        <v>471.46679999999998</v>
-      </c>
-      <c r="AK28" s="75">
-        <f>AVERAGE(Q43:Q52)/1000</f>
-        <v>323.86309999999997</v>
-      </c>
-      <c r="AL28" s="74">
-        <f>AVERAGE(R43:R52)/1000</f>
-        <v>333.04740000000004</v>
-      </c>
-      <c r="AM28" s="72">
-        <f>AVERAGE(S43:S52)/1000</f>
-        <v>324.94579999999996</v>
-      </c>
-      <c r="AN28" s="75">
-        <f>AVERAGE(T43:T52)/1000</f>
-        <v>65.254000000000005</v>
-      </c>
-      <c r="AO28" s="74">
-        <f>AVERAGE(U43:U52)/1000</f>
-        <v>358.57279999999997</v>
-      </c>
-      <c r="AP28" s="72">
-        <f>AVERAGE(V43:V52)/1000</f>
-        <v>352.35129999999998</v>
-      </c>
-      <c r="AQ28" s="75">
-        <f>AVERAGE(W43:W52)/1000</f>
-        <v>78.155799999999999</v>
-      </c>
-      <c r="AR28" s="74">
-        <f>AVERAGE(X43:X52)/1000</f>
-        <v>342.9083</v>
-      </c>
-      <c r="AS28" s="72">
-        <f>AVERAGE(Y43:Y52)/1000</f>
-        <v>345.92790000000002</v>
-      </c>
-      <c r="AT28" s="75">
-        <f>AVERAGE(Z43:Z52)/1000</f>
-        <v>237.7971</v>
+      <c r="AC28" s="45">
+        <f t="shared" ref="AC28:AT28" si="3">AVERAGE(I43:I52)/1000</f>
+        <v>510.58344444444441</v>
+      </c>
+      <c r="AD28" s="44">
+        <f t="shared" si="3"/>
+        <v>361.40899999999999</v>
+      </c>
+      <c r="AE28" s="46">
+        <f t="shared" si="3"/>
+        <v>80.781444444444432</v>
+      </c>
+      <c r="AF28" s="45">
+        <f t="shared" si="3"/>
+        <v>297.63077777777778</v>
+      </c>
+      <c r="AG28" s="44">
+        <f t="shared" si="3"/>
+        <v>528.54566666666665</v>
+      </c>
+      <c r="AH28" s="46">
+        <f t="shared" si="3"/>
+        <v>159.65866666666665</v>
+      </c>
+      <c r="AI28" s="45">
+        <f t="shared" si="3"/>
+        <v>439.92811111111115</v>
+      </c>
+      <c r="AJ28" s="44">
+        <f t="shared" si="3"/>
+        <v>416.08433333333329</v>
+      </c>
+      <c r="AK28" s="46">
+        <f t="shared" si="3"/>
+        <v>310.33611111111111</v>
+      </c>
+      <c r="AL28" s="45">
+        <f t="shared" si="3"/>
+        <v>336.32922222222226</v>
+      </c>
+      <c r="AM28" s="44">
+        <f t="shared" si="3"/>
+        <v>316.42222222222227</v>
+      </c>
+      <c r="AN28" s="46">
+        <f t="shared" si="3"/>
+        <v>62.580444444444446</v>
+      </c>
+      <c r="AO28" s="45">
+        <f t="shared" si="3"/>
+        <v>348.88744444444444</v>
+      </c>
+      <c r="AP28" s="44">
+        <f t="shared" si="3"/>
+        <v>361.6103333333333</v>
+      </c>
+      <c r="AQ28" s="46">
+        <f t="shared" si="3"/>
+        <v>83.107111111111109</v>
+      </c>
+      <c r="AR28" s="45">
+        <f t="shared" si="3"/>
+        <v>333.62644444444442</v>
+      </c>
+      <c r="AS28" s="44">
+        <f t="shared" si="3"/>
+        <v>366.52244444444443</v>
+      </c>
+      <c r="AT28" s="46">
+        <f t="shared" si="3"/>
+        <v>233.11177777777777</v>
       </c>
     </row>
     <row r="29" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4042,62 +3995,62 @@
       <c r="G29" s="5">
         <v>68321</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="35" t="s">
+      <c r="Q29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="33" t="s">
+      <c r="S29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="35" t="s">
+      <c r="T29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="33" t="s">
+      <c r="V29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W29" s="35" t="s">
+      <c r="W29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="32" t="s">
+      <c r="X29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="33" t="s">
+      <c r="Y29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z29" s="35" t="s">
+      <c r="Z29" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -4119,7 +4072,7 @@
       <c r="G30" s="5">
         <v>68692</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="28">
         <v>1</v>
       </c>
       <c r="I30" s="11">
@@ -4199,7 +4152,7 @@
       <c r="G31" s="5">
         <v>67662</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="28">
         <v>2</v>
       </c>
       <c r="I31" s="4">
@@ -4256,29 +4209,29 @@
       <c r="Z31" s="5">
         <v>60631</v>
       </c>
-      <c r="AB31" s="25" t="s">
+      <c r="AB31" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="27"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="54"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -4300,7 +4253,7 @@
       <c r="G32" s="5">
         <v>68082</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="29">
         <v>3</v>
       </c>
       <c r="I32" s="4">
@@ -4357,39 +4310,39 @@
       <c r="Z32" s="5">
         <v>42126</v>
       </c>
-      <c r="AB32" s="17" t="s">
+      <c r="AB32" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC32" s="46" t="s">
+      <c r="AC32" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="46" t="s">
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="46" t="s">
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="46" t="s">
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="46" t="s">
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="46" t="s">
+      <c r="AP32" s="50"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="48"/>
+      <c r="AS32" s="50"/>
+      <c r="AT32" s="51"/>
     </row>
     <row r="33" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -4413,7 +4366,7 @@
       <c r="G33" s="5">
         <v>66823</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="29">
         <v>4</v>
       </c>
       <c r="I33" s="4">
@@ -4470,63 +4423,63 @@
       <c r="Z33" s="5">
         <v>57126</v>
       </c>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="32" t="s">
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD33" s="33" t="s">
+      <c r="AD33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE33" s="35" t="s">
+      <c r="AE33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF33" s="32" t="s">
+      <c r="AF33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG33" s="33" t="s">
+      <c r="AG33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH33" s="35" t="s">
+      <c r="AH33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI33" s="32" t="s">
+      <c r="AI33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ33" s="33" t="s">
+      <c r="AJ33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK33" s="35" t="s">
+      <c r="AK33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL33" s="32" t="s">
+      <c r="AL33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM33" s="33" t="s">
+      <c r="AM33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN33" s="35" t="s">
+      <c r="AN33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO33" s="32" t="s">
+      <c r="AO33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP33" s="33" t="s">
+      <c r="AP33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ33" s="35" t="s">
+      <c r="AQ33" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR33" s="32" t="s">
+      <c r="AR33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS33" s="33" t="s">
+      <c r="AS33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT33" s="35" t="s">
+      <c r="AT33" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>8</v>
       </c>
@@ -4548,7 +4501,7 @@
       <c r="G34" s="5">
         <v>67577</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="29">
         <v>5</v>
       </c>
       <c r="I34" s="4">
@@ -4605,83 +4558,83 @@
       <c r="Z34" s="5">
         <v>63671</v>
       </c>
-      <c r="AB34" s="56" t="s">
+      <c r="AB34" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC34" s="65">
-        <f>MAX(I4:I13)/1000</f>
+      <c r="AC34" s="39">
+        <f t="shared" ref="AC34:AT34" si="4">MAX(I4:I13)/1000</f>
         <v>4.1180000000000003</v>
       </c>
-      <c r="AD34" s="66">
-        <f>MAX(J4:J13)/1000</f>
+      <c r="AD34" s="40">
+        <f t="shared" si="4"/>
         <v>7.39</v>
       </c>
-      <c r="AE34" s="67">
-        <f>MAX(K4:K13)/1000</f>
+      <c r="AE34" s="41">
+        <f t="shared" si="4"/>
         <v>3.2040000000000002</v>
       </c>
-      <c r="AF34" s="65">
-        <f>MAX(L4:L13)/1000</f>
+      <c r="AF34" s="39">
+        <f t="shared" si="4"/>
         <v>2.2690000000000001</v>
       </c>
-      <c r="AG34" s="66">
-        <f>MAX(M4:M13)/1000</f>
+      <c r="AG34" s="40">
+        <f t="shared" si="4"/>
         <v>6.8869999999999996</v>
       </c>
-      <c r="AH34" s="67">
-        <f>MAX(N4:N13)/1000</f>
+      <c r="AH34" s="41">
+        <f t="shared" si="4"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="AI34" s="65">
-        <f>MAX(O4:O13)/1000</f>
+      <c r="AI34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0570000000000004</v>
       </c>
-      <c r="AJ34" s="66">
-        <f>MAX(P4:P13)/1000</f>
+      <c r="AJ34" s="40">
+        <f t="shared" si="4"/>
         <v>6.7560000000000002</v>
       </c>
-      <c r="AK34" s="67">
-        <f>MAX(Q4:Q13)/1000</f>
+      <c r="AK34" s="41">
+        <f t="shared" si="4"/>
         <v>3.1539999999999999</v>
       </c>
-      <c r="AL34" s="65">
-        <f>MAX(R4:R13)/1000</f>
+      <c r="AL34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0060000000000002</v>
       </c>
-      <c r="AM34" s="66">
-        <f>MAX(S4:S13)/1000</f>
+      <c r="AM34" s="40">
+        <f t="shared" si="4"/>
         <v>6.6340000000000003</v>
       </c>
-      <c r="AN34" s="67">
-        <f>MAX(T4:T13)/1000</f>
+      <c r="AN34" s="41">
+        <f t="shared" si="4"/>
         <v>2.681</v>
       </c>
-      <c r="AO34" s="65">
-        <f>MAX(U4:U13)/1000</f>
+      <c r="AO34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0910000000000002</v>
       </c>
-      <c r="AP34" s="66">
-        <f>MAX(V4:V13)/1000</f>
+      <c r="AP34" s="40">
+        <f t="shared" si="4"/>
         <v>5.0990000000000002</v>
       </c>
-      <c r="AQ34" s="67">
-        <f>MAX(W4:W13)/1000</f>
+      <c r="AQ34" s="41">
+        <f t="shared" si="4"/>
         <v>3.5880000000000001</v>
       </c>
-      <c r="AR34" s="65">
-        <f>MAX(X4:X13)/1000</f>
+      <c r="AR34" s="39">
+        <f t="shared" si="4"/>
         <v>4.0979999999999999</v>
       </c>
-      <c r="AS34" s="66">
-        <f>MAX(Y4:Y13)/1000</f>
+      <c r="AS34" s="40">
+        <f t="shared" si="4"/>
         <v>6.4219999999999997</v>
       </c>
-      <c r="AT34" s="67">
-        <f>MAX(Z4:Z13)/1000</f>
+      <c r="AT34" s="41">
+        <f t="shared" si="4"/>
         <v>3.742</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>9</v>
       </c>
@@ -4703,7 +4656,7 @@
       <c r="G35" s="5">
         <v>67966</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="29">
         <v>6</v>
       </c>
       <c r="I35" s="4">
@@ -4760,105 +4713,93 @@
       <c r="Z35" s="5">
         <v>63058</v>
       </c>
-      <c r="AB35" s="56" t="s">
+      <c r="AB35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC35" s="68">
-        <f>MAX(I17:I26)/1000</f>
+      <c r="AC35" s="42">
+        <f t="shared" ref="AC35:AM35" si="5">MAX(I17:I26)/1000</f>
         <v>15.968</v>
       </c>
-      <c r="AD35" s="63">
-        <f>MAX(J17:J26)/1000</f>
+      <c r="AD35" s="38">
+        <f t="shared" si="5"/>
         <v>27.783999999999999</v>
       </c>
-      <c r="AE35" s="69">
-        <f>MAX(K17:K26)/1000</f>
+      <c r="AE35" s="43">
+        <f t="shared" si="5"/>
         <v>10.343999999999999</v>
       </c>
-      <c r="AF35" s="68">
-        <f>MAX(L17:L26)/1000</f>
+      <c r="AF35" s="42">
+        <f t="shared" si="5"/>
         <v>15.909000000000001</v>
       </c>
-      <c r="AG35" s="63">
-        <f>MAX(M17:M26)/1000</f>
+      <c r="AG35" s="38">
+        <f t="shared" si="5"/>
         <v>16.792999999999999</v>
       </c>
-      <c r="AH35" s="69">
-        <f>MAX(N17:N26)/1000</f>
+      <c r="AH35" s="43">
+        <f t="shared" si="5"/>
         <v>13.157999999999999</v>
       </c>
-      <c r="AI35" s="68">
-        <f>MAX(O17:O26)/1000</f>
+      <c r="AI35" s="42">
+        <f t="shared" si="5"/>
         <v>16.018000000000001</v>
       </c>
-      <c r="AJ35" s="63">
-        <f>MAX(P17:P26)/1000</f>
+      <c r="AJ35" s="38">
+        <f t="shared" si="5"/>
         <v>27.795999999999999</v>
       </c>
-      <c r="AK35" s="69">
-        <f>MAX(Q17:Q26)/1000</f>
+      <c r="AK35" s="43">
+        <f t="shared" si="5"/>
         <v>14.162000000000001</v>
       </c>
-      <c r="AL35" s="68">
-        <f>MAX(R17:R26)/1000</f>
+      <c r="AL35" s="42">
+        <f t="shared" si="5"/>
         <v>16.074000000000002</v>
       </c>
-      <c r="AM35" s="63">
-        <f>MAX(S17:S26)/1000</f>
+      <c r="AM35" s="38">
+        <f t="shared" si="5"/>
         <v>25.073</v>
       </c>
-      <c r="AN35" s="69">
+      <c r="AN35" s="43">
         <f>MAX(T30:T39)/1000</f>
         <v>41.15</v>
       </c>
-      <c r="AO35" s="68">
-        <f>MAX(U17:U26)/1000</f>
-        <v>16.178999999999998</v>
-      </c>
-      <c r="AP35" s="63">
-        <f>MAX(V17:V26)/1000</f>
+      <c r="AO35" s="42">
+        <f t="shared" ref="AO35:AT35" si="6">MAX(U17:U26)/1000</f>
+        <v>16.143999999999998</v>
+      </c>
+      <c r="AP35" s="38">
+        <f t="shared" si="6"/>
         <v>19.353999999999999</v>
       </c>
-      <c r="AQ35" s="69">
-        <f>MAX(W17:W26)/1000</f>
+      <c r="AQ35" s="43">
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="AR35" s="68">
-        <f>MAX(X17:X26)/1000</f>
-        <v>15.968</v>
-      </c>
-      <c r="AS35" s="63">
-        <f>MAX(Y17:Y26)/1000</f>
-        <v>27.411000000000001</v>
-      </c>
-      <c r="AT35" s="69">
-        <f>MAX(Z17:Z26)/1000</f>
+      <c r="AR35" s="42">
+        <f t="shared" si="6"/>
+        <v>15.938000000000001</v>
+      </c>
+      <c r="AS35" s="38">
+        <f t="shared" si="6"/>
+        <v>25.742000000000001</v>
+      </c>
+      <c r="AT35" s="43">
+        <f t="shared" si="6"/>
         <v>13.917999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>10</v>
       </c>
-      <c r="B36" s="2">
-        <v>67815</v>
-      </c>
-      <c r="C36" s="2">
-        <v>136150</v>
-      </c>
-      <c r="D36" s="2">
-        <v>213300</v>
-      </c>
-      <c r="E36" s="2">
-        <v>67815</v>
-      </c>
-      <c r="F36" s="2">
-        <v>67696</v>
-      </c>
-      <c r="G36" s="16">
-        <v>68302</v>
-      </c>
-      <c r="H36" s="45">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="29">
         <v>7</v>
       </c>
       <c r="I36" s="4">
@@ -4915,93 +4856,93 @@
       <c r="Z36" s="5">
         <v>55593</v>
       </c>
-      <c r="AB36" s="56" t="s">
+      <c r="AB36" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC36" s="68">
-        <f>MAX(I30:I39)/1000</f>
+      <c r="AC36" s="42">
+        <f t="shared" ref="AC36:AT36" si="7">MAX(I30:I39)/1000</f>
         <v>70.807000000000002</v>
       </c>
-      <c r="AD36" s="63">
-        <f>MAX(J30:J39)/1000</f>
+      <c r="AD36" s="38">
+        <f t="shared" si="7"/>
         <v>113.039</v>
       </c>
-      <c r="AE36" s="69">
-        <f>MAX(K30:K39)/1000</f>
+      <c r="AE36" s="43">
+        <f t="shared" si="7"/>
         <v>45.832999999999998</v>
       </c>
-      <c r="AF36" s="68">
-        <f>MAX(L30:L39)/1000</f>
+      <c r="AF36" s="42">
+        <f t="shared" si="7"/>
         <v>64.152000000000001</v>
       </c>
-      <c r="AG36" s="63">
-        <f>MAX(M30:M39)/1000</f>
+      <c r="AG36" s="38">
+        <f t="shared" si="7"/>
         <v>112.97799999999999</v>
       </c>
-      <c r="AH36" s="69">
-        <f>MAX(N30:N39)/1000</f>
+      <c r="AH36" s="43">
+        <f t="shared" si="7"/>
         <v>47.17</v>
       </c>
-      <c r="AI36" s="68">
-        <f>MAX(O30:O39)/1000</f>
+      <c r="AI36" s="42">
+        <f t="shared" si="7"/>
         <v>72.078999999999994</v>
       </c>
-      <c r="AJ36" s="63">
-        <f>MAX(P30:P39)/1000</f>
+      <c r="AJ36" s="38">
+        <f t="shared" si="7"/>
         <v>103.685</v>
       </c>
-      <c r="AK36" s="69">
-        <f>MAX(Q30:Q39)/1000</f>
+      <c r="AK36" s="43">
+        <f t="shared" si="7"/>
         <v>60.215000000000003</v>
       </c>
-      <c r="AL36" s="68">
-        <f>MAX(R30:R39)/1000</f>
+      <c r="AL36" s="42">
+        <f t="shared" si="7"/>
         <v>67.706000000000003</v>
       </c>
-      <c r="AM36" s="63">
-        <f>MAX(S30:S39)/1000</f>
+      <c r="AM36" s="38">
+        <f t="shared" si="7"/>
         <v>87.89</v>
       </c>
-      <c r="AN36" s="69">
-        <f>MAX(T30:T39)/1000</f>
+      <c r="AN36" s="43">
+        <f t="shared" si="7"/>
         <v>41.15</v>
       </c>
-      <c r="AO36" s="68">
-        <f>MAX(U30:U39)/1000</f>
+      <c r="AO36" s="42">
+        <f t="shared" si="7"/>
         <v>76.887</v>
       </c>
-      <c r="AP36" s="63">
-        <f>MAX(V30:V39)/1000</f>
+      <c r="AP36" s="38">
+        <f t="shared" si="7"/>
         <v>101.122</v>
       </c>
-      <c r="AQ36" s="69">
-        <f>MAX(W30:W39)/1000</f>
+      <c r="AQ36" s="43">
+        <f t="shared" si="7"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="AR36" s="68">
-        <f>MAX(X30:X39)/1000</f>
-        <v>77.64</v>
-      </c>
-      <c r="AS36" s="63">
-        <f>MAX(Y30:Y39)/1000</f>
+      <c r="AR36" s="42">
+        <f t="shared" si="7"/>
+        <v>74.248999999999995</v>
+      </c>
+      <c r="AS36" s="38">
+        <f t="shared" si="7"/>
         <v>94.795000000000002</v>
       </c>
-      <c r="AT36" s="69">
-        <f>MAX(Z30:Z39)/1000</f>
-        <v>67.343999999999994</v>
+      <c r="AT36" s="43">
+        <f t="shared" si="7"/>
+        <v>63.670999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="45">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="29">
         <v>8</v>
       </c>
       <c r="I37" s="4">
@@ -5058,103 +4999,103 @@
       <c r="Z37" s="5">
         <v>40990</v>
       </c>
-      <c r="AB37" s="57" t="s">
+      <c r="AB37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC37" s="74">
-        <f>MAX(I43:I52)/1000</f>
+      <c r="AC37" s="45">
+        <f t="shared" ref="AC37:AT37" si="8">MAX(I43:I52)/1000</f>
         <v>528.05600000000004</v>
       </c>
-      <c r="AD37" s="72">
-        <f>MAX(J43:J52)/1000</f>
+      <c r="AD37" s="44">
+        <f t="shared" si="8"/>
         <v>546.03800000000001</v>
       </c>
-      <c r="AE37" s="75">
-        <f>MAX(K43:K52)/1000</f>
+      <c r="AE37" s="46">
+        <f t="shared" si="8"/>
         <v>306.303</v>
       </c>
-      <c r="AF37" s="74">
-        <f>MAX(L43:L52)/1000</f>
+      <c r="AF37" s="45">
+        <f t="shared" si="8"/>
         <v>584.673</v>
       </c>
-      <c r="AG37" s="72">
-        <f>MAX(M43:M52)/1000</f>
+      <c r="AG37" s="44">
+        <f t="shared" si="8"/>
         <v>998.52499999999998</v>
       </c>
-      <c r="AH37" s="75">
-        <f>MAX(N43:N52)/1000</f>
+      <c r="AH37" s="46">
+        <f t="shared" si="8"/>
         <v>322.39400000000001</v>
       </c>
-      <c r="AI37" s="74">
-        <f>MAX(O43:O52)/1000</f>
+      <c r="AI37" s="45">
+        <f t="shared" si="8"/>
         <v>604.14099999999996</v>
       </c>
-      <c r="AJ37" s="72">
-        <f>MAX(P43:P52)/1000</f>
-        <v>969.90899999999999</v>
-      </c>
-      <c r="AK37" s="75">
-        <f>MAX(Q43:Q52)/1000</f>
-        <v>445.60599999999999</v>
-      </c>
-      <c r="AL37" s="74">
-        <f>MAX(R43:R52)/1000</f>
+      <c r="AJ37" s="44">
+        <f t="shared" si="8"/>
+        <v>799.07100000000003</v>
+      </c>
+      <c r="AK37" s="46">
+        <f t="shared" si="8"/>
+        <v>414.11099999999999</v>
+      </c>
+      <c r="AL37" s="45">
+        <f t="shared" si="8"/>
         <v>509.20800000000003</v>
       </c>
-      <c r="AM37" s="72">
-        <f>MAX(S43:S52)/1000</f>
+      <c r="AM37" s="44">
+        <f t="shared" si="8"/>
         <v>592.94000000000005</v>
       </c>
-      <c r="AN37" s="75">
-        <f>MAX(T43:T52)/1000</f>
+      <c r="AN37" s="46">
+        <f t="shared" si="8"/>
         <v>139.815</v>
       </c>
-      <c r="AO37" s="74">
-        <f>MAX(U43:U52)/1000</f>
-        <v>445.74099999999999</v>
-      </c>
-      <c r="AP37" s="72">
-        <f>MAX(V43:V52)/1000</f>
+      <c r="AO37" s="45">
+        <f t="shared" si="8"/>
+        <v>388.916</v>
+      </c>
+      <c r="AP37" s="44">
+        <f t="shared" si="8"/>
         <v>679.75800000000004</v>
       </c>
-      <c r="AQ37" s="75">
-        <f>MAX(W43:W52)/1000</f>
+      <c r="AQ37" s="46">
+        <f t="shared" si="8"/>
         <v>173.15700000000001</v>
       </c>
-      <c r="AR37" s="74">
-        <f>MAX(X43:X52)/1000</f>
-        <v>426.44499999999999</v>
-      </c>
-      <c r="AS37" s="72">
-        <f>MAX(Y43:Y52)/1000</f>
+      <c r="AR37" s="45">
+        <f t="shared" si="8"/>
+        <v>359.19799999999998</v>
+      </c>
+      <c r="AS37" s="44">
+        <f t="shared" si="8"/>
         <v>578.18700000000001</v>
       </c>
-      <c r="AT37" s="75">
-        <f>MAX(Z43:Z52)/1000</f>
+      <c r="AT37" s="46">
+        <f t="shared" si="8"/>
         <v>307.82</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="29">
         <v>9</v>
       </c>
       <c r="I38" s="4">
@@ -5234,84 +5175,48 @@
       <c r="G39" s="1">
         <v>328391</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="29">
         <v>10</v>
       </c>
-      <c r="I39" s="6">
-        <v>67781</v>
-      </c>
-      <c r="J39" s="7">
-        <v>66086</v>
-      </c>
-      <c r="K39" s="8">
-        <v>34566</v>
-      </c>
-      <c r="L39" s="10">
-        <v>26562</v>
-      </c>
-      <c r="M39" s="7">
-        <v>83390</v>
-      </c>
-      <c r="N39" s="8">
-        <v>15092</v>
-      </c>
-      <c r="O39" s="6">
-        <v>64443</v>
-      </c>
-      <c r="P39" s="7">
-        <v>62867</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>49763</v>
-      </c>
-      <c r="R39" s="6">
-        <v>63745</v>
-      </c>
-      <c r="S39" s="7">
-        <v>50265</v>
-      </c>
-      <c r="T39" s="8">
-        <v>37634</v>
-      </c>
-      <c r="U39" s="6">
-        <v>74711</v>
-      </c>
-      <c r="V39" s="7">
-        <v>55580</v>
-      </c>
-      <c r="W39" s="8">
-        <v>10579</v>
-      </c>
-      <c r="X39" s="6">
-        <v>77640</v>
-      </c>
-      <c r="Y39" s="7">
-        <v>80937</v>
-      </c>
-      <c r="Z39" s="8">
-        <v>67344</v>
-      </c>
-      <c r="AB39" s="25" t="s">
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8"/>
+      <c r="AB39" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="27"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="54"/>
     </row>
     <row r="40" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -5335,59 +5240,59 @@
       <c r="G40" s="1">
         <v>326216</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="I40" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="43"/>
-      <c r="AB40" s="17" t="s">
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="73"/>
+      <c r="AB40" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AC40" s="46" t="s">
+      <c r="AC40" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="46" t="s">
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="46" t="s">
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="48"/>
-      <c r="AL40" s="46" t="s">
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="46" t="s">
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="46" t="s">
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="48"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="51"/>
     </row>
     <row r="41" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -5411,89 +5316,89 @@
       <c r="G41" s="1">
         <v>327974</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="22" t="s">
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="22" t="s">
+      <c r="M41" s="69"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="58" t="s">
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="23"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="22" t="s">
+      <c r="S41" s="69"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="23"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="22" t="s">
+      <c r="V41" s="69"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="24"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="32" t="s">
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="70"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AD41" s="33" t="s">
+      <c r="AD41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE41" s="35" t="s">
+      <c r="AE41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AF41" s="32" t="s">
+      <c r="AF41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AG41" s="33" t="s">
+      <c r="AG41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AH41" s="35" t="s">
+      <c r="AH41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AI41" s="32" t="s">
+      <c r="AI41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AJ41" s="33" t="s">
+      <c r="AJ41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AK41" s="35" t="s">
+      <c r="AK41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AL41" s="32" t="s">
+      <c r="AL41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AM41" s="33" t="s">
+      <c r="AM41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN41" s="35" t="s">
+      <c r="AN41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AO41" s="32" t="s">
+      <c r="AO41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AP41" s="33" t="s">
+      <c r="AP41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AQ41" s="35" t="s">
+      <c r="AQ41" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AR41" s="32" t="s">
+      <c r="AR41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AS41" s="33" t="s">
+      <c r="AS41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AT41" s="35" t="s">
+      <c r="AT41" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5519,137 +5424,137 @@
       <c r="G42" s="1">
         <v>328477</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="O42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="59" t="s">
+      <c r="R42" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="33" t="s">
+      <c r="S42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="35" t="s">
+      <c r="T42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U42" s="32" t="s">
+      <c r="U42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="33" t="s">
+      <c r="V42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="35" t="s">
+      <c r="W42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X42" s="32" t="s">
+      <c r="X42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Y42" s="33" t="s">
+      <c r="Y42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z42" s="35" t="s">
+      <c r="Z42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB42" s="56" t="s">
+      <c r="AB42" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC42" s="65">
+      <c r="AC42" s="39">
         <f>MIN(I12:I21)/1000</f>
         <v>4.0110000000000001</v>
       </c>
-      <c r="AD42" s="66">
+      <c r="AD42" s="40">
         <f>MIN(J12:J21)/1000</f>
         <v>4.5430000000000001</v>
       </c>
-      <c r="AE42" s="67">
+      <c r="AE42" s="41">
         <f>MIN(K4:K13)/1000</f>
         <v>0.66600000000000004</v>
       </c>
-      <c r="AF42" s="65">
-        <f>MIN(L12:L21)/1000</f>
+      <c r="AF42" s="39">
+        <f t="shared" ref="AF42:AT42" si="9">MIN(L12:L21)/1000</f>
         <v>1.3240000000000001</v>
       </c>
-      <c r="AG42" s="66">
-        <f>MIN(M12:M21)/1000</f>
+      <c r="AG42" s="40">
+        <f t="shared" si="9"/>
         <v>1.206</v>
       </c>
-      <c r="AH42" s="67">
-        <f>MIN(N12:N21)/1000</f>
+      <c r="AH42" s="41">
+        <f t="shared" si="9"/>
         <v>1.2130000000000001</v>
       </c>
-      <c r="AI42" s="65">
-        <f>MIN(O12:O21)/1000</f>
+      <c r="AI42" s="39">
+        <f t="shared" si="9"/>
         <v>3.4910000000000001</v>
       </c>
-      <c r="AJ42" s="66">
-        <f>MIN(P12:P21)/1000</f>
+      <c r="AJ42" s="40">
+        <f t="shared" si="9"/>
         <v>3.0289999999999999</v>
       </c>
-      <c r="AK42" s="67">
-        <f>MIN(Q12:Q21)/1000</f>
+      <c r="AK42" s="41">
+        <f t="shared" si="9"/>
         <v>1.875</v>
       </c>
-      <c r="AL42" s="65">
-        <f>MIN(R12:R21)/1000</f>
+      <c r="AL42" s="39">
+        <f t="shared" si="9"/>
         <v>3.5750000000000002</v>
       </c>
-      <c r="AM42" s="66">
-        <f>MIN(S12:S21)/1000</f>
+      <c r="AM42" s="40">
+        <f t="shared" si="9"/>
         <v>2.1080000000000001</v>
       </c>
-      <c r="AN42" s="67">
-        <f>MIN(T12:T21)/1000</f>
+      <c r="AN42" s="41">
+        <f t="shared" si="9"/>
         <v>2.06</v>
       </c>
-      <c r="AO42" s="65">
-        <f>MIN(U12:U21)/1000</f>
+      <c r="AO42" s="39">
+        <f t="shared" si="9"/>
         <v>3.9359999999999999</v>
       </c>
-      <c r="AP42" s="66">
-        <f>MIN(V12:V21)/1000</f>
+      <c r="AP42" s="40">
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
-      <c r="AQ42" s="67">
-        <f>MIN(W12:W21)/1000</f>
+      <c r="AQ42" s="41">
+        <f t="shared" si="9"/>
         <v>1.2689999999999999</v>
       </c>
-      <c r="AR42" s="65">
-        <f>MIN(X12:X21)/1000</f>
+      <c r="AR42" s="39">
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AS42" s="66">
-        <f>MIN(Y12:Y21)/1000</f>
+      <c r="AS42" s="40">
+        <f t="shared" si="9"/>
         <v>1.663</v>
       </c>
-      <c r="AT42" s="67">
-        <f>MIN(Z12:Z21)/1000</f>
+      <c r="AT42" s="41">
+        <f t="shared" si="9"/>
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -5671,7 +5576,7 @@
       <c r="G43" s="1">
         <v>327272</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="28">
         <v>1</v>
       </c>
       <c r="I43" s="4">
@@ -5701,7 +5606,7 @@
       <c r="Q43" s="14">
         <v>164958</v>
       </c>
-      <c r="R43" s="60">
+      <c r="R43" s="37">
         <v>205360</v>
       </c>
       <c r="S43" s="12">
@@ -5728,83 +5633,83 @@
       <c r="Z43" s="14">
         <v>170477</v>
       </c>
-      <c r="AB43" s="56" t="s">
+      <c r="AB43" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AC43" s="68">
-        <f>MIN(I25:I34)/1000</f>
+      <c r="AC43" s="42">
+        <f t="shared" ref="AC43:AM43" si="10">MIN(I25:I34)/1000</f>
         <v>15.802</v>
       </c>
-      <c r="AD43" s="63">
-        <f>MIN(J25:J34)/1000</f>
+      <c r="AD43" s="38">
+        <f t="shared" si="10"/>
         <v>5.2560000000000002</v>
       </c>
-      <c r="AE43" s="69">
-        <f>MIN(K25:K34)/1000</f>
+      <c r="AE43" s="43">
+        <f t="shared" si="10"/>
         <v>1.7549999999999999</v>
       </c>
-      <c r="AF43" s="68">
-        <f>MIN(L25:L34)/1000</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="AG43" s="63">
-        <f>MIN(M25:M34)/1000</f>
-        <v>3.7919999999999998</v>
-      </c>
-      <c r="AH43" s="69">
-        <f>MIN(N25:N34)/1000</f>
-        <v>3.827</v>
-      </c>
-      <c r="AI43" s="68">
-        <f>MIN(O25:O34)/1000</f>
-        <v>13.446999999999999</v>
-      </c>
-      <c r="AJ43" s="63">
-        <f>MIN(P25:P34)/1000</f>
+      <c r="AF43" s="42">
+        <f t="shared" si="10"/>
+        <v>8.8249999999999993</v>
+      </c>
+      <c r="AG43" s="38">
+        <f t="shared" si="10"/>
+        <v>11.516</v>
+      </c>
+      <c r="AH43" s="43">
+        <f t="shared" si="10"/>
+        <v>5.7530000000000001</v>
+      </c>
+      <c r="AI43" s="42">
+        <f t="shared" si="10"/>
+        <v>15.573</v>
+      </c>
+      <c r="AJ43" s="38">
+        <f t="shared" si="10"/>
         <v>12.07</v>
       </c>
-      <c r="AK43" s="69">
-        <f>MIN(Q25:Q34)/1000</f>
+      <c r="AK43" s="43">
+        <f t="shared" si="10"/>
         <v>8.9139999999999997</v>
       </c>
-      <c r="AL43" s="68">
-        <f>MIN(R25:R34)/1000</f>
-        <v>15.477</v>
-      </c>
-      <c r="AM43" s="63">
-        <f>MIN(S25:S34)/1000</f>
-        <v>13.409000000000001</v>
-      </c>
-      <c r="AN43" s="69">
+      <c r="AL43" s="42">
+        <f t="shared" si="10"/>
+        <v>16.074000000000002</v>
+      </c>
+      <c r="AM43" s="38">
+        <f t="shared" si="10"/>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="AN43" s="43">
         <f>MAX(W25:W34)/1000</f>
         <v>29.963999999999999</v>
       </c>
-      <c r="AO43" s="68">
-        <f>MIN(U25:U34)/1000</f>
+      <c r="AO43" s="42">
+        <f t="shared" ref="AO43:AT43" si="11">MIN(U25:U34)/1000</f>
         <v>15.8</v>
       </c>
-      <c r="AP43" s="63">
-        <f>MIN(V25:V34)/1000</f>
+      <c r="AP43" s="38">
+        <f t="shared" si="11"/>
         <v>6.0039999999999996</v>
       </c>
-      <c r="AQ43" s="69">
-        <f>MIN(W25:W34)/1000</f>
-        <v>4.17</v>
-      </c>
-      <c r="AR43" s="68">
-        <f>MIN(X25:X34)/1000</f>
+      <c r="AQ43" s="43">
+        <f t="shared" si="11"/>
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="AR43" s="42">
+        <f t="shared" si="11"/>
         <v>15.938000000000001</v>
       </c>
-      <c r="AS43" s="63">
-        <f>MIN(Y25:Y34)/1000</f>
+      <c r="AS43" s="38">
+        <f t="shared" si="11"/>
         <v>17.378</v>
       </c>
-      <c r="AT43" s="69">
-        <f>MIN(Z25:Z34)/1000</f>
+      <c r="AT43" s="43">
+        <f t="shared" si="11"/>
         <v>4.8490000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -5826,7 +5731,7 @@
       <c r="G44" s="1">
         <v>333759</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="28">
         <v>2</v>
       </c>
       <c r="I44" s="4">
@@ -5856,7 +5761,7 @@
       <c r="Q44" s="5">
         <v>343875</v>
       </c>
-      <c r="R44" s="28">
+      <c r="R44" s="20">
         <v>328497</v>
       </c>
       <c r="S44" s="1">
@@ -5883,79 +5788,79 @@
       <c r="Z44" s="5">
         <v>195367</v>
       </c>
-      <c r="AB44" s="56" t="s">
+      <c r="AB44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC44" s="68">
-        <f>MIN(I38:I47)/1000</f>
-        <v>67.781000000000006</v>
-      </c>
-      <c r="AD44" s="63">
-        <f>MIN(J38:J47)/1000</f>
+      <c r="AC44" s="42">
+        <f t="shared" ref="AC44:AM44" si="12">MIN(I38:I47)/1000</f>
+        <v>67.823999999999998</v>
+      </c>
+      <c r="AD44" s="38">
+        <f t="shared" si="12"/>
         <v>62.756999999999998</v>
       </c>
-      <c r="AE44" s="69">
-        <f>MIN(K38:K47)/1000</f>
+      <c r="AE44" s="43">
+        <f t="shared" si="12"/>
         <v>32.820999999999998</v>
       </c>
-      <c r="AF44" s="68">
-        <f>MIN(L38:L47)/1000</f>
-        <v>26.562000000000001</v>
-      </c>
-      <c r="AG44" s="63">
-        <f>MIN(M38:M47)/1000</f>
-        <v>83.39</v>
-      </c>
-      <c r="AH44" s="69">
-        <f>MIN(N38:N47)/1000</f>
-        <v>15.092000000000001</v>
-      </c>
-      <c r="AI44" s="68">
-        <f>MIN(O38:O47)/1000</f>
-        <v>64.442999999999998</v>
-      </c>
-      <c r="AJ44" s="63">
-        <f>MIN(P38:P47)/1000</f>
-        <v>62.866999999999997</v>
-      </c>
-      <c r="AK44" s="69">
-        <f>MIN(Q38:Q47)/1000</f>
-        <v>49.762999999999998</v>
-      </c>
-      <c r="AL44" s="68">
-        <f>MIN(R38:R47)/1000</f>
-        <v>63.744999999999997</v>
-      </c>
-      <c r="AM44" s="63">
-        <f>MIN(S38:S47)/1000</f>
-        <v>50.265000000000001</v>
-      </c>
-      <c r="AN44" s="69">
+      <c r="AF44" s="42">
+        <f t="shared" si="12"/>
+        <v>64.152000000000001</v>
+      </c>
+      <c r="AG44" s="38">
+        <f t="shared" si="12"/>
+        <v>91.245000000000005</v>
+      </c>
+      <c r="AH44" s="43">
+        <f t="shared" si="12"/>
+        <v>47.17</v>
+      </c>
+      <c r="AI44" s="42">
+        <f t="shared" si="12"/>
+        <v>67.225999999999999</v>
+      </c>
+      <c r="AJ44" s="38">
+        <f t="shared" si="12"/>
+        <v>89.081999999999994</v>
+      </c>
+      <c r="AK44" s="43">
+        <f t="shared" si="12"/>
+        <v>60.215000000000003</v>
+      </c>
+      <c r="AL44" s="42">
+        <f t="shared" si="12"/>
+        <v>64.435000000000002</v>
+      </c>
+      <c r="AM44" s="38">
+        <f t="shared" si="12"/>
+        <v>80.441000000000003</v>
+      </c>
+      <c r="AN44" s="43">
         <f>MAX(T38:T47)/1000</f>
         <v>122.753</v>
       </c>
-      <c r="AO44" s="68">
-        <f>MIN(U38:U47)/1000</f>
+      <c r="AO44" s="42">
+        <f t="shared" ref="AO44:AT44" si="13">MIN(U38:U47)/1000</f>
         <v>66.478999999999999</v>
       </c>
-      <c r="AP44" s="63">
-        <f>MIN(V38:V47)/1000</f>
+      <c r="AP44" s="38">
+        <f t="shared" si="13"/>
         <v>17.681999999999999</v>
       </c>
-      <c r="AQ44" s="69">
-        <f>MIN(W38:W47)/1000</f>
-        <v>10.579000000000001</v>
-      </c>
-      <c r="AR44" s="68">
-        <f>MIN(X38:X47)/1000</f>
+      <c r="AQ44" s="43">
+        <f t="shared" si="13"/>
+        <v>35.411999999999999</v>
+      </c>
+      <c r="AR44" s="42">
+        <f t="shared" si="13"/>
         <v>74.248999999999995</v>
       </c>
-      <c r="AS44" s="63">
-        <f>MIN(Y38:Y47)/1000</f>
-        <v>80.936999999999998</v>
-      </c>
-      <c r="AT44" s="69">
-        <f>MIN(Z38:Z47)/1000</f>
+      <c r="AS44" s="38">
+        <f t="shared" si="13"/>
+        <v>91.183000000000007</v>
+      </c>
+      <c r="AT44" s="43">
+        <f t="shared" si="13"/>
         <v>38.409999999999997</v>
       </c>
     </row>
@@ -5981,7 +5886,7 @@
       <c r="G45" s="1">
         <v>334865</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="29">
         <v>3</v>
       </c>
       <c r="I45" s="4">
@@ -6011,7 +5916,7 @@
       <c r="Q45" s="5">
         <v>259071</v>
       </c>
-      <c r="R45" s="28">
+      <c r="R45" s="20">
         <v>238024</v>
       </c>
       <c r="S45" s="1">
@@ -6038,83 +5943,83 @@
       <c r="Z45" s="5">
         <v>307820</v>
       </c>
-      <c r="AB45" s="57" t="s">
+      <c r="AB45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC45" s="74">
-        <f>MIN(I43:I52)/1000</f>
+      <c r="AC45" s="45">
+        <f t="shared" ref="AC45:AT45" si="14">MIN(I43:I52)/1000</f>
         <v>495.25099999999998</v>
       </c>
-      <c r="AD45" s="72">
-        <f>MIN(J43:J52)/1000</f>
+      <c r="AD45" s="44">
+        <f t="shared" si="14"/>
         <v>80.42</v>
       </c>
-      <c r="AE45" s="75">
-        <f>MIN(K43:K52)/1000</f>
+      <c r="AE45" s="46">
+        <f t="shared" si="14"/>
         <v>22.27</v>
       </c>
-      <c r="AF45" s="74">
-        <f>MIN(L43:L52)/1000</f>
-        <v>139.37</v>
-      </c>
-      <c r="AG45" s="72">
-        <f>MIN(M43:M52)/1000</f>
+      <c r="AF45" s="45">
+        <f t="shared" si="14"/>
+        <v>148.411</v>
+      </c>
+      <c r="AG45" s="44">
+        <f t="shared" si="14"/>
         <v>104.902</v>
       </c>
-      <c r="AH45" s="75">
-        <f>MIN(N43:N52)/1000</f>
+      <c r="AH45" s="46">
+        <f t="shared" si="14"/>
         <v>61.112000000000002</v>
       </c>
-      <c r="AI45" s="74">
-        <f>MIN(O43:O52)/1000</f>
+      <c r="AI45" s="45">
+        <f t="shared" si="14"/>
         <v>326.28199999999998</v>
       </c>
-      <c r="AJ45" s="72">
-        <f>MIN(P43:P52)/1000</f>
+      <c r="AJ45" s="44">
+        <f t="shared" si="14"/>
         <v>287.62200000000001</v>
       </c>
-      <c r="AK45" s="75">
-        <f>MIN(Q43:Q52)/1000</f>
+      <c r="AK45" s="46">
+        <f t="shared" si="14"/>
         <v>164.958</v>
       </c>
-      <c r="AL45" s="74">
-        <f>MIN(R43:R52)/1000</f>
+      <c r="AL45" s="45">
+        <f t="shared" si="14"/>
         <v>205.36</v>
       </c>
-      <c r="AM45" s="72">
-        <f>MIN(S43:S52)/1000</f>
+      <c r="AM45" s="44">
+        <f t="shared" si="14"/>
         <v>100.173</v>
       </c>
-      <c r="AN45" s="75">
-        <f>MIN(T43:T52)/1000</f>
+      <c r="AN45" s="46">
+        <f t="shared" si="14"/>
         <v>33.201000000000001</v>
       </c>
-      <c r="AO45" s="74">
-        <f>MIN(U43:U52)/1000</f>
+      <c r="AO45" s="45">
+        <f t="shared" si="14"/>
         <v>320.72800000000001</v>
       </c>
-      <c r="AP45" s="72">
-        <f>MIN(V43:V52)/1000</f>
+      <c r="AP45" s="44">
+        <f t="shared" si="14"/>
         <v>68.325999999999993</v>
       </c>
-      <c r="AQ45" s="75">
-        <f>MIN(W43:W52)/1000</f>
+      <c r="AQ45" s="46">
+        <f t="shared" si="14"/>
         <v>29.725000000000001</v>
       </c>
-      <c r="AR45" s="74">
-        <f>MIN(X43:X52)/1000</f>
+      <c r="AR45" s="45">
+        <f t="shared" si="14"/>
         <v>315.822</v>
       </c>
-      <c r="AS45" s="72">
-        <f>MIN(Y43:Y52)/1000</f>
+      <c r="AS45" s="44">
+        <f t="shared" si="14"/>
         <v>99.819000000000003</v>
       </c>
-      <c r="AT45" s="75">
-        <f>MIN(Z43:Z52)/1000</f>
+      <c r="AT45" s="46">
+        <f t="shared" si="14"/>
         <v>155.85400000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -6136,7 +6041,7 @@
       <c r="G46" s="1">
         <v>322165</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="29">
         <v>4</v>
       </c>
       <c r="I46" s="4">
@@ -6166,7 +6071,7 @@
       <c r="Q46" s="5">
         <v>282359</v>
       </c>
-      <c r="R46" s="28">
+      <c r="R46" s="20">
         <v>326142</v>
       </c>
       <c r="S46" s="1">
@@ -6194,7 +6099,7 @@
         <v>230859</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -6216,7 +6121,7 @@
       <c r="G47" s="1">
         <v>322488</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="29">
         <v>5</v>
       </c>
       <c r="I47" s="4">
@@ -6246,7 +6151,7 @@
       <c r="Q47" s="5">
         <v>299783</v>
       </c>
-      <c r="R47" s="28">
+      <c r="R47" s="20">
         <v>308631</v>
       </c>
       <c r="S47" s="1">
@@ -6274,29 +6179,17 @@
         <v>263207</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="1">
-        <v>494302</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1048039</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1162210</v>
-      </c>
-      <c r="E48" s="1">
-        <v>521618</v>
-      </c>
-      <c r="F48" s="1">
-        <v>484604</v>
-      </c>
-      <c r="G48" s="1">
-        <v>363353</v>
-      </c>
-      <c r="H48" s="45">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="29">
         <v>6</v>
       </c>
       <c r="I48" s="4">
@@ -6326,7 +6219,7 @@
       <c r="Q48" s="5">
         <v>340772</v>
       </c>
-      <c r="R48" s="28">
+      <c r="R48" s="20">
         <v>296690</v>
       </c>
       <c r="S48" s="1">
@@ -6354,7 +6247,7 @@
         <v>291538</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H49" s="3">
         <v>7</v>
       </c>
@@ -6385,7 +6278,7 @@
       <c r="Q49" s="5">
         <v>363863</v>
       </c>
-      <c r="R49" s="28">
+      <c r="R49" s="20">
         <v>509208</v>
       </c>
       <c r="S49" s="1">
@@ -6413,7 +6306,7 @@
         <v>302675</v>
       </c>
     </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H50" s="3">
         <v>8</v>
       </c>
@@ -6444,7 +6337,7 @@
       <c r="Q50" s="5">
         <v>414111</v>
       </c>
-      <c r="R50" s="28">
+      <c r="R50" s="20">
         <v>437914</v>
       </c>
       <c r="S50" s="1">
@@ -6472,7 +6365,7 @@
         <v>180209</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H51" s="3">
         <v>9</v>
       </c>
@@ -6503,7 +6396,7 @@
       <c r="Q51" s="5">
         <v>324233</v>
       </c>
-      <c r="R51" s="28">
+      <c r="R51" s="20">
         <v>376497</v>
       </c>
       <c r="S51" s="1">
@@ -6531,75 +6424,96 @@
         <v>155854</v>
       </c>
     </row>
-    <row r="52" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H52" s="3">
         <v>10</v>
       </c>
-      <c r="I52" s="6">
-        <v>515276</v>
-      </c>
-      <c r="J52" s="7">
-        <v>477162</v>
-      </c>
-      <c r="K52" s="8">
-        <v>284560</v>
-      </c>
-      <c r="L52" s="6">
-        <v>139370</v>
-      </c>
-      <c r="M52" s="7">
-        <v>545229</v>
-      </c>
-      <c r="N52" s="8">
-        <v>100821</v>
-      </c>
-      <c r="O52" s="6">
-        <v>588052</v>
-      </c>
-      <c r="P52" s="7">
-        <v>969909</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>445606</v>
-      </c>
-      <c r="R52" s="29">
-        <v>303511</v>
-      </c>
-      <c r="S52" s="7">
-        <v>401658</v>
-      </c>
-      <c r="T52" s="8">
-        <v>89316</v>
-      </c>
-      <c r="U52" s="6">
-        <v>445741</v>
-      </c>
-      <c r="V52" s="7">
-        <v>269020</v>
-      </c>
-      <c r="W52" s="8">
-        <v>33594</v>
-      </c>
-      <c r="X52" s="6">
-        <v>426445</v>
-      </c>
-      <c r="Y52" s="7">
-        <v>160577</v>
-      </c>
-      <c r="Z52" s="8">
-        <v>279965</v>
-      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="I14:Z14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I40:Z40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AB15:AJ15"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AB8:AJ8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="AB22:AT22"/>
     <mergeCell ref="AB39:AT39"/>
     <mergeCell ref="AB31:AT31"/>
@@ -6616,71 +6530,14 @@
     <mergeCell ref="AF32:AH32"/>
     <mergeCell ref="AC32:AE32"/>
     <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AB8:AJ8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AB15:AJ15"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I40:Z40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="I27:Z27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="I14:Z14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AC23:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/src/main/java/time/Time.xlsx
+++ b/src/main/java/time/Time.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\MazeJava\src\main\java\time\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -100,6 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1119,41 +1120,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.140625" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="29" max="30" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="44" max="45" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
